--- a/OutputGrapher/Test Data Sheet.xlsx
+++ b/OutputGrapher/Test Data Sheet.xlsx
@@ -159,10 +159,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$49</c:f>
+              <c:f>Sheet1!$A$3:$A$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -303,156 +303,942 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6350</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7250</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$49</c:f>
+              <c:f>Sheet1!$B$3:$B$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.008500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.0455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09838099620323676</c:v>
+                  <c:v>0.05929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.0927</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.1122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.1337</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.1568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.2092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.2381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.2689</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.3017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.3364</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.01546693335858496</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.4116</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.4945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.5389</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.5852000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.6334</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.6837999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.7361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.7903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.8466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.9049</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.09753349300550607</c:v>
+                  <c:v>0.9653</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.0276</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.0919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.1584</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.2268</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.2973</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.4447</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.5214</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.6002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.6811</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.764</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.09845162146971431</c:v>
+                  <c:v>1.8491</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.09718036667311829</c:v>
+                  <c:v>1.9362</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.09718036667311829</c:v>
+                  <c:v>2.0253</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1164</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2096</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4019</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6019</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8095</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9158</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0234</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3493</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4593</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6821</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7951</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9095</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1419</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3791</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.4992</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6204</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7425</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8655</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9895</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1142</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.2396</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.3659</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.4929</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.6205</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.748900000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8778</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0073</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.1374</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.268</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.399099999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5308</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.6629</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.7955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9283</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0604</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1897</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.3163</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4403</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5618</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.6807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.7971</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.911200000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.0229</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.132300000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.2394</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.344200000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.446899999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.547599999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.646100000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.742599999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.8371</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.9299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.0206</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.1098</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.1974</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.2836</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3688</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.4528</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.5359</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.618399999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.700200000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.7814</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.8622</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.9427</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.023</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.1031</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.1822</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.2601</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.3367</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.4121</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.4861</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.559</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.6306</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.7011</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.7703</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.8383</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.9052</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.9708</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.0353</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.0985</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.1606</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11.2215</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.2811</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.3395</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.3968</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.4527</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11.5075</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.5609</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11.6131</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.6642</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11.7139</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.7623</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11.8095</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.8554</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.8999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.9431</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11.9852</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.0258</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.0651</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.103</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.1396</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.1749</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12.2088</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.2414</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12.2727</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12.3025</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.331</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.358</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.3838</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.4081</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.431</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12.4525</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.4728</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.4915</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.5089</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.5247</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.5393</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12.5524</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12.5641</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12.5744</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.5832</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.5907</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.5968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,10 +1264,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$49</c:f>
+              <c:f>Sheet1!$A$3:$A$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -622,156 +1408,942 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6350</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7250</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$49</c:f>
+              <c:f>Sheet1!$C$3:$C$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>2.865761437859826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.865761437859826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.865761437859826</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.06280593133221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.158291291609867</c:v>
+                  <c:v>0.0002118757994326707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.252081645492062</c:v>
+                  <c:v>0.005791271851159665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.252081645492062</c:v>
+                  <c:v>0.01002878783981308</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.436837342597351</c:v>
+                  <c:v>0.01567880915801763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.528932690084086</c:v>
+                  <c:v>0.02337696320407133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.617002397381599</c:v>
+                  <c:v>0.03700763963423982</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.702176468753533</c:v>
+                  <c:v>0.05692396478091086</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.786926788526601</c:v>
+                  <c:v>0.07733466679292481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.870405853503073</c:v>
+                  <c:v>0.1012766321288166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.950636156221578</c:v>
+                  <c:v>0.1012766321288166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.029030202011666</c:v>
+                  <c:v>0.1553049609841476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.029030202011666</c:v>
+                  <c:v>0.1848263223717664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.178826392210564</c:v>
+                  <c:v>0.2163958164872343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.21420965071582</c:v>
+                  <c:v>0.2496603169981636</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.266684223708645</c:v>
+                  <c:v>0.2853967018358074</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.332365721532772</c:v>
+                  <c:v>0.3229693436018677</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.393950953901203</c:v>
+                  <c:v>0.3621663664969118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.452569925077574</c:v>
+                  <c:v>0.3621663664969118</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.495933838694794</c:v>
+                  <c:v>0.4487529431983965</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5368258679853</c:v>
+                  <c:v>0.4946593664088085</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.59028919470881</c:v>
+                  <c:v>0.5426139223470696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.59028919470881</c:v>
+                  <c:v>0.5924047352137473</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.672143878556299</c:v>
+                  <c:v>0.6434668028770208</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.711482151984298</c:v>
+                  <c:v>0.6974245064658744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.711482151984298</c:v>
+                  <c:v>0.6974245064658744</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.796303097023844</c:v>
+                  <c:v>0.8110605602282633</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.822293195087584</c:v>
+                  <c:v>0.8698914072040683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.850402051145653</c:v>
+                  <c:v>0.9314766395724979</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.885714684384431</c:v>
+                  <c:v>0.9949687541358215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.919049810161837</c:v>
+                  <c:v>1.060509001426994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.919049810161837</c:v>
+                  <c:v>1.128238631978971</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.961848721647237</c:v>
+                  <c:v>1.198510772124141</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9877681944445</c:v>
+                  <c:v>1.269771665999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.011710159780392</c:v>
+                  <c:v>1.343575069469042</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.024422707746353</c:v>
+                  <c:v>1.420062233064237</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.043774030761203</c:v>
+                  <c:v>1.498456278854325</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.049424052079408</c:v>
+                  <c:v>1.498456278854325</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.06411410750674</c:v>
+                  <c:v>1.660117513821452</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.079510415598847</c:v>
+                  <c:v>1.743879079863835</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.084312933719321</c:v>
+                  <c:v>1.830889408164185</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.084948561117619</c:v>
+                  <c:v>1.919735993392952</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.095401100556297</c:v>
+                  <c:v>1.919735993392952</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.093352967828448</c:v>
+                  <c:v>2.100536675575497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.194044528391783</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.290306766600692</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.388829013336884</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.489964394932746</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.591947279726338</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.695695796181869</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.801139319032862</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.907218469282152</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.013438870064398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.121354277242105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.231105941348228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.341140106520262</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.450326768494564</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.561844064262627</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.561844064262627</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.787350540125466</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.902045972885019</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.018648287839465</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.135674354392776</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.254324802075073</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.374387755086919</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.494097581766378</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.615078663242433</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.736271620517921</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.859936462120123</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.98459005745301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.110303031783062</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.237146010376754</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.364624616368745</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.492738849759032</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.622477464278305</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.751439200866323</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.881177815385596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.881177815385596</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.140584419157662</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.270958661075232</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.270958661075232</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.534744031368906</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.668225785011489</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.801283787055207</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.933353035368238</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.062102896156825</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.187674619953921</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.308726326696453</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.430837412436149</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.430837412436149</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.670257065795067</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.785164374354052</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.898235425984621</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.008834593288475</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.116467499400271</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.221769771718309</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.324953286042019</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.426865545569134</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.426865545569134</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.62355691270913</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.718971647720309</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.811420121539431</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.902879841627866</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.993209557452662</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.081985517414951</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.081985517414951</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.255370546617353</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.339767740058035</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.424941811429967</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.508138375340529</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.591617440317002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.674249002095744</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.755962435410277</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.836051487595826</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.917129293512062</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.998065848895342</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.07723677261668</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.154924565742</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.23225923253492</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.30874639613011</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.38339730279689</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.45748320733185</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.5300153560043</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.60148812567959</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.67183089109123</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.74111427750572</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.80863203225826</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.87607916174433</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.94147815850255</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.00539402466474</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.00539402466474</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.12912949153342</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.19029097230298</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11.24862744241344</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.30745828938925</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.3648766310355</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.42059996628629</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.4753345478064</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11.528515373464</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.58056619485796</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11.63092200985646</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.68057157219018</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11.72852612812844</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.77443255133885</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11.81956209661801</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.86306726076819</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.90544242065472</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.94633444994523</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11.98588459917266</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.02430474413645</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.06102988270478</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.09669564227594</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.13109014705052</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.16421339702849</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12.19571226587748</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.19571226587748</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12.25383686018851</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12.2812394635818</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.30772393851088</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.33244278177803</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.35666724817983</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.38180984304584</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.40525743151639</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12.42701001359148</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.448974471466</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.4691026724121</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.48760649222922</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.50660468891169</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.52645038879188</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12.54403608014479</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12.54403608014479</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12.57511119739492</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.58916562542395</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.60216067445582</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.61374321815814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,10 +2475,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$49</c:f>
+              <c:f>Sheet1!$D$3:$D$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1047,156 +2619,942 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6350</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7250</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$49</c:f>
+              <c:f>Sheet1!$E$3:$E$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>2.376610842236267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.376610842236267</c:v>
+                  <c:v>0.0009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.376610842236267</c:v>
+                  <c:v>0.003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.376610842236267</c:v>
+                  <c:v>0.0065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.129405557620546</c:v>
+                  <c:v>0.0818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.09719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.1139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.1319</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.1513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.1939</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.2171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.757405427138982</c:v>
+                  <c:v>0.2416</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.2673</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.2945</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.3228</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.3523</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.3832</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.4152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.4485000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.25729106326713</c:v>
+                  <c:v>0.4829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.5188</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.5557</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.5939</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.6331</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.6737</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.7154</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.7581</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.629344967070899</c:v>
+                  <c:v>0.8021</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>0.8472</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>0.8934</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>0.9409</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>0.9895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>1.039</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>1.0899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>1.1417</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.873214012217903</c:v>
+                  <c:v>1.1948</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.989180699774052</c:v>
+                  <c:v>1.249</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.989180699774052</c:v>
+                  <c:v>1.3043</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.989180699774052</c:v>
+                  <c:v>1.3608</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4184</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4772</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5372</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5985</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6611</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7249</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8566</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9934</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.063</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1335</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2052</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3519</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4275</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5836</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6646</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.7476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.8326</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.9198</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.194100000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3884</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4891</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5921</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.6977</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8057</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9162</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0294</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.145</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2633</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3842</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5078</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.634</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.763</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.8948</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0293</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.1666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.3054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4438</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.5817</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.719000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.8557</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.9916</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.1268</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.2614</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.3951</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5278</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.6596</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.7904</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.920199999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.049</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.176600000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.4281</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.5521</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.6745</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.7959</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.9162</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.035399999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.1539</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.2715</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.388500000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.505100000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.6213</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.7369</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.852399999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.967599999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.082700000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.1976</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.311400000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.423299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.533200000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.641299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.747299999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.8514</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.9534</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.0536</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.1516</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.2477</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.3418</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.4339</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10.524</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>10.612</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.6982</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10.7823</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10.8643</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10.9444</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.0226</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.0987</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11.1729</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.2451</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11.3153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.3838</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11.4502</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.5146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11.5773</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.6379</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.6966</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.7535</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11.8086</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11.8616</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11.9129</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11.9622</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.0096</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.0553</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12.0991</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.1411</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12.1813</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12.2195</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.2561</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.2906</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.3235</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.3545</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.3836</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12.411</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.4367</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.4604</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.4825</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.5025</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.5211</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12.5376</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12.5524</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12.5654</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.5766</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.5861</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.5939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +3580,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$49</c:f>
+              <c:f>Sheet1!$D$3:$D$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1366,156 +3724,942 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5550</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6350</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7250</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$49</c:f>
+              <c:f>Sheet1!$F$3:$F$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>2.818654385119296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.818654385119296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.818654385119296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.027422672826954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.027422672826954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.228987183353901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.326520676359408</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.422217912436497</c:v>
+                  <c:v>0.002471884326714492</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.515655139986305</c:v>
+                  <c:v>0.011794419501752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.60683235900883</c:v>
+                  <c:v>0.01779756715234434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.69617332110294</c:v>
+                  <c:v>0.02464821800066736</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.784808030532274</c:v>
+                  <c:v>0.03460638057400288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.87280711256331</c:v>
+                  <c:v>0.03460638057400288</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.935169222862993</c:v>
+                  <c:v>0.07041339067812423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.968151222308012</c:v>
+                  <c:v>0.09075346742366061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.042449002642401</c:v>
+                  <c:v>0.1122235484328379</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.123809309624547</c:v>
+                  <c:v>0.1344705073732683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.19803646469246</c:v>
+                  <c:v>0.1584830979756377</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.19803646469246</c:v>
+                  <c:v>0.1840494444405133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.296558711428651</c:v>
+                  <c:v>0.2112401720343727</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.365771472576657</c:v>
+                  <c:v>0.2399140302242608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.408711634595011</c:v>
+                  <c:v>0.2399140302242608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.449533038619039</c:v>
+                  <c:v>0.301711138392123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.510694519388604</c:v>
+                  <c:v>0.3351168894360075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.568112861034858</c:v>
+                  <c:v>0.3695113942105777</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.568112861034858</c:v>
+                  <c:v>0.4054596548476541</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.637184371649909</c:v>
+                  <c:v>0.4421847934159837</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.688387689846137</c:v>
+                  <c:v>0.4803224373138644</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.688387689846137</c:v>
+                  <c:v>0.4803224373138644</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.761908592249274</c:v>
+                  <c:v>0.5593521105022506</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.79467871589486</c:v>
+                  <c:v>0.6010210177240092</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.835853246251276</c:v>
+                  <c:v>0.6433255523440657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.873779014349724</c:v>
+                  <c:v>0.6870425922936735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.895531596424811</c:v>
+                  <c:v>0.732384013372265</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.924629206213565</c:v>
+                  <c:v>0.778290436582677</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.954221192867661</c:v>
+                  <c:v>0.8270924957186688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.954221192867661</c:v>
+                  <c:v>0.8751176769234075</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.993488841029182</c:v>
+                  <c:v>0.9256853677213382</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.017077680032687</c:v>
+                  <c:v>0.9771711869834772</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.028024596336708</c:v>
+                  <c:v>1.029645759976302</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.044480283425979</c:v>
+                  <c:v>1.029645759976302</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.063902231707307</c:v>
+                  <c:v>1.137843668219919</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.06411410750674</c:v>
+                  <c:v>1.193778879270144</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.077462282870998</c:v>
+                  <c:v>1.250067216652757</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.088691700240929</c:v>
+                  <c:v>1.308544937296174</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.081205421994309</c:v>
+                  <c:v>1.367728910604367</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.091587336166509</c:v>
+                  <c:v>1.427972262909723</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.48962812054463</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.552978984574999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.618095480267306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.684271354956777</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.751577233909889</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.751577233909889</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.88943775407408</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.959780519485726</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.031465164960446</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.104138564165853</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.178365719233765</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.252027872169857</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.329009412630394</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.405708452025021</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.486786257941256</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.567016560659761</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.649224370839637</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.733974690612705</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.819855014649414</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.908984100944091</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.999666943101274</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.092115416920396</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.187742027731008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.284498642805261</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.384150893805094</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.487687534461192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.591436050916723</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.699775209693295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.809385623266464</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.921750422232257</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.036516480258287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.154107548943419</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.273322998757535</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.395292833964276</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.519240176632389</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.645376902561305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.774338639149324</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.907255390660086</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.043774030761203</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.183258932054378</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.322037580682777</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.460463102978789</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.599665503206054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.737596648636722</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.87411528873784</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.012117059434986</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.150330705931565</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.286990596565637</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.421531729205383</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.555860986045697</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.687223981693952</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.81851635207573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.950514975122284</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.079194210644393</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.20822657249889</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.334504548960761</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.459016893760694</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.584235491225402</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.706487827498053</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.826338904710467</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.945201228192196</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.06448730327279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.183208376221563</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.183208376221563</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.419026140990125</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.534992828546274</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.651736394033675</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.767773706856302</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.883316642813584</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.998435827172001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.111365628269615</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.225566684163825</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.336872104132455</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.447683147235741</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.555881055479357</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.661960205728649</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.767333103313163</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.870728493436307</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.971722624499213</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.07299925662803</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.16841399163921</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.26509998144699</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.3572659542002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.45621195253525</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.55197981387882</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.64577016776102</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10.73638238465172</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>10.82445209194923</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10.91103866865072</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10.99472960942662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10.99472960942662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.15328333266874</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.2301942478628</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.30618703459265</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11.30618703459265</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11.4517457088029</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11.5222297247475</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11.59024185636538</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11.65620585525542</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11.72026297195057</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11.78319008438207</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11.78319008438207</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11.90311178686096</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.95975325057596</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12.01441720682959</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.06717428088833</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.11802447275217</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.16696778242111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.21372170882926</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.25927500570728</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12.30270954459098</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.34395470021387</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12.38329297364187</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12.41994748694372</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.45504824438307</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.45504824438307</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.51896411054526</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.55025110359482</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.57970183971596</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12.57970183971596</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.6333770422389</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.65647150437706</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.67829471171863</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.69764603473348</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.7155142271523</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12.72992178151372</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12.74277558001264</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12.75259249205302</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.75958439343429</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.75958439343429</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.77194381506787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,7 +5095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1997,19 +5141,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>0.09838099620323676</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>2.865761437859826</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
       </c>
       <c r="E3" s="3">
-        <v>2.376610842236267</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>2.818654385119296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2017,19 +5161,19 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0012</v>
       </c>
       <c r="C4" s="3">
-        <v>2.865761437859826</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
       </c>
       <c r="E4" s="3">
-        <v>2.376610842236267</v>
+        <v>0.0009</v>
       </c>
       <c r="F4" s="3">
-        <v>2.818654385119296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2037,19 +5181,19 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0039</v>
       </c>
       <c r="C5" s="3">
-        <v>2.865761437859826</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
       </c>
       <c r="E5" s="3">
-        <v>2.376610842236267</v>
+        <v>0.003</v>
       </c>
       <c r="F5" s="3">
-        <v>2.818654385119296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2057,19 +5201,19 @@
         <v>200</v>
       </c>
       <c r="B6" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="C6" s="3">
-        <v>3.06280593133221</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="3">
-        <v>2.376610842236267</v>
+        <v>0.0065</v>
       </c>
       <c r="F6" s="3">
-        <v>3.027422672826954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2077,19 +5221,19 @@
         <v>250</v>
       </c>
       <c r="B7" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0149</v>
       </c>
       <c r="C7" s="3">
-        <v>3.158291291609867</v>
+        <v>0.0002118757994326707</v>
       </c>
       <c r="D7" s="3">
         <v>250</v>
       </c>
       <c r="E7" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0112</v>
       </c>
       <c r="F7" s="3">
-        <v>3.027422672826954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2097,19 +5241,19 @@
         <v>300</v>
       </c>
       <c r="B8" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0232</v>
       </c>
       <c r="C8" s="3">
-        <v>3.252081645492062</v>
+        <v>0.005791271851159665</v>
       </c>
       <c r="D8" s="3">
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0172</v>
       </c>
       <c r="F8" s="3">
-        <v>3.228987183353901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2117,19 +5261,19 @@
         <v>350</v>
       </c>
       <c r="B9" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0334</v>
       </c>
       <c r="C9" s="3">
-        <v>3.252081645492062</v>
+        <v>0.01002878783981308</v>
       </c>
       <c r="D9" s="3">
         <v>350</v>
       </c>
       <c r="E9" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0247</v>
       </c>
       <c r="F9" s="3">
-        <v>3.326520676359408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2137,19 +5281,19 @@
         <v>400</v>
       </c>
       <c r="B10" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.0455</v>
       </c>
       <c r="C10" s="3">
-        <v>3.436837342597351</v>
+        <v>0.01567880915801763</v>
       </c>
       <c r="D10" s="3">
         <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0335</v>
       </c>
       <c r="F10" s="3">
-        <v>3.422217912436497</v>
+        <v>0.002471884326714492</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2157,19 +5301,19 @@
         <v>450</v>
       </c>
       <c r="B11" s="3">
-        <v>0.09838099620323676</v>
+        <v>0.05929999999999999</v>
       </c>
       <c r="C11" s="3">
-        <v>3.528932690084086</v>
+        <v>0.02337696320407133</v>
       </c>
       <c r="D11" s="3">
         <v>450</v>
       </c>
       <c r="E11" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0435</v>
       </c>
       <c r="F11" s="3">
-        <v>3.515655139986305</v>
+        <v>0.011794419501752</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2177,19 +5321,19 @@
         <v>500</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.075</v>
       </c>
       <c r="C12" s="3">
-        <v>3.617002397381599</v>
+        <v>0.03700763963423982</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0549</v>
       </c>
       <c r="F12" s="3">
-        <v>3.60683235900883</v>
+        <v>0.01779756715234434</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2197,19 +5341,19 @@
         <v>550</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.0927</v>
       </c>
       <c r="C13" s="3">
-        <v>3.702176468753533</v>
+        <v>0.05692396478091086</v>
       </c>
       <c r="D13" s="3">
         <v>550</v>
       </c>
       <c r="E13" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0678</v>
       </c>
       <c r="F13" s="3">
-        <v>3.69617332110294</v>
+        <v>0.02464821800066736</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2217,19 +5361,19 @@
         <v>600</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.1122</v>
       </c>
       <c r="C14" s="3">
-        <v>3.786926788526601</v>
+        <v>0.07733466679292481</v>
       </c>
       <c r="D14" s="3">
         <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>3.129405557620546</v>
+        <v>0.0818</v>
       </c>
       <c r="F14" s="3">
-        <v>3.784808030532274</v>
+        <v>0.03460638057400288</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2237,19 +5381,19 @@
         <v>650</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.1337</v>
       </c>
       <c r="C15" s="3">
-        <v>3.870405853503073</v>
+        <v>0.1012766321288166</v>
       </c>
       <c r="D15" s="3">
         <v>650</v>
       </c>
       <c r="E15" s="3">
-        <v>3.757405427138982</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>3.87280711256331</v>
+        <v>0.03460638057400288</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2257,19 +5401,19 @@
         <v>700</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.1568</v>
       </c>
       <c r="C16" s="3">
-        <v>3.950636156221578</v>
+        <v>0.1012766321288166</v>
       </c>
       <c r="D16" s="3">
         <v>700</v>
       </c>
       <c r="E16" s="3">
-        <v>3.757405427138982</v>
+        <v>0.1139</v>
       </c>
       <c r="F16" s="3">
-        <v>3.935169222862993</v>
+        <v>0.07041339067812423</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2277,19 +5421,19 @@
         <v>750</v>
       </c>
       <c r="B17" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.182</v>
       </c>
       <c r="C17" s="3">
-        <v>4.029030202011666</v>
+        <v>0.1553049609841476</v>
       </c>
       <c r="D17" s="3">
         <v>750</v>
       </c>
       <c r="E17" s="3">
-        <v>3.757405427138982</v>
+        <v>0.1319</v>
       </c>
       <c r="F17" s="3">
-        <v>3.968151222308012</v>
+        <v>0.09075346742366061</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2297,19 +5441,19 @@
         <v>800</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.2092</v>
       </c>
       <c r="C18" s="3">
-        <v>4.029030202011666</v>
+        <v>0.1848263223717664</v>
       </c>
       <c r="D18" s="3">
         <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>3.757405427138982</v>
+        <v>0.1513</v>
       </c>
       <c r="F18" s="3">
-        <v>4.042449002642401</v>
+        <v>0.1122235484328379</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2317,19 +5461,19 @@
         <v>850</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.2381</v>
       </c>
       <c r="C19" s="3">
-        <v>4.178826392210564</v>
+        <v>0.2163958164872343</v>
       </c>
       <c r="D19" s="3">
         <v>850</v>
       </c>
       <c r="E19" s="3">
-        <v>3.757405427138982</v>
+        <v>0.172</v>
       </c>
       <c r="F19" s="3">
-        <v>4.123809309624547</v>
+        <v>0.1344705073732683</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2337,19 +5481,19 @@
         <v>900</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.2689</v>
       </c>
       <c r="C20" s="3">
-        <v>4.21420965071582</v>
+        <v>0.2496603169981636</v>
       </c>
       <c r="D20" s="3">
         <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>3.757405427138982</v>
+        <v>0.1939</v>
       </c>
       <c r="F20" s="3">
-        <v>4.19803646469246</v>
+        <v>0.1584830979756377</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2357,19 +5501,19 @@
         <v>950</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.3017</v>
       </c>
       <c r="C21" s="3">
-        <v>4.266684223708645</v>
+        <v>0.2853967018358074</v>
       </c>
       <c r="D21" s="3">
         <v>950</v>
       </c>
       <c r="E21" s="3">
-        <v>3.757405427138982</v>
+        <v>0.2171</v>
       </c>
       <c r="F21" s="3">
-        <v>4.19803646469246</v>
+        <v>0.1840494444405133</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2377,19 +5521,19 @@
         <v>1000</v>
       </c>
       <c r="B22" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.3364</v>
       </c>
       <c r="C22" s="3">
-        <v>4.332365721532772</v>
+        <v>0.3229693436018677</v>
       </c>
       <c r="D22" s="3">
         <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>3.757405427138982</v>
+        <v>0.2416</v>
       </c>
       <c r="F22" s="3">
-        <v>4.296558711428651</v>
+        <v>0.2112401720343727</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2397,19 +5541,19 @@
         <v>1050</v>
       </c>
       <c r="B23" s="3">
-        <v>-0.01546693335858496</v>
+        <v>0.373</v>
       </c>
       <c r="C23" s="3">
-        <v>4.393950953901203</v>
+        <v>0.3621663664969118</v>
       </c>
       <c r="D23" s="3">
         <v>1050</v>
       </c>
       <c r="E23" s="3">
-        <v>4.25729106326713</v>
+        <v>0.2673</v>
       </c>
       <c r="F23" s="3">
-        <v>4.365771472576657</v>
+        <v>0.2399140302242608</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2417,19 +5561,19 @@
         <v>1100</v>
       </c>
       <c r="B24" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.4116</v>
       </c>
       <c r="C24" s="3">
-        <v>4.452569925077574</v>
+        <v>0.3621663664969118</v>
       </c>
       <c r="D24" s="3">
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>4.25729106326713</v>
+        <v>0.2945</v>
       </c>
       <c r="F24" s="3">
-        <v>4.408711634595011</v>
+        <v>0.2399140302242608</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2437,19 +5581,19 @@
         <v>1150</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.452</v>
       </c>
       <c r="C25" s="3">
-        <v>4.495933838694794</v>
+        <v>0.4487529431983965</v>
       </c>
       <c r="D25" s="3">
         <v>1150</v>
       </c>
       <c r="E25" s="3">
-        <v>4.25729106326713</v>
+        <v>0.3228</v>
       </c>
       <c r="F25" s="3">
-        <v>4.449533038619039</v>
+        <v>0.301711138392123</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2457,19 +5601,19 @@
         <v>1200</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.4945</v>
       </c>
       <c r="C26" s="3">
-        <v>4.5368258679853</v>
+        <v>0.4946593664088085</v>
       </c>
       <c r="D26" s="3">
         <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>4.25729106326713</v>
+        <v>0.3523</v>
       </c>
       <c r="F26" s="3">
-        <v>4.510694519388604</v>
+        <v>0.3351168894360075</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2477,19 +5621,19 @@
         <v>1250</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.5389</v>
       </c>
       <c r="C27" s="3">
-        <v>4.59028919470881</v>
+        <v>0.5426139223470696</v>
       </c>
       <c r="D27" s="3">
         <v>1250</v>
       </c>
       <c r="E27" s="3">
-        <v>4.25729106326713</v>
+        <v>0.3832</v>
       </c>
       <c r="F27" s="3">
-        <v>4.568112861034858</v>
+        <v>0.3695113942105777</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2497,19 +5641,19 @@
         <v>1300</v>
       </c>
       <c r="B28" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>4.59028919470881</v>
+        <v>0.5924047352137473</v>
       </c>
       <c r="D28" s="3">
         <v>1300</v>
       </c>
       <c r="E28" s="3">
-        <v>4.25729106326713</v>
+        <v>0.4152</v>
       </c>
       <c r="F28" s="3">
-        <v>4.568112861034858</v>
+        <v>0.4054596548476541</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2517,19 +5661,19 @@
         <v>1350</v>
       </c>
       <c r="B29" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.6334</v>
       </c>
       <c r="C29" s="3">
-        <v>4.672143878556299</v>
+        <v>0.6434668028770208</v>
       </c>
       <c r="D29" s="3">
         <v>1350</v>
       </c>
       <c r="E29" s="3">
-        <v>4.25729106326713</v>
+        <v>0.4485000000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>4.637184371649909</v>
+        <v>0.4421847934159837</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2537,19 +5681,19 @@
         <v>1400</v>
       </c>
       <c r="B30" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.6837999999999999</v>
       </c>
       <c r="C30" s="3">
-        <v>4.711482151984298</v>
+        <v>0.6974245064658744</v>
       </c>
       <c r="D30" s="3">
         <v>1400</v>
       </c>
       <c r="E30" s="3">
-        <v>4.25729106326713</v>
+        <v>0.4829999999999999</v>
       </c>
       <c r="F30" s="3">
-        <v>4.688387689846137</v>
+        <v>0.4803224373138644</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2557,19 +5701,19 @@
         <v>1450</v>
       </c>
       <c r="B31" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.7361</v>
       </c>
       <c r="C31" s="3">
-        <v>4.711482151984298</v>
+        <v>0.6974245064658744</v>
       </c>
       <c r="D31" s="3">
         <v>1450</v>
       </c>
       <c r="E31" s="3">
-        <v>4.629344967070899</v>
+        <v>0.5188</v>
       </c>
       <c r="F31" s="3">
-        <v>4.688387689846137</v>
+        <v>0.4803224373138644</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2577,19 +5721,19 @@
         <v>1500</v>
       </c>
       <c r="B32" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.7903</v>
       </c>
       <c r="C32" s="3">
-        <v>4.796303097023844</v>
+        <v>0.8110605602282633</v>
       </c>
       <c r="D32" s="3">
         <v>1500</v>
       </c>
       <c r="E32" s="3">
-        <v>4.629344967070899</v>
+        <v>0.5557</v>
       </c>
       <c r="F32" s="3">
-        <v>4.761908592249274</v>
+        <v>0.5593521105022506</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2597,19 +5741,19 @@
         <v>1550</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.8466</v>
       </c>
       <c r="C33" s="3">
-        <v>4.822293195087584</v>
+        <v>0.8698914072040683</v>
       </c>
       <c r="D33" s="3">
         <v>1550</v>
       </c>
       <c r="E33" s="3">
-        <v>4.629344967070899</v>
+        <v>0.5939</v>
       </c>
       <c r="F33" s="3">
-        <v>4.79467871589486</v>
+        <v>0.6010210177240092</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2617,19 +5761,19 @@
         <v>1600</v>
       </c>
       <c r="B34" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.9049</v>
       </c>
       <c r="C34" s="3">
-        <v>4.850402051145653</v>
+        <v>0.9314766395724979</v>
       </c>
       <c r="D34" s="3">
         <v>1600</v>
       </c>
       <c r="E34" s="3">
-        <v>4.629344967070899</v>
+        <v>0.6331</v>
       </c>
       <c r="F34" s="3">
-        <v>4.835853246251276</v>
+        <v>0.6433255523440657</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2637,19 +5781,19 @@
         <v>1650</v>
       </c>
       <c r="B35" s="3">
-        <v>-0.09753349300550607</v>
+        <v>0.9653</v>
       </c>
       <c r="C35" s="3">
-        <v>4.885714684384431</v>
+        <v>0.9949687541358215</v>
       </c>
       <c r="D35" s="3">
         <v>1650</v>
       </c>
       <c r="E35" s="3">
-        <v>4.629344967070899</v>
+        <v>0.6737</v>
       </c>
       <c r="F35" s="3">
-        <v>4.873779014349724</v>
+        <v>0.6870425922936735</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2657,19 +5801,19 @@
         <v>1700</v>
       </c>
       <c r="B36" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.0276</v>
       </c>
       <c r="C36" s="3">
-        <v>4.919049810161837</v>
+        <v>1.060509001426994</v>
       </c>
       <c r="D36" s="3">
         <v>1700</v>
       </c>
       <c r="E36" s="3">
-        <v>4.629344967070899</v>
+        <v>0.7154</v>
       </c>
       <c r="F36" s="3">
-        <v>4.895531596424811</v>
+        <v>0.732384013372265</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2677,19 +5821,19 @@
         <v>1750</v>
       </c>
       <c r="B37" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.0919</v>
       </c>
       <c r="C37" s="3">
-        <v>4.919049810161837</v>
+        <v>1.128238631978971</v>
       </c>
       <c r="D37" s="3">
         <v>1750</v>
       </c>
       <c r="E37" s="3">
-        <v>4.629344967070899</v>
+        <v>0.7581</v>
       </c>
       <c r="F37" s="3">
-        <v>4.924629206213565</v>
+        <v>0.778290436582677</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2697,19 +5841,19 @@
         <v>1800</v>
       </c>
       <c r="B38" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.1584</v>
       </c>
       <c r="C38" s="3">
-        <v>4.961848721647237</v>
+        <v>1.198510772124141</v>
       </c>
       <c r="D38" s="3">
         <v>1800</v>
       </c>
       <c r="E38" s="3">
-        <v>4.629344967070899</v>
+        <v>0.8021</v>
       </c>
       <c r="F38" s="3">
-        <v>4.954221192867661</v>
+        <v>0.8270924957186688</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2717,19 +5861,19 @@
         <v>1850</v>
       </c>
       <c r="B39" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.2268</v>
       </c>
       <c r="C39" s="3">
-        <v>4.9877681944445</v>
+        <v>1.269771665999995</v>
       </c>
       <c r="D39" s="3">
         <v>1850</v>
       </c>
       <c r="E39" s="3">
-        <v>4.873214012217903</v>
+        <v>0.8472</v>
       </c>
       <c r="F39" s="3">
-        <v>4.954221192867661</v>
+        <v>0.8751176769234075</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2737,19 +5881,19 @@
         <v>1900</v>
       </c>
       <c r="B40" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.2973</v>
       </c>
       <c r="C40" s="3">
-        <v>5.011710159780392</v>
+        <v>1.343575069469042</v>
       </c>
       <c r="D40" s="3">
         <v>1900</v>
       </c>
       <c r="E40" s="3">
-        <v>4.873214012217903</v>
+        <v>0.8934</v>
       </c>
       <c r="F40" s="3">
-        <v>4.993488841029182</v>
+        <v>0.9256853677213382</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2757,19 +5901,19 @@
         <v>1950</v>
       </c>
       <c r="B41" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.37</v>
       </c>
       <c r="C41" s="3">
-        <v>5.024422707746353</v>
+        <v>1.420062233064237</v>
       </c>
       <c r="D41" s="3">
         <v>1950</v>
       </c>
       <c r="E41" s="3">
-        <v>4.873214012217903</v>
+        <v>0.9409</v>
       </c>
       <c r="F41" s="3">
-        <v>5.017077680032687</v>
+        <v>0.9771711869834772</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2777,19 +5921,19 @@
         <v>2000</v>
       </c>
       <c r="B42" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.4447</v>
       </c>
       <c r="C42" s="3">
-        <v>5.043774030761203</v>
+        <v>1.498456278854325</v>
       </c>
       <c r="D42" s="3">
         <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>4.873214012217903</v>
+        <v>0.9895</v>
       </c>
       <c r="F42" s="3">
-        <v>5.028024596336708</v>
+        <v>1.029645759976302</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2797,19 +5941,19 @@
         <v>2050</v>
       </c>
       <c r="B43" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.5214</v>
       </c>
       <c r="C43" s="3">
-        <v>5.049424052079408</v>
+        <v>1.498456278854325</v>
       </c>
       <c r="D43" s="3">
         <v>2050</v>
       </c>
       <c r="E43" s="3">
-        <v>4.873214012217903</v>
+        <v>1.039</v>
       </c>
       <c r="F43" s="3">
-        <v>5.044480283425979</v>
+        <v>1.029645759976302</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2817,19 +5961,19 @@
         <v>2100</v>
       </c>
       <c r="B44" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.6002</v>
       </c>
       <c r="C44" s="3">
-        <v>5.06411410750674</v>
+        <v>1.660117513821452</v>
       </c>
       <c r="D44" s="3">
         <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>4.873214012217903</v>
+        <v>1.0899</v>
       </c>
       <c r="F44" s="3">
-        <v>5.063902231707307</v>
+        <v>1.137843668219919</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2837,19 +5981,19 @@
         <v>2150</v>
       </c>
       <c r="B45" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.6811</v>
       </c>
       <c r="C45" s="3">
-        <v>5.079510415598847</v>
+        <v>1.743879079863835</v>
       </c>
       <c r="D45" s="3">
         <v>2150</v>
       </c>
       <c r="E45" s="3">
-        <v>4.873214012217903</v>
+        <v>1.1417</v>
       </c>
       <c r="F45" s="3">
-        <v>5.06411410750674</v>
+        <v>1.193778879270144</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2857,19 +6001,19 @@
         <v>2200</v>
       </c>
       <c r="B46" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.764</v>
       </c>
       <c r="C46" s="3">
-        <v>5.084312933719321</v>
+        <v>1.830889408164185</v>
       </c>
       <c r="D46" s="3">
         <v>2200</v>
       </c>
       <c r="E46" s="3">
-        <v>4.873214012217903</v>
+        <v>1.1948</v>
       </c>
       <c r="F46" s="3">
-        <v>5.077462282870998</v>
+        <v>1.250067216652757</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2877,19 +6021,19 @@
         <v>2250</v>
       </c>
       <c r="B47" s="3">
-        <v>-0.09845162146971431</v>
+        <v>1.8491</v>
       </c>
       <c r="C47" s="3">
-        <v>5.084948561117619</v>
+        <v>1.919735993392952</v>
       </c>
       <c r="D47" s="3">
         <v>2250</v>
       </c>
       <c r="E47" s="3">
-        <v>4.989180699774052</v>
+        <v>1.249</v>
       </c>
       <c r="F47" s="3">
-        <v>5.088691700240929</v>
+        <v>1.308544937296174</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2897,19 +6041,19 @@
         <v>2300</v>
       </c>
       <c r="B48" s="3">
-        <v>-0.09718036667311829</v>
+        <v>1.9362</v>
       </c>
       <c r="C48" s="3">
-        <v>5.095401100556297</v>
+        <v>1.919735993392952</v>
       </c>
       <c r="D48" s="3">
         <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>4.989180699774052</v>
+        <v>1.3043</v>
       </c>
       <c r="F48" s="3">
-        <v>5.081205421994309</v>
+        <v>1.367728910604367</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2917,19 +6061,19 @@
         <v>2350</v>
       </c>
       <c r="B49" s="3">
-        <v>-0.09718036667311829</v>
+        <v>2.0253</v>
       </c>
       <c r="C49" s="3">
-        <v>5.093352967828448</v>
+        <v>2.100536675575497</v>
       </c>
       <c r="D49" s="3">
         <v>2350</v>
       </c>
       <c r="E49" s="3">
-        <v>4.989180699774052</v>
+        <v>1.3608</v>
       </c>
       <c r="F49" s="3">
-        <v>5.091587336166509</v>
+        <v>1.427972262909723</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2937,19 +6081,2639 @@
         <v>2400</v>
       </c>
       <c r="B50" s="3">
-        <v>-0.09718036667311829</v>
+        <v>2.1164</v>
       </c>
       <c r="C50" s="3">
-        <v>5.094200471026179</v>
+        <v>2.194044528391783</v>
       </c>
       <c r="D50" s="3">
         <v>2400</v>
       </c>
       <c r="E50" s="3">
-        <v>4.989180699774052</v>
+        <v>1.4184</v>
       </c>
       <c r="F50" s="3">
-        <v>5.101262997673935</v>
+        <v>1.48962812054463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
+        <v>2450</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2.2096</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.290306766600692</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2450</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1.4772</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.552978984574999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2.3047</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2.388829013336884</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.5372</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.618095480267306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>2550</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.4019</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2.489964394932746</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2550</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1.5985</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1.684271354956777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.501</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.591947279726338</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1.6611</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.751577233909889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>2650</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.6019</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2.695695796181869</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2650</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.7249</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.751577233909889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>2700</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.7048</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2.801139319032862</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.88943775407408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>2750</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.8095</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.907218469282152</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2750</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1.8566</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1.959780519485726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2.9158</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3.013438870064398</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.9245</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2.031465164960446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>2850</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3.0234</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3.121354277242105</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2850</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1.9934</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2.104138564165853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3.1313</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3.231105941348228</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2.063</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2.178365719233765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
+        <v>2950</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3.2399</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3.341140106520262</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2950</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2.1335</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2.252027872169857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3.3493</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3.450326768494564</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2.2052</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.329009412630394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3">
+        <v>3050</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3.4593</v>
+      </c>
+      <c r="C63" s="3">
+        <v>3.561844064262627</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3050</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2.2779</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2.405708452025021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>3100</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3.5702</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3.561844064262627</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2.3519</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2.486786257941256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
+        <v>3150</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3.6821</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3.787350540125466</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3150</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2.4275</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2.567016560659761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3.7951</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3.902045972885019</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.5046</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2.649224370839637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
+        <v>3250</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3.9095</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4.018648287839465</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3250</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2.5836</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2.733974690612705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3">
+        <v>3300</v>
+      </c>
+      <c r="B68" s="3">
+        <v>4.0251</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4.135674354392776</v>
+      </c>
+      <c r="D68" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2.6646</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2.819855014649414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
+        <v>3350</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4.1419</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4.254324802075073</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3350</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2.7476</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2.908984100944091</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3">
+        <v>3400</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4.374387755086919</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.8326</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2.999666943101274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
+        <v>3450</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4.3791</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4.494097581766378</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3450</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2.9198</v>
+      </c>
+      <c r="F71" s="3">
+        <v>3.092115416920396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4.4992</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4.615078663242433</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3.0089</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3.187742027731008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
+        <v>3550</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4.6204</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4.736271620517921</v>
+      </c>
+      <c r="D73" s="3">
+        <v>3550</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3.1004</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3.284498642805261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3">
+        <v>3600</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4.7425</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4.859936462120123</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3.194100000000001</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3.384150893805094</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
+        <v>3650</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4.8655</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4.98459005745301</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3650</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3.487687534461192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4.9895</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5.110303031783062</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3.3884</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3.591436050916723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
+        <v>3750</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5.1142</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5.237146010376754</v>
+      </c>
+      <c r="D77" s="3">
+        <v>3750</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.4891</v>
+      </c>
+      <c r="F77" s="3">
+        <v>3.699775209693295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3">
+        <v>3800</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5.2396</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5.364624616368745</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.5921</v>
+      </c>
+      <c r="F78" s="3">
+        <v>3.809385623266464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
+        <v>3850</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5.3659</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5.492738849759032</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3850</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.6977</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3.921750422232257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3">
+        <v>3900</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5.4929</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5.622477464278305</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.8057</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4.036516480258287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
+        <v>3950</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5.6205</v>
+      </c>
+      <c r="C81" s="3">
+        <v>5.751439200866323</v>
+      </c>
+      <c r="D81" s="3">
+        <v>3950</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3.9162</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.154107548943419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5.748900000000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5.881177815385596</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E82" s="3">
+        <v>4.0294</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.273322998757535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
+        <v>4050</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5.8778</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5.881177815385596</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4050</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4.145</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4.395292833964276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
+        <v>4100</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6.0073</v>
+      </c>
+      <c r="C84" s="3">
+        <v>6.140584419157662</v>
+      </c>
+      <c r="D84" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4.2633</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4.519240176632389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
+        <v>4150</v>
+      </c>
+      <c r="B85" s="3">
+        <v>6.1374</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6.270958661075232</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4150</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4.3842</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4.645376902561305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>4200</v>
+      </c>
+      <c r="B86" s="3">
+        <v>6.268</v>
+      </c>
+      <c r="C86" s="3">
+        <v>6.270958661075232</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4.5078</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4.774338639149324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
+        <v>4250</v>
+      </c>
+      <c r="B87" s="3">
+        <v>6.399099999999999</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6.534744031368906</v>
+      </c>
+      <c r="D87" s="3">
+        <v>4250</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4.634</v>
+      </c>
+      <c r="F87" s="3">
+        <v>4.907255390660086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
+        <v>4300</v>
+      </c>
+      <c r="B88" s="3">
+        <v>6.5308</v>
+      </c>
+      <c r="C88" s="3">
+        <v>6.668225785011489</v>
+      </c>
+      <c r="D88" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4.763</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5.043774030761203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3">
+        <v>4350</v>
+      </c>
+      <c r="B89" s="3">
+        <v>6.6629</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6.801283787055207</v>
+      </c>
+      <c r="D89" s="3">
+        <v>4350</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4.8948</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5.183258932054378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3">
+        <v>4400</v>
+      </c>
+      <c r="B90" s="3">
+        <v>6.7955</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6.933353035368238</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5.0293</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.322037580682777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
+        <v>4450</v>
+      </c>
+      <c r="B91" s="3">
+        <v>6.9283</v>
+      </c>
+      <c r="C91" s="3">
+        <v>7.062102896156825</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4450</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5.1666</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.460463102978789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3">
+        <v>4500</v>
+      </c>
+      <c r="B92" s="3">
+        <v>7.0604</v>
+      </c>
+      <c r="C92" s="3">
+        <v>7.187674619953921</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5.3054</v>
+      </c>
+      <c r="F92" s="3">
+        <v>5.599665503206054</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>4550</v>
+      </c>
+      <c r="B93" s="3">
+        <v>7.1897</v>
+      </c>
+      <c r="C93" s="3">
+        <v>7.308726326696453</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4550</v>
+      </c>
+      <c r="E93" s="3">
+        <v>5.4438</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5.737596648636722</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="B94" s="3">
+        <v>7.3163</v>
+      </c>
+      <c r="C94" s="3">
+        <v>7.430837412436149</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5.5817</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5.87411528873784</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
+        <v>4650</v>
+      </c>
+      <c r="B95" s="3">
+        <v>7.4403</v>
+      </c>
+      <c r="C95" s="3">
+        <v>7.430837412436149</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4650</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5.719000000000001</v>
+      </c>
+      <c r="F95" s="3">
+        <v>6.012117059434986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3">
+        <v>4700</v>
+      </c>
+      <c r="B96" s="3">
+        <v>7.5618</v>
+      </c>
+      <c r="C96" s="3">
+        <v>7.670257065795067</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>5.8557</v>
+      </c>
+      <c r="F96" s="3">
+        <v>6.150330705931565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
+        <v>4750</v>
+      </c>
+      <c r="B97" s="3">
+        <v>7.6807</v>
+      </c>
+      <c r="C97" s="3">
+        <v>7.785164374354052</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4750</v>
+      </c>
+      <c r="E97" s="3">
+        <v>5.9916</v>
+      </c>
+      <c r="F97" s="3">
+        <v>6.286990596565637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3">
+        <v>4800</v>
+      </c>
+      <c r="B98" s="3">
+        <v>7.7971</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7.898235425984621</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E98" s="3">
+        <v>6.1268</v>
+      </c>
+      <c r="F98" s="3">
+        <v>6.421531729205383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
+        <v>4850</v>
+      </c>
+      <c r="B99" s="3">
+        <v>7.911200000000001</v>
+      </c>
+      <c r="C99" s="3">
+        <v>8.008834593288475</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4850</v>
+      </c>
+      <c r="E99" s="3">
+        <v>6.2614</v>
+      </c>
+      <c r="F99" s="3">
+        <v>6.555860986045697</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="B100" s="3">
+        <v>8.0229</v>
+      </c>
+      <c r="C100" s="3">
+        <v>8.116467499400271</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6.3951</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6.687223981693952</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3">
+        <v>4950</v>
+      </c>
+      <c r="B101" s="3">
+        <v>8.132300000000001</v>
+      </c>
+      <c r="C101" s="3">
+        <v>8.221769771718309</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4950</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6.5278</v>
+      </c>
+      <c r="F101" s="3">
+        <v>6.81851635207573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B102" s="3">
+        <v>8.2394</v>
+      </c>
+      <c r="C102" s="3">
+        <v>8.324953286042019</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6.6596</v>
+      </c>
+      <c r="F102" s="3">
+        <v>6.950514975122284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3">
+        <v>5050</v>
+      </c>
+      <c r="B103" s="3">
+        <v>8.344200000000001</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8.426865545569134</v>
+      </c>
+      <c r="D103" s="3">
+        <v>5050</v>
+      </c>
+      <c r="E103" s="3">
+        <v>6.7904</v>
+      </c>
+      <c r="F103" s="3">
+        <v>7.079194210644393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3">
+        <v>5100</v>
+      </c>
+      <c r="B104" s="3">
+        <v>8.446899999999999</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8.426865545569134</v>
+      </c>
+      <c r="D104" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E104" s="3">
+        <v>6.920199999999999</v>
+      </c>
+      <c r="F104" s="3">
+        <v>7.20822657249889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3">
+        <v>5150</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8.547599999999999</v>
+      </c>
+      <c r="C105" s="3">
+        <v>8.62355691270913</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5150</v>
+      </c>
+      <c r="E105" s="3">
+        <v>7.049</v>
+      </c>
+      <c r="F105" s="3">
+        <v>7.334504548960761</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="3">
+        <v>5200</v>
+      </c>
+      <c r="B106" s="3">
+        <v>8.646100000000001</v>
+      </c>
+      <c r="C106" s="3">
+        <v>8.718971647720309</v>
+      </c>
+      <c r="D106" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E106" s="3">
+        <v>7.176600000000001</v>
+      </c>
+      <c r="F106" s="3">
+        <v>7.459016893760694</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3">
+        <v>5250</v>
+      </c>
+      <c r="B107" s="3">
+        <v>8.742599999999999</v>
+      </c>
+      <c r="C107" s="3">
+        <v>8.811420121539431</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5250</v>
+      </c>
+      <c r="E107" s="3">
+        <v>7.303</v>
+      </c>
+      <c r="F107" s="3">
+        <v>7.584235491225402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3">
+        <v>5300</v>
+      </c>
+      <c r="B108" s="3">
+        <v>8.8371</v>
+      </c>
+      <c r="C108" s="3">
+        <v>8.902879841627866</v>
+      </c>
+      <c r="D108" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E108" s="3">
+        <v>7.4281</v>
+      </c>
+      <c r="F108" s="3">
+        <v>7.706487827498053</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3">
+        <v>5350</v>
+      </c>
+      <c r="B109" s="3">
+        <v>8.9299</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8.993209557452662</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5350</v>
+      </c>
+      <c r="E109" s="3">
+        <v>7.5521</v>
+      </c>
+      <c r="F109" s="3">
+        <v>7.826338904710467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3">
+        <v>5400</v>
+      </c>
+      <c r="B110" s="3">
+        <v>9.0206</v>
+      </c>
+      <c r="C110" s="3">
+        <v>9.081985517414951</v>
+      </c>
+      <c r="D110" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E110" s="3">
+        <v>7.6745</v>
+      </c>
+      <c r="F110" s="3">
+        <v>7.945201228192196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3">
+        <v>5450</v>
+      </c>
+      <c r="B111" s="3">
+        <v>9.1098</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9.081985517414951</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5450</v>
+      </c>
+      <c r="E111" s="3">
+        <v>7.7959</v>
+      </c>
+      <c r="F111" s="3">
+        <v>8.06448730327279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3">
+        <v>5500</v>
+      </c>
+      <c r="B112" s="3">
+        <v>9.1974</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9.255370546617353</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7.9162</v>
+      </c>
+      <c r="F112" s="3">
+        <v>8.183208376221563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3">
+        <v>5550</v>
+      </c>
+      <c r="B113" s="3">
+        <v>9.2836</v>
+      </c>
+      <c r="C113" s="3">
+        <v>9.339767740058035</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5550</v>
+      </c>
+      <c r="E113" s="3">
+        <v>8.035399999999999</v>
+      </c>
+      <c r="F113" s="3">
+        <v>8.183208376221563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="3">
+        <v>5600</v>
+      </c>
+      <c r="B114" s="3">
+        <v>9.3688</v>
+      </c>
+      <c r="C114" s="3">
+        <v>9.424941811429967</v>
+      </c>
+      <c r="D114" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E114" s="3">
+        <v>8.1539</v>
+      </c>
+      <c r="F114" s="3">
+        <v>8.419026140990125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3">
+        <v>5650</v>
+      </c>
+      <c r="B115" s="3">
+        <v>9.4528</v>
+      </c>
+      <c r="C115" s="3">
+        <v>9.508138375340529</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5650</v>
+      </c>
+      <c r="E115" s="3">
+        <v>8.2715</v>
+      </c>
+      <c r="F115" s="3">
+        <v>8.534992828546274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3">
+        <v>5700</v>
+      </c>
+      <c r="B116" s="3">
+        <v>9.5359</v>
+      </c>
+      <c r="C116" s="3">
+        <v>9.591617440317002</v>
+      </c>
+      <c r="D116" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E116" s="3">
+        <v>8.388500000000001</v>
+      </c>
+      <c r="F116" s="3">
+        <v>8.651736394033675</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="3">
+        <v>5750</v>
+      </c>
+      <c r="B117" s="3">
+        <v>9.618399999999999</v>
+      </c>
+      <c r="C117" s="3">
+        <v>9.674249002095744</v>
+      </c>
+      <c r="D117" s="3">
+        <v>5750</v>
+      </c>
+      <c r="E117" s="3">
+        <v>8.505100000000001</v>
+      </c>
+      <c r="F117" s="3">
+        <v>8.767773706856302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="3">
+        <v>5800</v>
+      </c>
+      <c r="B118" s="3">
+        <v>9.700200000000001</v>
+      </c>
+      <c r="C118" s="3">
+        <v>9.755962435410277</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E118" s="3">
+        <v>8.6213</v>
+      </c>
+      <c r="F118" s="3">
+        <v>8.883316642813584</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="3">
+        <v>5850</v>
+      </c>
+      <c r="B119" s="3">
+        <v>9.7814</v>
+      </c>
+      <c r="C119" s="3">
+        <v>9.836051487595826</v>
+      </c>
+      <c r="D119" s="3">
+        <v>5850</v>
+      </c>
+      <c r="E119" s="3">
+        <v>8.7369</v>
+      </c>
+      <c r="F119" s="3">
+        <v>8.998435827172001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="3">
+        <v>5900</v>
+      </c>
+      <c r="B120" s="3">
+        <v>9.8622</v>
+      </c>
+      <c r="C120" s="3">
+        <v>9.917129293512062</v>
+      </c>
+      <c r="D120" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E120" s="3">
+        <v>8.852399999999999</v>
+      </c>
+      <c r="F120" s="3">
+        <v>9.111365628269615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="3">
+        <v>5950</v>
+      </c>
+      <c r="B121" s="3">
+        <v>9.9427</v>
+      </c>
+      <c r="C121" s="3">
+        <v>9.998065848895342</v>
+      </c>
+      <c r="D121" s="3">
+        <v>5950</v>
+      </c>
+      <c r="E121" s="3">
+        <v>8.967599999999999</v>
+      </c>
+      <c r="F121" s="3">
+        <v>9.225566684163825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B122" s="3">
+        <v>10.023</v>
+      </c>
+      <c r="C122" s="3">
+        <v>10.07723677261668</v>
+      </c>
+      <c r="D122" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E122" s="3">
+        <v>9.082700000000001</v>
+      </c>
+      <c r="F122" s="3">
+        <v>9.336872104132455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="3">
+        <v>6050</v>
+      </c>
+      <c r="B123" s="3">
+        <v>10.1031</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10.154924565742</v>
+      </c>
+      <c r="D123" s="3">
+        <v>6050</v>
+      </c>
+      <c r="E123" s="3">
+        <v>9.1976</v>
+      </c>
+      <c r="F123" s="3">
+        <v>9.447683147235741</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="3">
+        <v>6100</v>
+      </c>
+      <c r="B124" s="3">
+        <v>10.1822</v>
+      </c>
+      <c r="C124" s="3">
+        <v>10.23225923253492</v>
+      </c>
+      <c r="D124" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E124" s="3">
+        <v>9.311400000000001</v>
+      </c>
+      <c r="F124" s="3">
+        <v>9.555881055479357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="3">
+        <v>6150</v>
+      </c>
+      <c r="B125" s="3">
+        <v>10.2601</v>
+      </c>
+      <c r="C125" s="3">
+        <v>10.30874639613011</v>
+      </c>
+      <c r="D125" s="3">
+        <v>6150</v>
+      </c>
+      <c r="E125" s="3">
+        <v>9.423299999999999</v>
+      </c>
+      <c r="F125" s="3">
+        <v>9.661960205728649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="3">
+        <v>6200</v>
+      </c>
+      <c r="B126" s="3">
+        <v>10.3367</v>
+      </c>
+      <c r="C126" s="3">
+        <v>10.38339730279689</v>
+      </c>
+      <c r="D126" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E126" s="3">
+        <v>9.533200000000001</v>
+      </c>
+      <c r="F126" s="3">
+        <v>9.767333103313163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="3">
+        <v>6250</v>
+      </c>
+      <c r="B127" s="3">
+        <v>10.4121</v>
+      </c>
+      <c r="C127" s="3">
+        <v>10.45748320733185</v>
+      </c>
+      <c r="D127" s="3">
+        <v>6250</v>
+      </c>
+      <c r="E127" s="3">
+        <v>9.641299999999999</v>
+      </c>
+      <c r="F127" s="3">
+        <v>9.870728493436307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="3">
+        <v>6300</v>
+      </c>
+      <c r="B128" s="3">
+        <v>10.4861</v>
+      </c>
+      <c r="C128" s="3">
+        <v>10.5300153560043</v>
+      </c>
+      <c r="D128" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E128" s="3">
+        <v>9.747299999999999</v>
+      </c>
+      <c r="F128" s="3">
+        <v>9.971722624499213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="3">
+        <v>6350</v>
+      </c>
+      <c r="B129" s="3">
+        <v>10.559</v>
+      </c>
+      <c r="C129" s="3">
+        <v>10.60148812567959</v>
+      </c>
+      <c r="D129" s="3">
+        <v>6350</v>
+      </c>
+      <c r="E129" s="3">
+        <v>9.8514</v>
+      </c>
+      <c r="F129" s="3">
+        <v>10.07299925662803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="3">
+        <v>6400</v>
+      </c>
+      <c r="B130" s="3">
+        <v>10.6306</v>
+      </c>
+      <c r="C130" s="3">
+        <v>10.67183089109123</v>
+      </c>
+      <c r="D130" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E130" s="3">
+        <v>9.9534</v>
+      </c>
+      <c r="F130" s="3">
+        <v>10.16841399163921</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="3">
+        <v>6450</v>
+      </c>
+      <c r="B131" s="3">
+        <v>10.7011</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10.74111427750572</v>
+      </c>
+      <c r="D131" s="3">
+        <v>6450</v>
+      </c>
+      <c r="E131" s="3">
+        <v>10.0536</v>
+      </c>
+      <c r="F131" s="3">
+        <v>10.26509998144699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="3">
+        <v>6500</v>
+      </c>
+      <c r="B132" s="3">
+        <v>10.7703</v>
+      </c>
+      <c r="C132" s="3">
+        <v>10.80863203225826</v>
+      </c>
+      <c r="D132" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E132" s="3">
+        <v>10.1516</v>
+      </c>
+      <c r="F132" s="3">
+        <v>10.3572659542002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="3">
+        <v>6550</v>
+      </c>
+      <c r="B133" s="3">
+        <v>10.8383</v>
+      </c>
+      <c r="C133" s="3">
+        <v>10.87607916174433</v>
+      </c>
+      <c r="D133" s="3">
+        <v>6550</v>
+      </c>
+      <c r="E133" s="3">
+        <v>10.2477</v>
+      </c>
+      <c r="F133" s="3">
+        <v>10.45621195253525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="3">
+        <v>6600</v>
+      </c>
+      <c r="B134" s="3">
+        <v>10.9052</v>
+      </c>
+      <c r="C134" s="3">
+        <v>10.94147815850255</v>
+      </c>
+      <c r="D134" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E134" s="3">
+        <v>10.3418</v>
+      </c>
+      <c r="F134" s="3">
+        <v>10.55197981387882</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="3">
+        <v>6650</v>
+      </c>
+      <c r="B135" s="3">
+        <v>10.9708</v>
+      </c>
+      <c r="C135" s="3">
+        <v>11.00539402466474</v>
+      </c>
+      <c r="D135" s="3">
+        <v>6650</v>
+      </c>
+      <c r="E135" s="3">
+        <v>10.4339</v>
+      </c>
+      <c r="F135" s="3">
+        <v>10.64577016776102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="3">
+        <v>6700</v>
+      </c>
+      <c r="B136" s="3">
+        <v>11.0353</v>
+      </c>
+      <c r="C136" s="3">
+        <v>11.00539402466474</v>
+      </c>
+      <c r="D136" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E136" s="3">
+        <v>10.524</v>
+      </c>
+      <c r="F136" s="3">
+        <v>10.73638238465172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="3">
+        <v>6750</v>
+      </c>
+      <c r="B137" s="3">
+        <v>11.0985</v>
+      </c>
+      <c r="C137" s="3">
+        <v>11.12912949153342</v>
+      </c>
+      <c r="D137" s="3">
+        <v>6750</v>
+      </c>
+      <c r="E137" s="3">
+        <v>10.612</v>
+      </c>
+      <c r="F137" s="3">
+        <v>10.82445209194923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="3">
+        <v>6800</v>
+      </c>
+      <c r="B138" s="3">
+        <v>11.1606</v>
+      </c>
+      <c r="C138" s="3">
+        <v>11.19029097230298</v>
+      </c>
+      <c r="D138" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E138" s="3">
+        <v>10.6982</v>
+      </c>
+      <c r="F138" s="3">
+        <v>10.91103866865072</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="3">
+        <v>6850</v>
+      </c>
+      <c r="B139" s="3">
+        <v>11.2215</v>
+      </c>
+      <c r="C139" s="3">
+        <v>11.24862744241344</v>
+      </c>
+      <c r="D139" s="3">
+        <v>6850</v>
+      </c>
+      <c r="E139" s="3">
+        <v>10.7823</v>
+      </c>
+      <c r="F139" s="3">
+        <v>10.99472960942662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="3">
+        <v>6900</v>
+      </c>
+      <c r="B140" s="3">
+        <v>11.2811</v>
+      </c>
+      <c r="C140" s="3">
+        <v>11.30745828938925</v>
+      </c>
+      <c r="D140" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E140" s="3">
+        <v>10.8643</v>
+      </c>
+      <c r="F140" s="3">
+        <v>10.99472960942662</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="3">
+        <v>6950</v>
+      </c>
+      <c r="B141" s="3">
+        <v>11.3395</v>
+      </c>
+      <c r="C141" s="3">
+        <v>11.3648766310355</v>
+      </c>
+      <c r="D141" s="3">
+        <v>6950</v>
+      </c>
+      <c r="E141" s="3">
+        <v>10.9444</v>
+      </c>
+      <c r="F141" s="3">
+        <v>11.15328333266874</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="3">
+        <v>7000</v>
+      </c>
+      <c r="B142" s="3">
+        <v>11.3968</v>
+      </c>
+      <c r="C142" s="3">
+        <v>11.42059996628629</v>
+      </c>
+      <c r="D142" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E142" s="3">
+        <v>11.0226</v>
+      </c>
+      <c r="F142" s="3">
+        <v>11.2301942478628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="3">
+        <v>7050</v>
+      </c>
+      <c r="B143" s="3">
+        <v>11.4527</v>
+      </c>
+      <c r="C143" s="3">
+        <v>11.4753345478064</v>
+      </c>
+      <c r="D143" s="3">
+        <v>7050</v>
+      </c>
+      <c r="E143" s="3">
+        <v>11.0987</v>
+      </c>
+      <c r="F143" s="3">
+        <v>11.30618703459265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="3">
+        <v>7100</v>
+      </c>
+      <c r="B144" s="3">
+        <v>11.5075</v>
+      </c>
+      <c r="C144" s="3">
+        <v>11.528515373464</v>
+      </c>
+      <c r="D144" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E144" s="3">
+        <v>11.1729</v>
+      </c>
+      <c r="F144" s="3">
+        <v>11.30618703459265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="3">
+        <v>7150</v>
+      </c>
+      <c r="B145" s="3">
+        <v>11.5609</v>
+      </c>
+      <c r="C145" s="3">
+        <v>11.58056619485796</v>
+      </c>
+      <c r="D145" s="3">
+        <v>7150</v>
+      </c>
+      <c r="E145" s="3">
+        <v>11.2451</v>
+      </c>
+      <c r="F145" s="3">
+        <v>11.4517457088029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="3">
+        <v>7200</v>
+      </c>
+      <c r="B146" s="3">
+        <v>11.6131</v>
+      </c>
+      <c r="C146" s="3">
+        <v>11.63092200985646</v>
+      </c>
+      <c r="D146" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E146" s="3">
+        <v>11.3153</v>
+      </c>
+      <c r="F146" s="3">
+        <v>11.5222297247475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="3">
+        <v>7250</v>
+      </c>
+      <c r="B147" s="3">
+        <v>11.6642</v>
+      </c>
+      <c r="C147" s="3">
+        <v>11.68057157219018</v>
+      </c>
+      <c r="D147" s="3">
+        <v>7250</v>
+      </c>
+      <c r="E147" s="3">
+        <v>11.3838</v>
+      </c>
+      <c r="F147" s="3">
+        <v>11.59024185636538</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="3">
+        <v>7300</v>
+      </c>
+      <c r="B148" s="3">
+        <v>11.7139</v>
+      </c>
+      <c r="C148" s="3">
+        <v>11.72852612812844</v>
+      </c>
+      <c r="D148" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E148" s="3">
+        <v>11.4502</v>
+      </c>
+      <c r="F148" s="3">
+        <v>11.65620585525542</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3">
+        <v>7350</v>
+      </c>
+      <c r="B149" s="3">
+        <v>11.7623</v>
+      </c>
+      <c r="C149" s="3">
+        <v>11.77443255133885</v>
+      </c>
+      <c r="D149" s="3">
+        <v>7350</v>
+      </c>
+      <c r="E149" s="3">
+        <v>11.5146</v>
+      </c>
+      <c r="F149" s="3">
+        <v>11.72026297195057</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3">
+        <v>7400</v>
+      </c>
+      <c r="B150" s="3">
+        <v>11.8095</v>
+      </c>
+      <c r="C150" s="3">
+        <v>11.81956209661801</v>
+      </c>
+      <c r="D150" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E150" s="3">
+        <v>11.5773</v>
+      </c>
+      <c r="F150" s="3">
+        <v>11.78319008438207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3">
+        <v>7450</v>
+      </c>
+      <c r="B151" s="3">
+        <v>11.8554</v>
+      </c>
+      <c r="C151" s="3">
+        <v>11.86306726076819</v>
+      </c>
+      <c r="D151" s="3">
+        <v>7450</v>
+      </c>
+      <c r="E151" s="3">
+        <v>11.6379</v>
+      </c>
+      <c r="F151" s="3">
+        <v>11.78319008438207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B152" s="3">
+        <v>11.8999</v>
+      </c>
+      <c r="C152" s="3">
+        <v>11.90544242065472</v>
+      </c>
+      <c r="D152" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E152" s="3">
+        <v>11.6966</v>
+      </c>
+      <c r="F152" s="3">
+        <v>11.90311178686096</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3">
+        <v>7550</v>
+      </c>
+      <c r="B153" s="3">
+        <v>11.9431</v>
+      </c>
+      <c r="C153" s="3">
+        <v>11.94633444994523</v>
+      </c>
+      <c r="D153" s="3">
+        <v>7550</v>
+      </c>
+      <c r="E153" s="3">
+        <v>11.7535</v>
+      </c>
+      <c r="F153" s="3">
+        <v>11.95975325057596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3">
+        <v>7600</v>
+      </c>
+      <c r="B154" s="3">
+        <v>11.9852</v>
+      </c>
+      <c r="C154" s="3">
+        <v>11.98588459917266</v>
+      </c>
+      <c r="D154" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E154" s="3">
+        <v>11.8086</v>
+      </c>
+      <c r="F154" s="3">
+        <v>12.01441720682959</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3">
+        <v>7650</v>
+      </c>
+      <c r="B155" s="3">
+        <v>12.0258</v>
+      </c>
+      <c r="C155" s="3">
+        <v>12.02430474413645</v>
+      </c>
+      <c r="D155" s="3">
+        <v>7650</v>
+      </c>
+      <c r="E155" s="3">
+        <v>11.8616</v>
+      </c>
+      <c r="F155" s="3">
+        <v>12.06717428088833</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="3">
+        <v>7700</v>
+      </c>
+      <c r="B156" s="3">
+        <v>12.0651</v>
+      </c>
+      <c r="C156" s="3">
+        <v>12.06102988270478</v>
+      </c>
+      <c r="D156" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E156" s="3">
+        <v>11.9129</v>
+      </c>
+      <c r="F156" s="3">
+        <v>12.11802447275217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="3">
+        <v>7750</v>
+      </c>
+      <c r="B157" s="3">
+        <v>12.103</v>
+      </c>
+      <c r="C157" s="3">
+        <v>12.09669564227594</v>
+      </c>
+      <c r="D157" s="3">
+        <v>7750</v>
+      </c>
+      <c r="E157" s="3">
+        <v>11.9622</v>
+      </c>
+      <c r="F157" s="3">
+        <v>12.16696778242111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="3">
+        <v>7800</v>
+      </c>
+      <c r="B158" s="3">
+        <v>12.1396</v>
+      </c>
+      <c r="C158" s="3">
+        <v>12.13109014705052</v>
+      </c>
+      <c r="D158" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E158" s="3">
+        <v>12.0096</v>
+      </c>
+      <c r="F158" s="3">
+        <v>12.21372170882926</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3">
+        <v>7850</v>
+      </c>
+      <c r="B159" s="3">
+        <v>12.1749</v>
+      </c>
+      <c r="C159" s="3">
+        <v>12.16421339702849</v>
+      </c>
+      <c r="D159" s="3">
+        <v>7850</v>
+      </c>
+      <c r="E159" s="3">
+        <v>12.0553</v>
+      </c>
+      <c r="F159" s="3">
+        <v>12.25927500570728</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3">
+        <v>7900</v>
+      </c>
+      <c r="B160" s="3">
+        <v>12.2088</v>
+      </c>
+      <c r="C160" s="3">
+        <v>12.19571226587748</v>
+      </c>
+      <c r="D160" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E160" s="3">
+        <v>12.0991</v>
+      </c>
+      <c r="F160" s="3">
+        <v>12.30270954459098</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="3">
+        <v>7950</v>
+      </c>
+      <c r="B161" s="3">
+        <v>12.2414</v>
+      </c>
+      <c r="C161" s="3">
+        <v>12.19571226587748</v>
+      </c>
+      <c r="D161" s="3">
+        <v>7950</v>
+      </c>
+      <c r="E161" s="3">
+        <v>12.1411</v>
+      </c>
+      <c r="F161" s="3">
+        <v>12.34395470021387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B162" s="3">
+        <v>12.2727</v>
+      </c>
+      <c r="C162" s="3">
+        <v>12.25383686018851</v>
+      </c>
+      <c r="D162" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E162" s="3">
+        <v>12.1813</v>
+      </c>
+      <c r="F162" s="3">
+        <v>12.38329297364187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="3">
+        <v>8050</v>
+      </c>
+      <c r="B163" s="3">
+        <v>12.3025</v>
+      </c>
+      <c r="C163" s="3">
+        <v>12.2812394635818</v>
+      </c>
+      <c r="D163" s="3">
+        <v>8050</v>
+      </c>
+      <c r="E163" s="3">
+        <v>12.2195</v>
+      </c>
+      <c r="F163" s="3">
+        <v>12.41994748694372</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="3">
+        <v>8100</v>
+      </c>
+      <c r="B164" s="3">
+        <v>12.331</v>
+      </c>
+      <c r="C164" s="3">
+        <v>12.30772393851088</v>
+      </c>
+      <c r="D164" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E164" s="3">
+        <v>12.2561</v>
+      </c>
+      <c r="F164" s="3">
+        <v>12.45504824438307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="3">
+        <v>8150</v>
+      </c>
+      <c r="B165" s="3">
+        <v>12.358</v>
+      </c>
+      <c r="C165" s="3">
+        <v>12.33244278177803</v>
+      </c>
+      <c r="D165" s="3">
+        <v>8150</v>
+      </c>
+      <c r="E165" s="3">
+        <v>12.2906</v>
+      </c>
+      <c r="F165" s="3">
+        <v>12.45504824438307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="3">
+        <v>8200</v>
+      </c>
+      <c r="B166" s="3">
+        <v>12.3838</v>
+      </c>
+      <c r="C166" s="3">
+        <v>12.35666724817983</v>
+      </c>
+      <c r="D166" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E166" s="3">
+        <v>12.3235</v>
+      </c>
+      <c r="F166" s="3">
+        <v>12.51896411054526</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3">
+        <v>8250</v>
+      </c>
+      <c r="B167" s="3">
+        <v>12.4081</v>
+      </c>
+      <c r="C167" s="3">
+        <v>12.38180984304584</v>
+      </c>
+      <c r="D167" s="3">
+        <v>8250</v>
+      </c>
+      <c r="E167" s="3">
+        <v>12.3545</v>
+      </c>
+      <c r="F167" s="3">
+        <v>12.55025110359482</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="3">
+        <v>8300</v>
+      </c>
+      <c r="B168" s="3">
+        <v>12.431</v>
+      </c>
+      <c r="C168" s="3">
+        <v>12.40525743151639</v>
+      </c>
+      <c r="D168" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E168" s="3">
+        <v>12.3836</v>
+      </c>
+      <c r="F168" s="3">
+        <v>12.57970183971596</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="3">
+        <v>8350</v>
+      </c>
+      <c r="B169" s="3">
+        <v>12.4525</v>
+      </c>
+      <c r="C169" s="3">
+        <v>12.42701001359148</v>
+      </c>
+      <c r="D169" s="3">
+        <v>8350</v>
+      </c>
+      <c r="E169" s="3">
+        <v>12.411</v>
+      </c>
+      <c r="F169" s="3">
+        <v>12.57970183971596</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="3">
+        <v>8400</v>
+      </c>
+      <c r="B170" s="3">
+        <v>12.4728</v>
+      </c>
+      <c r="C170" s="3">
+        <v>12.448974471466</v>
+      </c>
+      <c r="D170" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E170" s="3">
+        <v>12.4367</v>
+      </c>
+      <c r="F170" s="3">
+        <v>12.6333770422389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="3">
+        <v>8450</v>
+      </c>
+      <c r="B171" s="3">
+        <v>12.4915</v>
+      </c>
+      <c r="C171" s="3">
+        <v>12.4691026724121</v>
+      </c>
+      <c r="D171" s="3">
+        <v>8450</v>
+      </c>
+      <c r="E171" s="3">
+        <v>12.4604</v>
+      </c>
+      <c r="F171" s="3">
+        <v>12.65647150437706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="3">
+        <v>8500</v>
+      </c>
+      <c r="B172" s="3">
+        <v>12.5089</v>
+      </c>
+      <c r="C172" s="3">
+        <v>12.48760649222922</v>
+      </c>
+      <c r="D172" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E172" s="3">
+        <v>12.4825</v>
+      </c>
+      <c r="F172" s="3">
+        <v>12.67829471171863</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="3">
+        <v>8550</v>
+      </c>
+      <c r="B173" s="3">
+        <v>12.5247</v>
+      </c>
+      <c r="C173" s="3">
+        <v>12.50660468891169</v>
+      </c>
+      <c r="D173" s="3">
+        <v>8550</v>
+      </c>
+      <c r="E173" s="3">
+        <v>12.5025</v>
+      </c>
+      <c r="F173" s="3">
+        <v>12.69764603473348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="3">
+        <v>8600</v>
+      </c>
+      <c r="B174" s="3">
+        <v>12.5393</v>
+      </c>
+      <c r="C174" s="3">
+        <v>12.52645038879188</v>
+      </c>
+      <c r="D174" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E174" s="3">
+        <v>12.5211</v>
+      </c>
+      <c r="F174" s="3">
+        <v>12.7155142271523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="3">
+        <v>8650</v>
+      </c>
+      <c r="B175" s="3">
+        <v>12.5524</v>
+      </c>
+      <c r="C175" s="3">
+        <v>12.54403608014479</v>
+      </c>
+      <c r="D175" s="3">
+        <v>8650</v>
+      </c>
+      <c r="E175" s="3">
+        <v>12.5376</v>
+      </c>
+      <c r="F175" s="3">
+        <v>12.72992178151372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="3">
+        <v>8700</v>
+      </c>
+      <c r="B176" s="3">
+        <v>12.5641</v>
+      </c>
+      <c r="C176" s="3">
+        <v>12.54403608014479</v>
+      </c>
+      <c r="D176" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E176" s="3">
+        <v>12.5524</v>
+      </c>
+      <c r="F176" s="3">
+        <v>12.74277558001264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="3">
+        <v>8750</v>
+      </c>
+      <c r="B177" s="3">
+        <v>12.5744</v>
+      </c>
+      <c r="C177" s="3">
+        <v>12.57511119739492</v>
+      </c>
+      <c r="D177" s="3">
+        <v>8750</v>
+      </c>
+      <c r="E177" s="3">
+        <v>12.5654</v>
+      </c>
+      <c r="F177" s="3">
+        <v>12.75259249205302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="3">
+        <v>8800</v>
+      </c>
+      <c r="B178" s="3">
+        <v>12.5832</v>
+      </c>
+      <c r="C178" s="3">
+        <v>12.58916562542395</v>
+      </c>
+      <c r="D178" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E178" s="3">
+        <v>12.5766</v>
+      </c>
+      <c r="F178" s="3">
+        <v>12.75958439343429</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="3">
+        <v>8850</v>
+      </c>
+      <c r="B179" s="3">
+        <v>12.5907</v>
+      </c>
+      <c r="C179" s="3">
+        <v>12.60216067445582</v>
+      </c>
+      <c r="D179" s="3">
+        <v>8850</v>
+      </c>
+      <c r="E179" s="3">
+        <v>12.5861</v>
+      </c>
+      <c r="F179" s="3">
+        <v>12.75958439343429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="3">
+        <v>8900</v>
+      </c>
+      <c r="B180" s="3">
+        <v>12.5968</v>
+      </c>
+      <c r="C180" s="3">
+        <v>12.61374321815814</v>
+      </c>
+      <c r="D180" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E180" s="3">
+        <v>12.5939</v>
+      </c>
+      <c r="F180" s="3">
+        <v>12.77194381506787</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="3">
+        <v>8950</v>
+      </c>
+      <c r="B181" s="3">
+        <v>12.6014</v>
+      </c>
+      <c r="C181" s="3">
+        <v>12.62313637859965</v>
+      </c>
+      <c r="D181" s="3">
+        <v>8950</v>
+      </c>
+      <c r="E181" s="3">
+        <v>12.5998</v>
+      </c>
+      <c r="F181" s="3">
+        <v>12.77462757519401</v>
       </c>
     </row>
   </sheetData>

--- a/OutputGrapher/Test Data Sheet.xlsx
+++ b/OutputGrapher/Test Data Sheet.xlsx
@@ -150,10 +150,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$306</c:f>
+              <c:f>Sheet1!$A$3:$A$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -825,1167 +825,687 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>11200</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>11350</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>11450</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11500</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>11550</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>11600</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11650</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>11700</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11750</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>11800</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>11850</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>11900</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>11950</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>12050</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>12150</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>12200</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>12250</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>12300</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>12350</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>12400</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>12450</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>12550</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>12650</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>12700</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>12750</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>12850</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>12900</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12950</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>13050</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>13150</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>13200</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>13250</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>13300</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>13350</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>13400</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>13450</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>13550</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>13600</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>13650</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>13750</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>13800</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>13850</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>13900</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>13950</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>14050</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>14150</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>14200</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>14250</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>14350</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14400</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>14450</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>14500</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>14550</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>14600</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>14650</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>14700</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>14750</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>14800</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>14850</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>14900</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>14950</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15050</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>15150</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>15200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$306</c:f>
+              <c:f>Sheet1!$B$3:$B$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>5060</c:v>
+                  <c:v>5304.899356691171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,10 +1531,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$306</c:f>
+              <c:f>Sheet1!$A$3:$A$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2686,256 +2206,16 @@
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>11200</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>11250</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>11350</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>11450</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11500</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>11550</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>11600</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11650</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>11700</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11750</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>11800</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>11850</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>11900</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>11950</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>12050</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>12150</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>12200</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>12250</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>12300</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>12350</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>12400</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>12450</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>12550</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>12650</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>12700</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>12750</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>12850</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>12900</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12950</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>13050</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>13150</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>13200</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>13250</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>13300</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>13350</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>13400</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>13450</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>13550</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>13600</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>13650</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>13750</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>13800</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>13850</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>13900</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>13950</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>14050</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>14150</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>14200</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>14250</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>14350</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>14400</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>14450</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>14500</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>14550</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>14600</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>14650</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>14700</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>14750</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>14800</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>14850</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>14900</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>14950</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15050</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>15150</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>15200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$306</c:f>
+              <c:f>Sheet1!$C$3:$C$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="224"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2946,907 +2226,667 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7578125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.890625</c:v>
+                  <c:v>1.7578125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.5078125</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.8125</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.5625</c:v>
+                  <c:v>44.53125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.5546875</c:v>
+                  <c:v>67.96875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.609375</c:v>
+                  <c:v>96.6796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.609375</c:v>
+                  <c:v>133.0078125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.9375</c:v>
+                  <c:v>175.78125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>177.5390625</c:v>
+                  <c:v>223.2421875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.5859375</c:v>
+                  <c:v>274.8046875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>278.3203125</c:v>
+                  <c:v>331.0546875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>336.328125</c:v>
+                  <c:v>391.40625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>397.8515625</c:v>
+                  <c:v>456.4453125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464.6484375</c:v>
+                  <c:v>524.4140625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>534.375</c:v>
+                  <c:v>596.484375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>609.375</c:v>
+                  <c:v>672.0703125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>764.6484375</c:v>
+                  <c:v>748.828125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>843.75</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>920.5078125</c:v>
+                  <c:v>903.515625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>920.5078125</c:v>
+                  <c:v>983.7890625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000.1953125</c:v>
+                  <c:v>1065.234375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1081.640625</c:v>
+                  <c:v>1065.234375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1253.3203125</c:v>
+                  <c:v>1228.7109375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1253.3203125</c:v>
+                  <c:v>1314.2578125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1426.7578125</c:v>
+                  <c:v>1314.2578125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1426.7578125</c:v>
+                  <c:v>1484.1796875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1516.40625</c:v>
+                  <c:v>1567.96875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1685.7421875</c:v>
+                  <c:v>1657.6171875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1685.7421875</c:v>
+                  <c:v>1739.6484375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1840.4296875</c:v>
+                  <c:v>1739.6484375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1840.4296875</c:v>
+                  <c:v>1821.6796875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1900.78125</c:v>
+                  <c:v>1898.4375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1955.859375</c:v>
+                  <c:v>2043.75</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2010.9375</c:v>
+                  <c:v>2115.8203125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2062.5</c:v>
+                  <c:v>2178.515625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2170.3125</c:v>
+                  <c:v>2178.515625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2229.4921875</c:v>
+                  <c:v>2316.796875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2288.671875</c:v>
+                  <c:v>2388.28125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2344.3359375</c:v>
+                  <c:v>2463.8671875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2402.34375</c:v>
+                  <c:v>2463.8671875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2461.5234375</c:v>
+                  <c:v>2632.6171875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2516.6015625</c:v>
+                  <c:v>2714.6484375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2570.5078125</c:v>
+                  <c:v>2804.296875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2629.1015625</c:v>
+                  <c:v>2804.296875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2677.1484375</c:v>
+                  <c:v>2882.8125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2727.5390625</c:v>
+                  <c:v>3048.6328125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2727.5390625</c:v>
+                  <c:v>3138.28125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2777.9296875</c:v>
+                  <c:v>3138.28125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2867.578125</c:v>
+                  <c:v>3217.96875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2867.578125</c:v>
+                  <c:v>3309.375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2910.9375</c:v>
+                  <c:v>3389.6484375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2959.5703125</c:v>
+                  <c:v>3474.609375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2994.140625</c:v>
+                  <c:v>3557.2265625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3037.5</c:v>
+                  <c:v>3720.1171875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3079.1015625</c:v>
+                  <c:v>3720.1171875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3127.734375</c:v>
+                  <c:v>3803.3203125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3166.40625</c:v>
+                  <c:v>3960.9375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3227.34375</c:v>
+                  <c:v>3960.9375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3294.7265625</c:v>
+                  <c:v>4038.8671875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3358.59375</c:v>
+                  <c:v>4186.5234375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3434.765625</c:v>
+                  <c:v>4262.6953125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3514.453125</c:v>
+                  <c:v>4331.8359375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3592.96875</c:v>
+                  <c:v>4331.8359375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3667.96875</c:v>
+                  <c:v>4475.390625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3751.7578125</c:v>
+                  <c:v>4545.1171875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3827.34375</c:v>
+                  <c:v>4616.015625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3909.9609375</c:v>
+                  <c:v>4616.015625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3984.375</c:v>
+                  <c:v>4686.9140625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4059.375</c:v>
+                  <c:v>4755.46875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4136.1328125</c:v>
+                  <c:v>4894.921875</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4207.6171875</c:v>
+                  <c:v>4894.921875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4277.34375</c:v>
+                  <c:v>5033.7890625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4355.859375</c:v>
+                  <c:v>5033.7890625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4430.859375</c:v>
+                  <c:v>5169.140625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4499.4140625</c:v>
+                  <c:v>5169.140625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4575.5859375</c:v>
+                  <c:v>5300.9765625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4648.828125</c:v>
+                  <c:v>5346.09375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4724.4140625</c:v>
+                  <c:v>5346.09375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4797.65625</c:v>
+                  <c:v>5315.625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4870.3125</c:v>
+                  <c:v>5260.546875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4945.3125</c:v>
+                  <c:v>5260.546875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5017.3828125</c:v>
+                  <c:v>5194.921875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5064.84375</c:v>
+                  <c:v>5145.1171875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5098.2421875</c:v>
+                  <c:v>5180.2734375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5108.203125</c:v>
+                  <c:v>5180.2734375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5092.3828125</c:v>
+                  <c:v>5303.90625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5051.953125</c:v>
+                  <c:v>5350.78125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5014.453125</c:v>
+                  <c:v>5350.78125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4990.4296875</c:v>
+                  <c:v>5359.5703125</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4974.0234375</c:v>
+                  <c:v>5321.484375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4975.78125</c:v>
+                  <c:v>5174.4140625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5005.6640625</c:v>
+                  <c:v>5115.234375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5050.1953125</c:v>
+                  <c:v>5115.234375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5079.4921875</c:v>
+                  <c:v>5092.96875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5106.4453125</c:v>
+                  <c:v>5119.921875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5124.609375</c:v>
+                  <c:v>5173.2421875</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5102.9296875</c:v>
+                  <c:v>5306.8359375</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5070.1171875</c:v>
+                  <c:v>5348.4375</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5030.2734375</c:v>
+                  <c:v>5351.3671875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5003.3203125</c:v>
+                  <c:v>5305.078125</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4992.7734375</c:v>
+                  <c:v>5305.078125</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4992.7734375</c:v>
+                  <c:v>5237.6953125</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5024.4140625</c:v>
+                  <c:v>5159.1796875</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5040.234375</c:v>
+                  <c:v>5105.859375</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5071.875</c:v>
+                  <c:v>5089.453125</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5071.875</c:v>
+                  <c:v>5176.7578125</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5072.4609375</c:v>
+                  <c:v>5242.3828125</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5047.8515625</c:v>
+                  <c:v>5242.3828125</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5033.203125</c:v>
+                  <c:v>5348.4375</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5015.625</c:v>
+                  <c:v>5349.0234375</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5020.8984375</c:v>
+                  <c:v>5305.078125</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5033.203125</c:v>
+                  <c:v>5305.078125</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5058.3984375</c:v>
+                  <c:v>5247.0703125</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5079.4921875</c:v>
+                  <c:v>5170.8984375</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5086.5234375</c:v>
+                  <c:v>5121.6796875</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5081.25</c:v>
+                  <c:v>5150.390625</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5063.671875</c:v>
+                  <c:v>5150.390625</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5032.6171875</c:v>
+                  <c:v>5195.5078125</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5009.765625</c:v>
+                  <c:v>5307.421875</c:v>
                 </c:pt>
                 <c:pt idx="123">
+                  <c:v>5337.890625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5341.40625</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5304.4921875</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5172.65625</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>4998.046875</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>5006.25</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5026.171875</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5080.078125</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5080.078125</c:v>
-                </c:pt>
                 <c:pt idx="128">
-                  <c:v>5098.2421875</c:v>
+                  <c:v>4841.6015625</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5089.453125</c:v>
+                  <c:v>4712.109375</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5060.7421875</c:v>
+                  <c:v>4712.109375</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5034.375</c:v>
+                  <c:v>4625.390625</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5022.65625</c:v>
+                  <c:v>4700.9765625</c:v>
                 </c:pt>
                 <c:pt idx="133">
+                  <c:v>4752.5390625</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4716.796875</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4716.796875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4579.6875</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4508.7890625</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4508.7890625</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4475.390625</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4475.390625</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4533.984375</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4593.1640625</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4711.5234375</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4711.5234375</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4734.375</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4683.984375</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4623.046875</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4508.203125</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4487.6953125</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4539.84375</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4539.84375</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4664.6484375</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4725.5859375</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4784.765625</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4784.765625</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4843.359375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4765.4296875</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4765.4296875</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4678.125</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4591.9921875</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4504.6875</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4532.8125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4532.8125</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4654.6875</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4654.6875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4701.5625</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4669.3359375</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4625.390625</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4535.15625</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4535.15625</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4510.546875</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4563.8671875</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4627.1484375</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4756.640625</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4756.640625</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4818.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4942.96875</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>5008.0078125</c:v>
                 </c:pt>
-                <c:pt idx="134">
-                  <c:v>5026.7578125</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>5049.609375</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5050.78125</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>5072.4609375</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>5079.4921875</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>5067.7734375</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>5053.125</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>5019.140625</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>5019.140625</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5006.8359375</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>5015.0390625</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>5039.0625</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>5070.703125</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>5057.8125</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>5058.3984375</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>5040.8203125</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5063.0859375</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>5011.5234375</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5037.3046875</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5046.09375</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5071.875</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5054.296875</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>5054.296875</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>5081.8359375</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5070.703125</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>5052.5390625</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>5053.7109375</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>5047.8515625</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5044.921875</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>5044.921875</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5060.15625</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>5029.1015625</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5047.265625</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4959.9609375</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>4848.6328125</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4690.4296875</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4690.4296875</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4620.703125</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4662.890625</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4734.375</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4794.7265625</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>4781.25</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>4728.515625</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>4674.0234375</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>4615.4296875</c:v>
-                </c:pt>
                 <c:pt idx="179">
-                  <c:v>4569.7265625</c:v>
+                  <c:v>5067.1875</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4594.3359375</c:v>
+                  <c:v>5127.5390625</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4662.890625</c:v>
+                  <c:v>5182.6171875</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4733.7890625</c:v>
+                  <c:v>5244.140625</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4802.34375</c:v>
+                  <c:v>5298.046875</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4869.140625</c:v>
+                  <c:v>5340.8203125</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4938.8671875</c:v>
+                  <c:v>5340.8203125</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>5005.6640625</c:v>
+                  <c:v>5316.2109375</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5061.9140625</c:v>
+                  <c:v>5267.578125</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5085.3515625</c:v>
+                  <c:v>5267.578125</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5089.453125</c:v>
+                  <c:v>5167.96875</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5015.0390625</c:v>
+                  <c:v>5168.5546875</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4868.5546875</c:v>
+                  <c:v>5199.609375</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4726.7578125</c:v>
+                  <c:v>5249.4140625</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4626.5625</c:v>
+                  <c:v>5310.3515625</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4541.6015625</c:v>
+                  <c:v>5344.3359375</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4538.671875</c:v>
+                  <c:v>5347.8515625</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4607.2265625</c:v>
+                  <c:v>5306.25</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4683.3984375</c:v>
+                  <c:v>5251.7578125</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4750.78125</c:v>
+                  <c:v>5193.1640625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4821.6796875</c:v>
+                  <c:v>5193.1640625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4890.8203125</c:v>
+                  <c:v>5160.3515625</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5023.828125</c:v>
+                  <c:v>5156.25</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5023.828125</c:v>
+                  <c:v>5196.09375</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5051.953125</c:v>
+                  <c:v>5250.5859375</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5077.734375</c:v>
+                  <c:v>5349.0234375</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5081.8359375</c:v>
+                  <c:v>5350.78125</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5056.0546875</c:v>
+                  <c:v>5314.453125</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>4904.296875</c:v>
+                  <c:v>5251.7578125</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>4775.390625</c:v>
+                  <c:v>5251.7578125</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4650.5859375</c:v>
+                  <c:v>5183.203125</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>4543.359375</c:v>
+                  <c:v>5126.953125</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4524.0234375</c:v>
+                  <c:v>5112.3046875</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>4524.0234375</c:v>
+                  <c:v>5135.7421875</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>4594.3359375</c:v>
+                  <c:v>5244.7265625</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4662.3046875</c:v>
+                  <c:v>5305.6640625</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4804.1015625</c:v>
+                  <c:v>5305.6640625</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>4804.1015625</c:v>
+                  <c:v>5350.78125</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4870.8984375</c:v>
+                  <c:v>5350.78125</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5010.9375</c:v>
+                  <c:v>5317.96875</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5062.5</c:v>
+                  <c:v>5274.609375</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5085.3515625</c:v>
+                  <c:v>5176.171875</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5107.03125</c:v>
+                  <c:v>5176.171875</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5107.03125</c:v>
+                  <c:v>5165.625</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>5089.453125</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>5023.2421875</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>4880.859375</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>4759.5703125</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>4643.5546875</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>4565.0390625</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>4538.671875</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>4602.5390625</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>4676.3671875</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>4745.5078125</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>4817.578125</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>4888.4765625</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>4958.7890625</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>5058.3984375</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>5058.3984375</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>5077.1484375</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>5081.8359375</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>5063.671875</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>5021.484375</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>4995.1171875</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>4983.3984375</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>4958.7890625</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>4963.4765625</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>4958.7890625</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>5023.2421875</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>5030.859375</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>5066.015625</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>5048.4375</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>5032.03125</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>5032.03125</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>5040.8203125</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>5022.65625</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>5050.78125</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>5061.328125</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>5059.5703125</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>5059.5703125</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>5063.0859375</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>5059.5703125</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>5051.953125</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>5023.2421875</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>5037.3046875</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>5041.9921875</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>5048.4375</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>5054.8828125</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>5041.9921875</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>5066.015625</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>5054.8828125</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>5050.1953125</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>5050.1953125</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>5071.875</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>5043.75</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>5021.484375</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>5033.7890625</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>5037.890625</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>5044.921875</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>5056.0546875</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>5073.6328125</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>5061.9140625</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>5047.8515625</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>5043.1640625</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>5032.6171875</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>5053.125</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>5048.4375</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>5066.015625</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>5052.5390625</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>5069.53125</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>5052.5390625</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>5054.296875</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>5001.5625</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>4994.53125</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>4992.1875</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>4988.0859375</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>5007.421875</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>5087.6953125</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>5075.9765625</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>5097.65625</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>5064.2578125</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>5036.71875</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>5025.5859375</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>5003.90625</c:v>
+                  <c:v>5199.0234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,7 +3292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C307"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4284,7 +3324,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -4295,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4306,7 +3346,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -4317,10 +3357,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1.7578125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4328,10 +3368,10 @@
         <v>250</v>
       </c>
       <c r="B7" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C7" s="3">
-        <v>12.890625</v>
+        <v>1.7578125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4339,10 +3379,10 @@
         <v>300</v>
       </c>
       <c r="B8" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C8" s="3">
-        <v>20.5078125</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4350,10 +3390,10 @@
         <v>350</v>
       </c>
       <c r="B9" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C9" s="3">
-        <v>32.8125</v>
+        <v>14.0625</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4361,10 +3401,10 @@
         <v>400</v>
       </c>
       <c r="B10" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C10" s="3">
-        <v>51.5625</v>
+        <v>44.53125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4372,10 +3412,10 @@
         <v>450</v>
       </c>
       <c r="B11" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C11" s="3">
-        <v>68.5546875</v>
+        <v>67.96875</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4383,10 +3423,10 @@
         <v>500</v>
       </c>
       <c r="B12" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C12" s="3">
-        <v>99.609375</v>
+        <v>96.6796875</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4394,10 +3434,10 @@
         <v>550</v>
       </c>
       <c r="B13" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C13" s="3">
-        <v>99.609375</v>
+        <v>133.0078125</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4405,10 +3445,10 @@
         <v>600</v>
       </c>
       <c r="B14" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C14" s="3">
-        <v>135.9375</v>
+        <v>175.78125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4416,10 +3456,10 @@
         <v>650</v>
       </c>
       <c r="B15" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C15" s="3">
-        <v>177.5390625</v>
+        <v>223.2421875</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4427,10 +3467,10 @@
         <v>700</v>
       </c>
       <c r="B16" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C16" s="3">
-        <v>225.5859375</v>
+        <v>274.8046875</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4438,10 +3478,10 @@
         <v>750</v>
       </c>
       <c r="B17" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C17" s="3">
-        <v>278.3203125</v>
+        <v>331.0546875</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4449,10 +3489,10 @@
         <v>800</v>
       </c>
       <c r="B18" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C18" s="3">
-        <v>336.328125</v>
+        <v>391.40625</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4460,10 +3500,10 @@
         <v>850</v>
       </c>
       <c r="B19" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C19" s="3">
-        <v>397.8515625</v>
+        <v>456.4453125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4471,10 +3511,10 @@
         <v>900</v>
       </c>
       <c r="B20" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C20" s="3">
-        <v>464.6484375</v>
+        <v>524.4140625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4482,10 +3522,10 @@
         <v>950</v>
       </c>
       <c r="B21" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C21" s="3">
-        <v>534.375</v>
+        <v>596.484375</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4493,10 +3533,10 @@
         <v>1000</v>
       </c>
       <c r="B22" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C22" s="3">
-        <v>609.375</v>
+        <v>672.0703125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4504,10 +3544,10 @@
         <v>1050</v>
       </c>
       <c r="B23" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C23" s="3">
-        <v>764.6484375</v>
+        <v>748.828125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4515,10 +3555,10 @@
         <v>1100</v>
       </c>
       <c r="B24" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C24" s="3">
-        <v>843.75</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4526,10 +3566,10 @@
         <v>1150</v>
       </c>
       <c r="B25" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C25" s="3">
-        <v>920.5078125</v>
+        <v>903.515625</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4537,10 +3577,10 @@
         <v>1200</v>
       </c>
       <c r="B26" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C26" s="3">
-        <v>920.5078125</v>
+        <v>983.7890625</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4548,10 +3588,10 @@
         <v>1250</v>
       </c>
       <c r="B27" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C27" s="3">
-        <v>1000.1953125</v>
+        <v>1065.234375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4559,10 +3599,10 @@
         <v>1300</v>
       </c>
       <c r="B28" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C28" s="3">
-        <v>1081.640625</v>
+        <v>1065.234375</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4570,10 +3610,10 @@
         <v>1350</v>
       </c>
       <c r="B29" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C29" s="3">
-        <v>1253.3203125</v>
+        <v>1228.7109375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4581,10 +3621,10 @@
         <v>1400</v>
       </c>
       <c r="B30" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C30" s="3">
-        <v>1253.3203125</v>
+        <v>1314.2578125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4592,10 +3632,10 @@
         <v>1450</v>
       </c>
       <c r="B31" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C31" s="3">
-        <v>1426.7578125</v>
+        <v>1314.2578125</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4603,10 +3643,10 @@
         <v>1500</v>
       </c>
       <c r="B32" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C32" s="3">
-        <v>1426.7578125</v>
+        <v>1484.1796875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4614,10 +3654,10 @@
         <v>1550</v>
       </c>
       <c r="B33" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C33" s="3">
-        <v>1516.40625</v>
+        <v>1567.96875</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4625,10 +3665,10 @@
         <v>1600</v>
       </c>
       <c r="B34" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C34" s="3">
-        <v>1685.7421875</v>
+        <v>1657.6171875</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4636,10 +3676,10 @@
         <v>1650</v>
       </c>
       <c r="B35" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C35" s="3">
-        <v>1685.7421875</v>
+        <v>1739.6484375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4647,10 +3687,10 @@
         <v>1700</v>
       </c>
       <c r="B36" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C36" s="3">
-        <v>1840.4296875</v>
+        <v>1739.6484375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4658,10 +3698,10 @@
         <v>1750</v>
       </c>
       <c r="B37" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C37" s="3">
-        <v>1840.4296875</v>
+        <v>1821.6796875</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4669,10 +3709,10 @@
         <v>1800</v>
       </c>
       <c r="B38" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C38" s="3">
-        <v>1900.78125</v>
+        <v>1898.4375</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4680,10 +3720,10 @@
         <v>1850</v>
       </c>
       <c r="B39" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C39" s="3">
-        <v>1955.859375</v>
+        <v>2043.75</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4691,10 +3731,10 @@
         <v>1900</v>
       </c>
       <c r="B40" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C40" s="3">
-        <v>2010.9375</v>
+        <v>2115.8203125</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4702,10 +3742,10 @@
         <v>1950</v>
       </c>
       <c r="B41" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C41" s="3">
-        <v>2062.5</v>
+        <v>2178.515625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4713,10 +3753,10 @@
         <v>2000</v>
       </c>
       <c r="B42" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C42" s="3">
-        <v>2170.3125</v>
+        <v>2178.515625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4724,10 +3764,10 @@
         <v>2050</v>
       </c>
       <c r="B43" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C43" s="3">
-        <v>2229.4921875</v>
+        <v>2316.796875</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4735,10 +3775,10 @@
         <v>2100</v>
       </c>
       <c r="B44" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C44" s="3">
-        <v>2288.671875</v>
+        <v>2388.28125</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4746,10 +3786,10 @@
         <v>2150</v>
       </c>
       <c r="B45" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C45" s="3">
-        <v>2344.3359375</v>
+        <v>2463.8671875</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4757,10 +3797,10 @@
         <v>2200</v>
       </c>
       <c r="B46" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C46" s="3">
-        <v>2402.34375</v>
+        <v>2463.8671875</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4768,10 +3808,10 @@
         <v>2250</v>
       </c>
       <c r="B47" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C47" s="3">
-        <v>2461.5234375</v>
+        <v>2632.6171875</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4779,10 +3819,10 @@
         <v>2300</v>
       </c>
       <c r="B48" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C48" s="3">
-        <v>2516.6015625</v>
+        <v>2714.6484375</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4790,10 +3830,10 @@
         <v>2350</v>
       </c>
       <c r="B49" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C49" s="3">
-        <v>2570.5078125</v>
+        <v>2804.296875</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4801,10 +3841,10 @@
         <v>2400</v>
       </c>
       <c r="B50" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C50" s="3">
-        <v>2629.1015625</v>
+        <v>2804.296875</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4812,10 +3852,10 @@
         <v>2450</v>
       </c>
       <c r="B51" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C51" s="3">
-        <v>2677.1484375</v>
+        <v>2882.8125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4823,10 +3863,10 @@
         <v>2500</v>
       </c>
       <c r="B52" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C52" s="3">
-        <v>2727.5390625</v>
+        <v>3048.6328125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4834,10 +3874,10 @@
         <v>2550</v>
       </c>
       <c r="B53" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C53" s="3">
-        <v>2727.5390625</v>
+        <v>3138.28125</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4845,10 +3885,10 @@
         <v>2600</v>
       </c>
       <c r="B54" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C54" s="3">
-        <v>2777.9296875</v>
+        <v>3138.28125</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4856,10 +3896,10 @@
         <v>2650</v>
       </c>
       <c r="B55" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C55" s="3">
-        <v>2867.578125</v>
+        <v>3217.96875</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4867,10 +3907,10 @@
         <v>2700</v>
       </c>
       <c r="B56" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C56" s="3">
-        <v>2867.578125</v>
+        <v>3309.375</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4878,10 +3918,10 @@
         <v>2750</v>
       </c>
       <c r="B57" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C57" s="3">
-        <v>2910.9375</v>
+        <v>3389.6484375</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4889,10 +3929,10 @@
         <v>2800</v>
       </c>
       <c r="B58" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C58" s="3">
-        <v>2959.5703125</v>
+        <v>3474.609375</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4900,10 +3940,10 @@
         <v>2850</v>
       </c>
       <c r="B59" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C59" s="3">
-        <v>2994.140625</v>
+        <v>3557.2265625</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4911,10 +3951,10 @@
         <v>2900</v>
       </c>
       <c r="B60" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C60" s="3">
-        <v>3037.5</v>
+        <v>3720.1171875</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4922,10 +3962,10 @@
         <v>2950</v>
       </c>
       <c r="B61" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C61" s="3">
-        <v>3079.1015625</v>
+        <v>3720.1171875</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4933,10 +3973,10 @@
         <v>3000</v>
       </c>
       <c r="B62" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C62" s="3">
-        <v>3127.734375</v>
+        <v>3803.3203125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4944,10 +3984,10 @@
         <v>3050</v>
       </c>
       <c r="B63" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C63" s="3">
-        <v>3166.40625</v>
+        <v>3960.9375</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4955,10 +3995,10 @@
         <v>3100</v>
       </c>
       <c r="B64" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C64" s="3">
-        <v>3227.34375</v>
+        <v>3960.9375</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4966,10 +4006,10 @@
         <v>3150</v>
       </c>
       <c r="B65" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C65" s="3">
-        <v>3294.7265625</v>
+        <v>4038.8671875</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4977,10 +4017,10 @@
         <v>3200</v>
       </c>
       <c r="B66" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C66" s="3">
-        <v>3358.59375</v>
+        <v>4186.5234375</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4988,10 +4028,10 @@
         <v>3250</v>
       </c>
       <c r="B67" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C67" s="3">
-        <v>3434.765625</v>
+        <v>4262.6953125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4999,10 +4039,10 @@
         <v>3300</v>
       </c>
       <c r="B68" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C68" s="3">
-        <v>3514.453125</v>
+        <v>4331.8359375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5010,10 +4050,10 @@
         <v>3350</v>
       </c>
       <c r="B69" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C69" s="3">
-        <v>3592.96875</v>
+        <v>4331.8359375</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5021,10 +4061,10 @@
         <v>3400</v>
       </c>
       <c r="B70" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C70" s="3">
-        <v>3667.96875</v>
+        <v>4475.390625</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5032,10 +4072,10 @@
         <v>3450</v>
       </c>
       <c r="B71" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C71" s="3">
-        <v>3751.7578125</v>
+        <v>4545.1171875</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5043,10 +4083,10 @@
         <v>3500</v>
       </c>
       <c r="B72" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C72" s="3">
-        <v>3827.34375</v>
+        <v>4616.015625</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5054,10 +4094,10 @@
         <v>3550</v>
       </c>
       <c r="B73" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C73" s="3">
-        <v>3909.9609375</v>
+        <v>4616.015625</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5065,10 +4105,10 @@
         <v>3600</v>
       </c>
       <c r="B74" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C74" s="3">
-        <v>3984.375</v>
+        <v>4686.9140625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5076,10 +4116,10 @@
         <v>3650</v>
       </c>
       <c r="B75" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C75" s="3">
-        <v>4059.375</v>
+        <v>4755.46875</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5087,10 +4127,10 @@
         <v>3700</v>
       </c>
       <c r="B76" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C76" s="3">
-        <v>4136.1328125</v>
+        <v>4894.921875</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5098,10 +4138,10 @@
         <v>3750</v>
       </c>
       <c r="B77" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C77" s="3">
-        <v>4207.6171875</v>
+        <v>4894.921875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5109,10 +4149,10 @@
         <v>3800</v>
       </c>
       <c r="B78" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C78" s="3">
-        <v>4277.34375</v>
+        <v>5033.7890625</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5120,10 +4160,10 @@
         <v>3850</v>
       </c>
       <c r="B79" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C79" s="3">
-        <v>4355.859375</v>
+        <v>5033.7890625</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5131,10 +4171,10 @@
         <v>3900</v>
       </c>
       <c r="B80" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C80" s="3">
-        <v>4430.859375</v>
+        <v>5169.140625</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5142,10 +4182,10 @@
         <v>3950</v>
       </c>
       <c r="B81" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C81" s="3">
-        <v>4499.4140625</v>
+        <v>5169.140625</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5153,10 +4193,10 @@
         <v>4000</v>
       </c>
       <c r="B82" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C82" s="3">
-        <v>4575.5859375</v>
+        <v>5300.9765625</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5164,10 +4204,10 @@
         <v>4050</v>
       </c>
       <c r="B83" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C83" s="3">
-        <v>4648.828125</v>
+        <v>5346.09375</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5175,10 +4215,10 @@
         <v>4100</v>
       </c>
       <c r="B84" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C84" s="3">
-        <v>4724.4140625</v>
+        <v>5346.09375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5186,10 +4226,10 @@
         <v>4150</v>
       </c>
       <c r="B85" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C85" s="3">
-        <v>4797.65625</v>
+        <v>5315.625</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5197,10 +4237,10 @@
         <v>4200</v>
       </c>
       <c r="B86" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C86" s="3">
-        <v>4870.3125</v>
+        <v>5260.546875</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5208,10 +4248,10 @@
         <v>4250</v>
       </c>
       <c r="B87" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C87" s="3">
-        <v>4945.3125</v>
+        <v>5260.546875</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5219,10 +4259,10 @@
         <v>4300</v>
       </c>
       <c r="B88" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C88" s="3">
-        <v>5017.3828125</v>
+        <v>5194.921875</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5230,10 +4270,10 @@
         <v>4350</v>
       </c>
       <c r="B89" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C89" s="3">
-        <v>5064.84375</v>
+        <v>5145.1171875</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5241,10 +4281,10 @@
         <v>4400</v>
       </c>
       <c r="B90" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C90" s="3">
-        <v>5098.2421875</v>
+        <v>5180.2734375</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5252,10 +4292,10 @@
         <v>4450</v>
       </c>
       <c r="B91" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C91" s="3">
-        <v>5108.203125</v>
+        <v>5180.2734375</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5263,10 +4303,10 @@
         <v>4500</v>
       </c>
       <c r="B92" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C92" s="3">
-        <v>5092.3828125</v>
+        <v>5303.90625</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5274,10 +4314,10 @@
         <v>4550</v>
       </c>
       <c r="B93" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C93" s="3">
-        <v>5051.953125</v>
+        <v>5350.78125</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5285,10 +4325,10 @@
         <v>4600</v>
       </c>
       <c r="B94" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C94" s="3">
-        <v>5014.453125</v>
+        <v>5350.78125</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5296,10 +4336,10 @@
         <v>4650</v>
       </c>
       <c r="B95" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C95" s="3">
-        <v>4990.4296875</v>
+        <v>5359.5703125</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5307,10 +4347,10 @@
         <v>4700</v>
       </c>
       <c r="B96" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C96" s="3">
-        <v>4974.0234375</v>
+        <v>5321.484375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5318,10 +4358,10 @@
         <v>4750</v>
       </c>
       <c r="B97" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C97" s="3">
-        <v>4975.78125</v>
+        <v>5174.4140625</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5329,10 +4369,10 @@
         <v>4800</v>
       </c>
       <c r="B98" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C98" s="3">
-        <v>5005.6640625</v>
+        <v>5115.234375</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5340,10 +4380,10 @@
         <v>4850</v>
       </c>
       <c r="B99" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C99" s="3">
-        <v>5050.1953125</v>
+        <v>5115.234375</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5351,10 +4391,10 @@
         <v>4900</v>
       </c>
       <c r="B100" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C100" s="3">
-        <v>5079.4921875</v>
+        <v>5092.96875</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5362,10 +4402,10 @@
         <v>4950</v>
       </c>
       <c r="B101" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C101" s="3">
-        <v>5106.4453125</v>
+        <v>5119.921875</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5373,10 +4413,10 @@
         <v>5000</v>
       </c>
       <c r="B102" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C102" s="3">
-        <v>5124.609375</v>
+        <v>5173.2421875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5384,10 +4424,10 @@
         <v>5050</v>
       </c>
       <c r="B103" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C103" s="3">
-        <v>5102.9296875</v>
+        <v>5306.8359375</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5395,10 +4435,10 @@
         <v>5100</v>
       </c>
       <c r="B104" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C104" s="3">
-        <v>5070.1171875</v>
+        <v>5348.4375</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -5406,10 +4446,10 @@
         <v>5150</v>
       </c>
       <c r="B105" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C105" s="3">
-        <v>5030.2734375</v>
+        <v>5351.3671875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -5417,10 +4457,10 @@
         <v>5200</v>
       </c>
       <c r="B106" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C106" s="3">
-        <v>5003.3203125</v>
+        <v>5305.078125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -5428,10 +4468,10 @@
         <v>5250</v>
       </c>
       <c r="B107" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C107" s="3">
-        <v>4992.7734375</v>
+        <v>5305.078125</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -5439,10 +4479,10 @@
         <v>5300</v>
       </c>
       <c r="B108" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C108" s="3">
-        <v>4992.7734375</v>
+        <v>5237.6953125</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5450,10 +4490,10 @@
         <v>5350</v>
       </c>
       <c r="B109" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C109" s="3">
-        <v>5024.4140625</v>
+        <v>5159.1796875</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5461,10 +4501,10 @@
         <v>5400</v>
       </c>
       <c r="B110" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C110" s="3">
-        <v>5040.234375</v>
+        <v>5105.859375</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5472,10 +4512,10 @@
         <v>5450</v>
       </c>
       <c r="B111" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C111" s="3">
-        <v>5071.875</v>
+        <v>5089.453125</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5483,10 +4523,10 @@
         <v>5500</v>
       </c>
       <c r="B112" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C112" s="3">
-        <v>5071.875</v>
+        <v>5176.7578125</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5494,10 +4534,10 @@
         <v>5550</v>
       </c>
       <c r="B113" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C113" s="3">
-        <v>5072.4609375</v>
+        <v>5242.3828125</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5505,10 +4545,10 @@
         <v>5600</v>
       </c>
       <c r="B114" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C114" s="3">
-        <v>5047.8515625</v>
+        <v>5242.3828125</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5516,10 +4556,10 @@
         <v>5650</v>
       </c>
       <c r="B115" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C115" s="3">
-        <v>5033.203125</v>
+        <v>5348.4375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5527,10 +4567,10 @@
         <v>5700</v>
       </c>
       <c r="B116" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C116" s="3">
-        <v>5015.625</v>
+        <v>5349.0234375</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5538,10 +4578,10 @@
         <v>5750</v>
       </c>
       <c r="B117" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C117" s="3">
-        <v>5020.8984375</v>
+        <v>5305.078125</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5549,10 +4589,10 @@
         <v>5800</v>
       </c>
       <c r="B118" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C118" s="3">
-        <v>5033.203125</v>
+        <v>5305.078125</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5560,10 +4600,10 @@
         <v>5850</v>
       </c>
       <c r="B119" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C119" s="3">
-        <v>5058.3984375</v>
+        <v>5247.0703125</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5571,10 +4611,10 @@
         <v>5900</v>
       </c>
       <c r="B120" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C120" s="3">
-        <v>5079.4921875</v>
+        <v>5170.8984375</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5582,10 +4622,10 @@
         <v>5950</v>
       </c>
       <c r="B121" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C121" s="3">
-        <v>5086.5234375</v>
+        <v>5121.6796875</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5593,10 +4633,10 @@
         <v>6000</v>
       </c>
       <c r="B122" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C122" s="3">
-        <v>5081.25</v>
+        <v>5150.390625</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5604,10 +4644,10 @@
         <v>6050</v>
       </c>
       <c r="B123" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C123" s="3">
-        <v>5063.671875</v>
+        <v>5150.390625</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5615,10 +4655,10 @@
         <v>6100</v>
       </c>
       <c r="B124" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C124" s="3">
-        <v>5032.6171875</v>
+        <v>5195.5078125</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5626,10 +4666,10 @@
         <v>6150</v>
       </c>
       <c r="B125" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C125" s="3">
-        <v>5009.765625</v>
+        <v>5307.421875</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5637,10 +4677,10 @@
         <v>6200</v>
       </c>
       <c r="B126" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C126" s="3">
-        <v>4998.046875</v>
+        <v>5337.890625</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5648,10 +4688,10 @@
         <v>6250</v>
       </c>
       <c r="B127" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C127" s="3">
-        <v>5006.25</v>
+        <v>5341.40625</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5659,10 +4699,10 @@
         <v>6300</v>
       </c>
       <c r="B128" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C128" s="3">
-        <v>5026.171875</v>
+        <v>5304.4921875</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5670,10 +4710,10 @@
         <v>6350</v>
       </c>
       <c r="B129" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C129" s="3">
-        <v>5080.078125</v>
+        <v>5172.65625</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5681,10 +4721,10 @@
         <v>6400</v>
       </c>
       <c r="B130" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C130" s="3">
-        <v>5080.078125</v>
+        <v>4998.046875</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5692,10 +4732,10 @@
         <v>6450</v>
       </c>
       <c r="B131" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C131" s="3">
-        <v>5098.2421875</v>
+        <v>4841.6015625</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5703,10 +4743,10 @@
         <v>6500</v>
       </c>
       <c r="B132" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C132" s="3">
-        <v>5089.453125</v>
+        <v>4712.109375</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5714,10 +4754,10 @@
         <v>6550</v>
       </c>
       <c r="B133" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C133" s="3">
-        <v>5060.7421875</v>
+        <v>4712.109375</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5725,10 +4765,10 @@
         <v>6600</v>
       </c>
       <c r="B134" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C134" s="3">
-        <v>5034.375</v>
+        <v>4625.390625</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5736,10 +4776,10 @@
         <v>6650</v>
       </c>
       <c r="B135" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C135" s="3">
-        <v>5022.65625</v>
+        <v>4700.9765625</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5747,10 +4787,10 @@
         <v>6700</v>
       </c>
       <c r="B136" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C136" s="3">
-        <v>5008.0078125</v>
+        <v>4752.5390625</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5758,10 +4798,10 @@
         <v>6750</v>
       </c>
       <c r="B137" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C137" s="3">
-        <v>5026.7578125</v>
+        <v>4716.796875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5769,10 +4809,10 @@
         <v>6800</v>
       </c>
       <c r="B138" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C138" s="3">
-        <v>5049.609375</v>
+        <v>4716.796875</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5780,10 +4820,10 @@
         <v>6850</v>
       </c>
       <c r="B139" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C139" s="3">
-        <v>5050.78125</v>
+        <v>4579.6875</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5791,10 +4831,10 @@
         <v>6900</v>
       </c>
       <c r="B140" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C140" s="3">
-        <v>5072.4609375</v>
+        <v>4508.7890625</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5802,10 +4842,10 @@
         <v>6950</v>
       </c>
       <c r="B141" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C141" s="3">
-        <v>5079.4921875</v>
+        <v>4508.7890625</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5813,10 +4853,10 @@
         <v>7000</v>
       </c>
       <c r="B142" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C142" s="3">
-        <v>5067.7734375</v>
+        <v>4475.390625</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5824,10 +4864,10 @@
         <v>7050</v>
       </c>
       <c r="B143" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C143" s="3">
-        <v>5053.125</v>
+        <v>4475.390625</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5835,10 +4875,10 @@
         <v>7100</v>
       </c>
       <c r="B144" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C144" s="3">
-        <v>5019.140625</v>
+        <v>4533.984375</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5846,10 +4886,10 @@
         <v>7150</v>
       </c>
       <c r="B145" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C145" s="3">
-        <v>5019.140625</v>
+        <v>4593.1640625</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5857,10 +4897,10 @@
         <v>7200</v>
       </c>
       <c r="B146" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C146" s="3">
-        <v>5006.8359375</v>
+        <v>4711.5234375</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5868,10 +4908,10 @@
         <v>7250</v>
       </c>
       <c r="B147" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C147" s="3">
-        <v>5015.0390625</v>
+        <v>4711.5234375</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5879,10 +4919,10 @@
         <v>7300</v>
       </c>
       <c r="B148" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C148" s="3">
-        <v>5039.0625</v>
+        <v>4734.375</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5890,10 +4930,10 @@
         <v>7350</v>
       </c>
       <c r="B149" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C149" s="3">
-        <v>5070.703125</v>
+        <v>4683.984375</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5901,10 +4941,10 @@
         <v>7400</v>
       </c>
       <c r="B150" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C150" s="3">
-        <v>5057.8125</v>
+        <v>4623.046875</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5912,10 +4952,10 @@
         <v>7450</v>
       </c>
       <c r="B151" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C151" s="3">
-        <v>5058.3984375</v>
+        <v>4508.203125</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5923,10 +4963,10 @@
         <v>7500</v>
       </c>
       <c r="B152" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C152" s="3">
-        <v>5040.8203125</v>
+        <v>4487.6953125</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5934,10 +4974,10 @@
         <v>7550</v>
       </c>
       <c r="B153" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C153" s="3">
-        <v>5063.0859375</v>
+        <v>4539.84375</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5945,10 +4985,10 @@
         <v>7600</v>
       </c>
       <c r="B154" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C154" s="3">
-        <v>5011.5234375</v>
+        <v>4539.84375</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5956,10 +4996,10 @@
         <v>7650</v>
       </c>
       <c r="B155" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C155" s="3">
-        <v>5037.3046875</v>
+        <v>4664.6484375</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5967,10 +5007,10 @@
         <v>7700</v>
       </c>
       <c r="B156" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C156" s="3">
-        <v>5046.09375</v>
+        <v>4725.5859375</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5978,10 +5018,10 @@
         <v>7750</v>
       </c>
       <c r="B157" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C157" s="3">
-        <v>5071.875</v>
+        <v>4784.765625</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5989,10 +5029,10 @@
         <v>7800</v>
       </c>
       <c r="B158" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C158" s="3">
-        <v>5054.296875</v>
+        <v>4784.765625</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6000,10 +5040,10 @@
         <v>7850</v>
       </c>
       <c r="B159" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C159" s="3">
-        <v>5054.296875</v>
+        <v>4843.359375</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6011,10 +5051,10 @@
         <v>7900</v>
       </c>
       <c r="B160" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C160" s="3">
-        <v>5081.8359375</v>
+        <v>4765.4296875</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6022,10 +5062,10 @@
         <v>7950</v>
       </c>
       <c r="B161" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C161" s="3">
-        <v>5070.703125</v>
+        <v>4765.4296875</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6033,10 +5073,10 @@
         <v>8000</v>
       </c>
       <c r="B162" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C162" s="3">
-        <v>5052.5390625</v>
+        <v>4678.125</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6044,10 +5084,10 @@
         <v>8050</v>
       </c>
       <c r="B163" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C163" s="3">
-        <v>5053.7109375</v>
+        <v>4591.9921875</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -6055,10 +5095,10 @@
         <v>8100</v>
       </c>
       <c r="B164" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C164" s="3">
-        <v>5047.8515625</v>
+        <v>4504.6875</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -6066,10 +5106,10 @@
         <v>8150</v>
       </c>
       <c r="B165" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C165" s="3">
-        <v>5044.921875</v>
+        <v>4532.8125</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6077,10 +5117,10 @@
         <v>8200</v>
       </c>
       <c r="B166" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C166" s="3">
-        <v>5044.921875</v>
+        <v>4532.8125</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -6088,10 +5128,10 @@
         <v>8250</v>
       </c>
       <c r="B167" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C167" s="3">
-        <v>5060.15625</v>
+        <v>4654.6875</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6099,10 +5139,10 @@
         <v>8300</v>
       </c>
       <c r="B168" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C168" s="3">
-        <v>5029.1015625</v>
+        <v>4654.6875</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6110,10 +5150,10 @@
         <v>8350</v>
       </c>
       <c r="B169" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C169" s="3">
-        <v>5047.265625</v>
+        <v>4701.5625</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6121,10 +5161,10 @@
         <v>8400</v>
       </c>
       <c r="B170" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C170" s="3">
-        <v>4959.9609375</v>
+        <v>4669.3359375</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6132,10 +5172,10 @@
         <v>8450</v>
       </c>
       <c r="B171" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C171" s="3">
-        <v>4848.6328125</v>
+        <v>4625.390625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6143,10 +5183,10 @@
         <v>8500</v>
       </c>
       <c r="B172" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C172" s="3">
-        <v>4690.4296875</v>
+        <v>4535.15625</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6154,10 +5194,10 @@
         <v>8550</v>
       </c>
       <c r="B173" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C173" s="3">
-        <v>4690.4296875</v>
+        <v>4535.15625</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6165,10 +5205,10 @@
         <v>8600</v>
       </c>
       <c r="B174" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C174" s="3">
-        <v>4620.703125</v>
+        <v>4510.546875</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6176,10 +5216,10 @@
         <v>8650</v>
       </c>
       <c r="B175" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C175" s="3">
-        <v>4662.890625</v>
+        <v>4563.8671875</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6187,10 +5227,10 @@
         <v>8700</v>
       </c>
       <c r="B176" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C176" s="3">
-        <v>4734.375</v>
+        <v>4627.1484375</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6198,10 +5238,10 @@
         <v>8750</v>
       </c>
       <c r="B177" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C177" s="3">
-        <v>4794.7265625</v>
+        <v>4756.640625</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -6209,10 +5249,10 @@
         <v>8800</v>
       </c>
       <c r="B178" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C178" s="3">
-        <v>4781.25</v>
+        <v>4756.640625</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6220,10 +5260,10 @@
         <v>8850</v>
       </c>
       <c r="B179" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C179" s="3">
-        <v>4728.515625</v>
+        <v>4818.75</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6231,10 +5271,10 @@
         <v>8900</v>
       </c>
       <c r="B180" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C180" s="3">
-        <v>4674.0234375</v>
+        <v>4942.96875</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6242,10 +5282,10 @@
         <v>8950</v>
       </c>
       <c r="B181" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C181" s="3">
-        <v>4615.4296875</v>
+        <v>5008.0078125</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6253,10 +5293,10 @@
         <v>9000</v>
       </c>
       <c r="B182" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C182" s="3">
-        <v>4569.7265625</v>
+        <v>5067.1875</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6264,10 +5304,10 @@
         <v>9050</v>
       </c>
       <c r="B183" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C183" s="3">
-        <v>4594.3359375</v>
+        <v>5127.5390625</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6275,10 +5315,10 @@
         <v>9100</v>
       </c>
       <c r="B184" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C184" s="3">
-        <v>4662.890625</v>
+        <v>5182.6171875</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6286,10 +5326,10 @@
         <v>9150</v>
       </c>
       <c r="B185" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C185" s="3">
-        <v>4733.7890625</v>
+        <v>5244.140625</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6297,10 +5337,10 @@
         <v>9200</v>
       </c>
       <c r="B186" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C186" s="3">
-        <v>4802.34375</v>
+        <v>5298.046875</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -6308,10 +5348,10 @@
         <v>9250</v>
       </c>
       <c r="B187" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C187" s="3">
-        <v>4869.140625</v>
+        <v>5340.8203125</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -6319,10 +5359,10 @@
         <v>9300</v>
       </c>
       <c r="B188" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C188" s="3">
-        <v>4938.8671875</v>
+        <v>5340.8203125</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -6330,10 +5370,10 @@
         <v>9350</v>
       </c>
       <c r="B189" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C189" s="3">
-        <v>5005.6640625</v>
+        <v>5316.2109375</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6341,10 +5381,10 @@
         <v>9400</v>
       </c>
       <c r="B190" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C190" s="3">
-        <v>5061.9140625</v>
+        <v>5267.578125</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6352,10 +5392,10 @@
         <v>9450</v>
       </c>
       <c r="B191" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C191" s="3">
-        <v>5085.3515625</v>
+        <v>5267.578125</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6363,10 +5403,10 @@
         <v>9500</v>
       </c>
       <c r="B192" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C192" s="3">
-        <v>5089.453125</v>
+        <v>5167.96875</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6374,10 +5414,10 @@
         <v>9550</v>
       </c>
       <c r="B193" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C193" s="3">
-        <v>5015.0390625</v>
+        <v>5168.5546875</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6385,10 +5425,10 @@
         <v>9600</v>
       </c>
       <c r="B194" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C194" s="3">
-        <v>4868.5546875</v>
+        <v>5199.609375</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6396,10 +5436,10 @@
         <v>9650</v>
       </c>
       <c r="B195" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C195" s="3">
-        <v>4726.7578125</v>
+        <v>5249.4140625</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6407,10 +5447,10 @@
         <v>9700</v>
       </c>
       <c r="B196" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C196" s="3">
-        <v>4626.5625</v>
+        <v>5310.3515625</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6418,10 +5458,10 @@
         <v>9750</v>
       </c>
       <c r="B197" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C197" s="3">
-        <v>4541.6015625</v>
+        <v>5344.3359375</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6429,10 +5469,10 @@
         <v>9800</v>
       </c>
       <c r="B198" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C198" s="3">
-        <v>4538.671875</v>
+        <v>5347.8515625</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6440,10 +5480,10 @@
         <v>9850</v>
       </c>
       <c r="B199" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C199" s="3">
-        <v>4607.2265625</v>
+        <v>5306.25</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6451,10 +5491,10 @@
         <v>9900</v>
       </c>
       <c r="B200" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C200" s="3">
-        <v>4683.3984375</v>
+        <v>5251.7578125</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6462,10 +5502,10 @@
         <v>9950</v>
       </c>
       <c r="B201" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C201" s="3">
-        <v>4750.78125</v>
+        <v>5193.1640625</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6473,10 +5513,10 @@
         <v>10000</v>
       </c>
       <c r="B202" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C202" s="3">
-        <v>4821.6796875</v>
+        <v>5193.1640625</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6484,10 +5524,10 @@
         <v>10050</v>
       </c>
       <c r="B203" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C203" s="3">
-        <v>4890.8203125</v>
+        <v>5160.3515625</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6495,10 +5535,10 @@
         <v>10100</v>
       </c>
       <c r="B204" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C204" s="3">
-        <v>5023.828125</v>
+        <v>5156.25</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6506,10 +5546,10 @@
         <v>10150</v>
       </c>
       <c r="B205" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C205" s="3">
-        <v>5023.828125</v>
+        <v>5196.09375</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6517,10 +5557,10 @@
         <v>10200</v>
       </c>
       <c r="B206" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C206" s="3">
-        <v>5051.953125</v>
+        <v>5250.5859375</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6528,10 +5568,10 @@
         <v>10250</v>
       </c>
       <c r="B207" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C207" s="3">
-        <v>5077.734375</v>
+        <v>5349.0234375</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6539,10 +5579,10 @@
         <v>10300</v>
       </c>
       <c r="B208" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C208" s="3">
-        <v>5081.8359375</v>
+        <v>5350.78125</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -6550,10 +5590,10 @@
         <v>10350</v>
       </c>
       <c r="B209" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C209" s="3">
-        <v>5056.0546875</v>
+        <v>5314.453125</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -6561,10 +5601,10 @@
         <v>10400</v>
       </c>
       <c r="B210" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C210" s="3">
-        <v>4904.296875</v>
+        <v>5251.7578125</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -6572,10 +5612,10 @@
         <v>10450</v>
       </c>
       <c r="B211" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C211" s="3">
-        <v>4775.390625</v>
+        <v>5251.7578125</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -6583,10 +5623,10 @@
         <v>10500</v>
       </c>
       <c r="B212" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C212" s="3">
-        <v>4650.5859375</v>
+        <v>5183.203125</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -6594,10 +5634,10 @@
         <v>10550</v>
       </c>
       <c r="B213" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C213" s="3">
-        <v>4543.359375</v>
+        <v>5126.953125</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -6605,10 +5645,10 @@
         <v>10600</v>
       </c>
       <c r="B214" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C214" s="3">
-        <v>4524.0234375</v>
+        <v>5112.3046875</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -6616,10 +5656,10 @@
         <v>10650</v>
       </c>
       <c r="B215" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C215" s="3">
-        <v>4524.0234375</v>
+        <v>5135.7421875</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -6627,10 +5667,10 @@
         <v>10700</v>
       </c>
       <c r="B216" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C216" s="3">
-        <v>4594.3359375</v>
+        <v>5244.7265625</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6638,10 +5678,10 @@
         <v>10750</v>
       </c>
       <c r="B217" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C217" s="3">
-        <v>4662.3046875</v>
+        <v>5305.6640625</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6649,10 +5689,10 @@
         <v>10800</v>
       </c>
       <c r="B218" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C218" s="3">
-        <v>4804.1015625</v>
+        <v>5305.6640625</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6660,10 +5700,10 @@
         <v>10850</v>
       </c>
       <c r="B219" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C219" s="3">
-        <v>4804.1015625</v>
+        <v>5350.78125</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6671,10 +5711,10 @@
         <v>10900</v>
       </c>
       <c r="B220" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C220" s="3">
-        <v>4870.8984375</v>
+        <v>5350.78125</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6682,10 +5722,10 @@
         <v>10950</v>
       </c>
       <c r="B221" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C221" s="3">
-        <v>5010.9375</v>
+        <v>5317.96875</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6693,10 +5733,10 @@
         <v>11000</v>
       </c>
       <c r="B222" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C222" s="3">
-        <v>5062.5</v>
+        <v>5274.609375</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6704,10 +5744,10 @@
         <v>11050</v>
       </c>
       <c r="B223" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C223" s="3">
-        <v>5085.3515625</v>
+        <v>5176.171875</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6715,10 +5755,10 @@
         <v>11100</v>
       </c>
       <c r="B224" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C224" s="3">
-        <v>5107.03125</v>
+        <v>5176.171875</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6726,10 +5766,10 @@
         <v>11150</v>
       </c>
       <c r="B225" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C225" s="3">
-        <v>5107.03125</v>
+        <v>5165.625</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6737,10 +5777,10 @@
         <v>11200</v>
       </c>
       <c r="B226" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C226" s="3">
-        <v>5089.453125</v>
+        <v>5199.0234375</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6748,890 +5788,10 @@
         <v>11250</v>
       </c>
       <c r="B227" s="3">
-        <v>5060</v>
+        <v>5304.899356691171</v>
       </c>
       <c r="C227" s="3">
-        <v>5023.2421875</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="3">
-        <v>11300</v>
-      </c>
-      <c r="B228" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C228" s="3">
-        <v>4880.859375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="3">
-        <v>11350</v>
-      </c>
-      <c r="B229" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C229" s="3">
-        <v>4759.5703125</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="3">
-        <v>11400</v>
-      </c>
-      <c r="B230" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C230" s="3">
-        <v>4643.5546875</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="3">
-        <v>11450</v>
-      </c>
-      <c r="B231" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C231" s="3">
-        <v>4565.0390625</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="3">
-        <v>11500</v>
-      </c>
-      <c r="B232" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C232" s="3">
-        <v>4538.671875</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="3">
-        <v>11550</v>
-      </c>
-      <c r="B233" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C233" s="3">
-        <v>4602.5390625</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="3">
-        <v>11600</v>
-      </c>
-      <c r="B234" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C234" s="3">
-        <v>4676.3671875</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="3">
-        <v>11650</v>
-      </c>
-      <c r="B235" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C235" s="3">
-        <v>4745.5078125</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="3">
-        <v>11700</v>
-      </c>
-      <c r="B236" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C236" s="3">
-        <v>4817.578125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="3">
-        <v>11750</v>
-      </c>
-      <c r="B237" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C237" s="3">
-        <v>4888.4765625</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="3">
-        <v>11800</v>
-      </c>
-      <c r="B238" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C238" s="3">
-        <v>4958.7890625</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="3">
-        <v>11850</v>
-      </c>
-      <c r="B239" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C239" s="3">
-        <v>5058.3984375</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="3">
-        <v>11900</v>
-      </c>
-      <c r="B240" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C240" s="3">
-        <v>5058.3984375</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="3">
-        <v>11950</v>
-      </c>
-      <c r="B241" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C241" s="3">
-        <v>5077.1484375</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="3">
-        <v>12000</v>
-      </c>
-      <c r="B242" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C242" s="3">
-        <v>5081.8359375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="3">
-        <v>12050</v>
-      </c>
-      <c r="B243" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C243" s="3">
-        <v>5063.671875</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="3">
-        <v>12100</v>
-      </c>
-      <c r="B244" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C244" s="3">
-        <v>5021.484375</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="3">
-        <v>12150</v>
-      </c>
-      <c r="B245" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C245" s="3">
-        <v>4995.1171875</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="3">
-        <v>12200</v>
-      </c>
-      <c r="B246" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C246" s="3">
-        <v>4983.3984375</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="3">
-        <v>12250</v>
-      </c>
-      <c r="B247" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C247" s="3">
-        <v>4958.7890625</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="3">
-        <v>12300</v>
-      </c>
-      <c r="B248" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C248" s="3">
-        <v>4963.4765625</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="3">
-        <v>12350</v>
-      </c>
-      <c r="B249" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C249" s="3">
-        <v>4958.7890625</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="3">
-        <v>12400</v>
-      </c>
-      <c r="B250" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C250" s="3">
-        <v>5023.2421875</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="3">
-        <v>12450</v>
-      </c>
-      <c r="B251" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C251" s="3">
-        <v>5030.859375</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="3">
-        <v>12500</v>
-      </c>
-      <c r="B252" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C252" s="3">
-        <v>5066.015625</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="3">
-        <v>12550</v>
-      </c>
-      <c r="B253" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C253" s="3">
-        <v>5048.4375</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="3">
-        <v>12600</v>
-      </c>
-      <c r="B254" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C254" s="3">
-        <v>5032.03125</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="3">
-        <v>12650</v>
-      </c>
-      <c r="B255" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C255" s="3">
-        <v>5032.03125</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="3">
-        <v>12700</v>
-      </c>
-      <c r="B256" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C256" s="3">
-        <v>5040.8203125</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="3">
-        <v>12750</v>
-      </c>
-      <c r="B257" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C257" s="3">
-        <v>5022.65625</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="3">
-        <v>12800</v>
-      </c>
-      <c r="B258" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C258" s="3">
-        <v>5050.78125</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="3">
-        <v>12850</v>
-      </c>
-      <c r="B259" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C259" s="3">
-        <v>5061.328125</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="3">
-        <v>12900</v>
-      </c>
-      <c r="B260" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C260" s="3">
-        <v>5059.5703125</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="3">
-        <v>12950</v>
-      </c>
-      <c r="B261" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C261" s="3">
-        <v>5059.5703125</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="3">
-        <v>13000</v>
-      </c>
-      <c r="B262" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C262" s="3">
-        <v>5063.0859375</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="3">
-        <v>13050</v>
-      </c>
-      <c r="B263" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C263" s="3">
-        <v>5059.5703125</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="3">
-        <v>13100</v>
-      </c>
-      <c r="B264" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C264" s="3">
-        <v>5051.953125</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="3">
-        <v>13150</v>
-      </c>
-      <c r="B265" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C265" s="3">
-        <v>5023.2421875</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="3">
-        <v>13200</v>
-      </c>
-      <c r="B266" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C266" s="3">
-        <v>5037.3046875</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="3">
-        <v>13250</v>
-      </c>
-      <c r="B267" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C267" s="3">
-        <v>5041.9921875</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="3">
-        <v>13300</v>
-      </c>
-      <c r="B268" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C268" s="3">
-        <v>5048.4375</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="3">
-        <v>13350</v>
-      </c>
-      <c r="B269" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C269" s="3">
-        <v>5054.8828125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="3">
-        <v>13400</v>
-      </c>
-      <c r="B270" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C270" s="3">
-        <v>5041.9921875</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="3">
-        <v>13450</v>
-      </c>
-      <c r="B271" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C271" s="3">
-        <v>5066.015625</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="3">
-        <v>13500</v>
-      </c>
-      <c r="B272" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C272" s="3">
-        <v>5054.8828125</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="3">
-        <v>13550</v>
-      </c>
-      <c r="B273" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C273" s="3">
-        <v>5050.1953125</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="3">
-        <v>13600</v>
-      </c>
-      <c r="B274" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C274" s="3">
-        <v>5050.1953125</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="3">
-        <v>13650</v>
-      </c>
-      <c r="B275" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C275" s="3">
-        <v>5071.875</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="3">
-        <v>13700</v>
-      </c>
-      <c r="B276" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C276" s="3">
-        <v>5043.75</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="3">
-        <v>13750</v>
-      </c>
-      <c r="B277" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C277" s="3">
-        <v>5021.484375</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="3">
-        <v>13800</v>
-      </c>
-      <c r="B278" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C278" s="3">
-        <v>5033.7890625</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="3">
-        <v>13850</v>
-      </c>
-      <c r="B279" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C279" s="3">
-        <v>5037.890625</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="3">
-        <v>13900</v>
-      </c>
-      <c r="B280" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C280" s="3">
-        <v>5044.921875</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="3">
-        <v>13950</v>
-      </c>
-      <c r="B281" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C281" s="3">
-        <v>5056.0546875</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="3">
-        <v>14000</v>
-      </c>
-      <c r="B282" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C282" s="3">
-        <v>5073.6328125</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="3">
-        <v>14050</v>
-      </c>
-      <c r="B283" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C283" s="3">
-        <v>5061.9140625</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="3">
-        <v>14100</v>
-      </c>
-      <c r="B284" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C284" s="3">
-        <v>5047.8515625</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="3">
-        <v>14150</v>
-      </c>
-      <c r="B285" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C285" s="3">
-        <v>5043.1640625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="3">
-        <v>14200</v>
-      </c>
-      <c r="B286" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C286" s="3">
-        <v>5032.6171875</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="3">
-        <v>14250</v>
-      </c>
-      <c r="B287" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C287" s="3">
-        <v>5053.125</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="3">
-        <v>14300</v>
-      </c>
-      <c r="B288" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C288" s="3">
-        <v>5048.4375</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="3">
-        <v>14350</v>
-      </c>
-      <c r="B289" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C289" s="3">
-        <v>5066.015625</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="3">
-        <v>14400</v>
-      </c>
-      <c r="B290" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C290" s="3">
-        <v>5052.5390625</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="3">
-        <v>14450</v>
-      </c>
-      <c r="B291" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C291" s="3">
-        <v>5069.53125</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="3">
-        <v>14500</v>
-      </c>
-      <c r="B292" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C292" s="3">
-        <v>5052.5390625</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="3">
-        <v>14550</v>
-      </c>
-      <c r="B293" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C293" s="3">
-        <v>5054.296875</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="3">
-        <v>14600</v>
-      </c>
-      <c r="B294" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C294" s="3">
-        <v>5001.5625</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="3">
-        <v>14650</v>
-      </c>
-      <c r="B295" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C295" s="3">
-        <v>4994.53125</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="3">
-        <v>14700</v>
-      </c>
-      <c r="B296" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C296" s="3">
-        <v>4992.1875</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="3">
-        <v>14750</v>
-      </c>
-      <c r="B297" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C297" s="3">
-        <v>4988.0859375</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="3">
-        <v>14800</v>
-      </c>
-      <c r="B298" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C298" s="3">
-        <v>5007.421875</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="3">
-        <v>14850</v>
-      </c>
-      <c r="B299" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C299" s="3">
-        <v>5087.6953125</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="3">
-        <v>14900</v>
-      </c>
-      <c r="B300" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C300" s="3">
-        <v>5075.9765625</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="3">
-        <v>14950</v>
-      </c>
-      <c r="B301" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C301" s="3">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="3">
-        <v>15000</v>
-      </c>
-      <c r="B302" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C302" s="3">
-        <v>5097.65625</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="3">
-        <v>15050</v>
-      </c>
-      <c r="B303" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C303" s="3">
-        <v>5064.2578125</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="3">
-        <v>15100</v>
-      </c>
-      <c r="B304" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C304" s="3">
-        <v>5036.71875</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="3">
-        <v>15150</v>
-      </c>
-      <c r="B305" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C305" s="3">
-        <v>5025.5859375</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="3">
-        <v>15200</v>
-      </c>
-      <c r="B306" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C306" s="3">
-        <v>5003.90625</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="3">
-        <v>15250</v>
-      </c>
-      <c r="B307" s="3">
-        <v>5060</v>
-      </c>
-      <c r="C307" s="3">
-        <v>5012.109375</v>
+        <v>5306.25</v>
       </c>
     </row>
   </sheetData>

--- a/OutputGrapher/Test Data Sheet.xlsx
+++ b/OutputGrapher/Test Data Sheet.xlsx
@@ -150,10 +150,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$226</c:f>
+              <c:f>Sheet1!$A$3:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -612,900 +612,474 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>7650</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7750</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7850</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7950</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8050</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8150</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8250</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8350</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8450</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8550</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8650</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8850</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8950</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>9050</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>9150</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>9250</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>9350</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>9450</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9550</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>9650</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9750</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9850</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9950</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10150</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>10200</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10250</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10300</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10350</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10400</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10450</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>10550</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>10650</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>10700</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>10750</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10800</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>10850</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10900</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>10950</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11050</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>11150</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>11200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$226</c:f>
+              <c:f>Sheet1!$B$3:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5432.917165771459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5431.873150685507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5431.92136497122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.743261468142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5437.45277025014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.751385183326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5439.985950606345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.923659218922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.927265925892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.021805204383</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5439.816142480138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5446.5020292688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5446.05560211426</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5441.953268319342</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5445.914435947875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5445.645780685688</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5438.585673730138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5442.460259569517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.075493944517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.79381081289</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.62065575091</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.615332757557</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.926845110288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.669891019654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.210275046288</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.283682778225</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.288452253145</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.312559396002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.464626846418</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.310841140852</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.813512893767</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5443.813512893767</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.676106087732</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.212583544731</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.336666538859</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5444.336666538859</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.973124890657</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5458.041111378696</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5463.067079946114</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5488.886025807729</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.334948283709</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5612.678433347603</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5492.504198881542</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.952832757556</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.334948283709</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.676106087732</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5440.488733989276</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5304.899356691171</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>5304.899356691171</c:v>
+                  <c:v>5447.769126632954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,10 +1105,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$226</c:f>
+              <c:f>Sheet1!$A$3:$A$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1993,229 +1567,16 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>7650</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7750</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7850</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7950</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>8050</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>8150</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8200</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>8250</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>8300</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>8350</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>8400</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>8450</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8550</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>8650</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>8700</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8750</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>8850</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>8900</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>8950</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>9050</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>9150</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>9200</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>9250</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>9300</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>9350</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>9450</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9550</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>9650</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9700</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9750</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9850</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>9900</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9950</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10050</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10150</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>10200</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>10250</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>10300</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>10350</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>10400</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>10450</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>10550</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>10650</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>10700</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>10750</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>10800</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>10850</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>10900</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>10950</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11050</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>11150</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>11200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$226</c:f>
+              <c:f>Sheet1!$C$3:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="224"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2223,670 +1584,457 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.546875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7578125</c:v>
+                  <c:v>39.111328125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7578125</c:v>
+                  <c:v>90.966796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0625</c:v>
+                  <c:v>163.916015625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0625</c:v>
+                  <c:v>257.958984375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.53125</c:v>
+                  <c:v>357.71484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.96875</c:v>
+                  <c:v>466.69921875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.6796875</c:v>
+                  <c:v>566.89453125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.0078125</c:v>
+                  <c:v>670.166015625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>175.78125</c:v>
+                  <c:v>776.953125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223.2421875</c:v>
+                  <c:v>890.771484375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>274.8046875</c:v>
+                  <c:v>1007.666015625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>331.0546875</c:v>
+                  <c:v>1141.259765625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>391.40625</c:v>
+                  <c:v>1274.853515625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>456.4453125</c:v>
+                  <c:v>1418.5546875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>524.4140625</c:v>
+                  <c:v>1566.650390625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>596.484375</c:v>
+                  <c:v>1711.23046875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>672.0703125</c:v>
+                  <c:v>1858.447265625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>748.828125</c:v>
+                  <c:v>2008.30078125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>825</c:v>
+                  <c:v>2155.95703125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>903.515625</c:v>
+                  <c:v>2300.537109375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>983.7890625</c:v>
+                  <c:v>2447.314453125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1065.234375</c:v>
+                  <c:v>2587.939453125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1065.234375</c:v>
+                  <c:v>2725.927734375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1228.7109375</c:v>
+                  <c:v>2860.400390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1314.2578125</c:v>
+                  <c:v>2994.43359375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1314.2578125</c:v>
+                  <c:v>3124.072265625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1484.1796875</c:v>
+                  <c:v>3247.998046875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1567.96875</c:v>
+                  <c:v>3375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1657.6171875</c:v>
+                  <c:v>3494.53125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1739.6484375</c:v>
+                  <c:v>3615.380859375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1739.6484375</c:v>
+                  <c:v>3733.59375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1821.6796875</c:v>
+                  <c:v>3853.564453125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1898.4375</c:v>
+                  <c:v>3968.26171875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2043.75</c:v>
+                  <c:v>4084.27734375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2115.8203125</c:v>
+                  <c:v>4194.580078125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2178.515625</c:v>
+                  <c:v>4304.8828125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2178.515625</c:v>
+                  <c:v>4412.109375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2316.796875</c:v>
+                  <c:v>4516.69921875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2388.28125</c:v>
+                  <c:v>4619.091796875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2463.8671875</c:v>
+                  <c:v>4718.408203125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2463.8671875</c:v>
+                  <c:v>4814.6484375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2632.6171875</c:v>
+                  <c:v>4909.130859375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2714.6484375</c:v>
+                  <c:v>5001.85546875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2804.296875</c:v>
+                  <c:v>5089.306640625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2804.296875</c:v>
+                  <c:v>5178.515625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2882.8125</c:v>
+                  <c:v>5264.6484375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3048.6328125</c:v>
+                  <c:v>5345.068359375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3138.28125</c:v>
+                  <c:v>5414.501953125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3138.28125</c:v>
+                  <c:v>5468.115234375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3217.96875</c:v>
+                  <c:v>5501.513671875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3309.375</c:v>
+                  <c:v>5512.939453125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3389.6484375</c:v>
+                  <c:v>5506.34765625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3474.609375</c:v>
+                  <c:v>5488.76953125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3557.2265625</c:v>
+                  <c:v>5465.91796875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3720.1171875</c:v>
+                  <c:v>5447.4609375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3720.1171875</c:v>
+                  <c:v>5432.080078125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3803.3203125</c:v>
+                  <c:v>5425.048828125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3960.9375</c:v>
+                  <c:v>5423.291015625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3960.9375</c:v>
+                  <c:v>5428.564453125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4038.8671875</c:v>
+                  <c:v>5433.3984375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4186.5234375</c:v>
+                  <c:v>5440.869140625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4262.6953125</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4331.8359375</c:v>
+                  <c:v>5448.33984375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4331.8359375</c:v>
+                  <c:v>5452.294921875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4475.390625</c:v>
+                  <c:v>5449.658203125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4545.1171875</c:v>
+                  <c:v>5450.09765625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4616.015625</c:v>
+                  <c:v>5447.021484375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4616.015625</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4686.9140625</c:v>
+                  <c:v>5443.06640625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4755.46875</c:v>
+                  <c:v>5441.748046875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4894.921875</c:v>
+                  <c:v>5440.869140625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4894.921875</c:v>
+                  <c:v>5439.111328125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5033.7890625</c:v>
+                  <c:v>5440.4296875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5033.7890625</c:v>
+                  <c:v>5439.55078125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5169.140625</c:v>
+                  <c:v>5441.30859375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5169.140625</c:v>
+                  <c:v>5441.748046875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5300.9765625</c:v>
+                  <c:v>5443.9453125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5346.09375</c:v>
+                  <c:v>5444.82421875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5346.09375</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5315.625</c:v>
+                  <c:v>5445.263671875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5260.546875</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5260.546875</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5194.921875</c:v>
+                  <c:v>5444.82421875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5145.1171875</c:v>
+                  <c:v>5445.263671875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5180.2734375</c:v>
+                  <c:v>5444.384765625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5180.2734375</c:v>
+                  <c:v>5445.263671875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5303.90625</c:v>
+                  <c:v>5444.82421875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5350.78125</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5350.78125</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5359.5703125</c:v>
+                  <c:v>5447.021484375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5321.484375</c:v>
+                  <c:v>5445.263671875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5174.4140625</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5115.234375</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5115.234375</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5092.96875</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5119.921875</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5173.2421875</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5306.8359375</c:v>
+                  <c:v>5444.82421875</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5348.4375</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5351.3671875</c:v>
+                  <c:v>5445.263671875</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5305.078125</c:v>
+                  <c:v>5447.021484375</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5305.078125</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5237.6953125</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5159.1796875</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5105.859375</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5089.453125</c:v>
+                  <c:v>5445.703125</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5176.7578125</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5242.3828125</c:v>
+                  <c:v>5446.58203125</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5242.3828125</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5348.4375</c:v>
+                  <c:v>5446.142578125</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5349.0234375</c:v>
+                  <c:v>5443.9453125</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5305.078125</c:v>
+                  <c:v>5434.716796875</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5305.078125</c:v>
+                  <c:v>5427.24609375</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5247.0703125</c:v>
+                  <c:v>5412.3046875</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5170.8984375</c:v>
+                  <c:v>5410.107421875</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5121.6796875</c:v>
+                  <c:v>5424.609375</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5150.390625</c:v>
+                  <c:v>5456.25</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5150.390625</c:v>
+                  <c:v>5448.779296875</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5195.5078125</c:v>
+                  <c:v>5352.5390625</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5307.421875</c:v>
+                  <c:v>5223.779296875</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5337.890625</c:v>
+                  <c:v>5095.01953125</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5341.40625</c:v>
+                  <c:v>4972.8515625</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5304.4921875</c:v>
+                  <c:v>4903.41796875</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5172.65625</c:v>
+                  <c:v>4929.78515625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4998.046875</c:v>
+                  <c:v>4902.978515625</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4841.6015625</c:v>
+                  <c:v>4862.109375</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4712.109375</c:v>
+                  <c:v>4820.80078125</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4712.109375</c:v>
+                  <c:v>4781.25</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4625.390625</c:v>
+                  <c:v>4759.27734375</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4700.9765625</c:v>
+                  <c:v>4827.83203125</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4752.5390625</c:v>
+                  <c:v>4936.376953125</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4716.796875</c:v>
+                  <c:v>4826.07421875</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4716.796875</c:v>
+                  <c:v>4826.07421875</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4579.6875</c:v>
+                  <c:v>4773.779296875</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4508.7890625</c:v>
+                  <c:v>4773.779296875</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4508.7890625</c:v>
+                  <c:v>4725.87890625</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4475.390625</c:v>
+                  <c:v>4738.18359375</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4475.390625</c:v>
+                  <c:v>4825.1953125</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4533.984375</c:v>
+                  <c:v>4916.6015625</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4593.1640625</c:v>
+                  <c:v>5003.173828125</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4711.5234375</c:v>
+                  <c:v>5088.427734375</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4711.5234375</c:v>
+                  <c:v>5171.044921875</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4734.375</c:v>
+                  <c:v>5251.46484375</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4683.984375</c:v>
+                  <c:v>5328.369140625</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4623.046875</c:v>
+                  <c:v>5405.2734375</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4508.203125</c:v>
+                  <c:v>5465.478515625</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4487.6953125</c:v>
+                  <c:v>5491.40625</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4539.84375</c:v>
+                  <c:v>5452.734375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4539.84375</c:v>
+                  <c:v>5351.220703125</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4664.6484375</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4725.5859375</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4784.765625</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>4784.765625</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>4843.359375</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4765.4296875</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4765.4296875</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>4678.125</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>4591.9921875</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>4504.6875</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>4532.8125</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>4532.8125</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>4654.6875</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>4654.6875</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>4701.5625</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4669.3359375</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>4625.390625</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4535.15625</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4535.15625</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4510.546875</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4563.8671875</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4627.1484375</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4756.640625</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>4756.640625</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>4818.75</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>4942.96875</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5008.0078125</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5067.1875</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>5127.5390625</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>5182.6171875</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5244.140625</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>5298.046875</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>5340.8203125</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>5340.8203125</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5316.2109375</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>5267.578125</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>5267.578125</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>5167.96875</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5168.5546875</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>5199.609375</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>5249.4140625</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>5310.3515625</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>5344.3359375</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>5347.8515625</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>5306.25</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>5251.7578125</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5193.1640625</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>5193.1640625</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>5160.3515625</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5156.25</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5196.09375</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>5250.5859375</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>5349.0234375</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>5350.78125</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5314.453125</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>5251.7578125</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>5251.7578125</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>5183.203125</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5126.953125</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>5112.3046875</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>5135.7421875</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>5244.7265625</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5305.6640625</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>5305.6640625</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5350.78125</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>5350.78125</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5317.96875</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>5274.609375</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>5176.171875</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>5176.171875</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5165.625</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>5199.0234375</c:v>
+                  <c:v>5208.3984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3324,7 +2472,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>5304.899356691171</v>
+        <v>5432.917165771459</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3335,7 +2483,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>5304.899356691171</v>
+        <v>5431.873150685507</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -3346,10 +2494,10 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>5304.899356691171</v>
+        <v>5431.92136497122</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>10.546875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3357,10 +2505,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.743261468142</v>
       </c>
       <c r="C6" s="3">
-        <v>1.7578125</v>
+        <v>39.111328125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3368,10 +2516,10 @@
         <v>250</v>
       </c>
       <c r="B7" s="3">
-        <v>5304.899356691171</v>
+        <v>5437.45277025014</v>
       </c>
       <c r="C7" s="3">
-        <v>1.7578125</v>
+        <v>90.966796875</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3379,10 +2527,10 @@
         <v>300</v>
       </c>
       <c r="B8" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.751385183326</v>
       </c>
       <c r="C8" s="3">
-        <v>14.0625</v>
+        <v>163.916015625</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3390,10 +2538,10 @@
         <v>350</v>
       </c>
       <c r="B9" s="3">
-        <v>5304.899356691171</v>
+        <v>5439.985950606345</v>
       </c>
       <c r="C9" s="3">
-        <v>14.0625</v>
+        <v>257.958984375</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3401,10 +2549,10 @@
         <v>400</v>
       </c>
       <c r="B10" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.923659218922</v>
       </c>
       <c r="C10" s="3">
-        <v>44.53125</v>
+        <v>357.71484375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3412,10 +2560,10 @@
         <v>450</v>
       </c>
       <c r="B11" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.927265925892</v>
       </c>
       <c r="C11" s="3">
-        <v>67.96875</v>
+        <v>466.69921875</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3423,10 +2571,10 @@
         <v>500</v>
       </c>
       <c r="B12" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.021805204383</v>
       </c>
       <c r="C12" s="3">
-        <v>96.6796875</v>
+        <v>566.89453125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3434,10 +2582,10 @@
         <v>550</v>
       </c>
       <c r="B13" s="3">
-        <v>5304.899356691171</v>
+        <v>5439.816142480138</v>
       </c>
       <c r="C13" s="3">
-        <v>133.0078125</v>
+        <v>670.166015625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3445,10 +2593,10 @@
         <v>600</v>
       </c>
       <c r="B14" s="3">
-        <v>5304.899356691171</v>
+        <v>5446.5020292688</v>
       </c>
       <c r="C14" s="3">
-        <v>175.78125</v>
+        <v>776.953125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3456,10 +2604,10 @@
         <v>650</v>
       </c>
       <c r="B15" s="3">
-        <v>5304.899356691171</v>
+        <v>5446.05560211426</v>
       </c>
       <c r="C15" s="3">
-        <v>223.2421875</v>
+        <v>890.771484375</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3467,10 +2615,10 @@
         <v>700</v>
       </c>
       <c r="B16" s="3">
-        <v>5304.899356691171</v>
+        <v>5441.953268319342</v>
       </c>
       <c r="C16" s="3">
-        <v>274.8046875</v>
+        <v>1007.666015625</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3478,10 +2626,10 @@
         <v>750</v>
       </c>
       <c r="B17" s="3">
-        <v>5304.899356691171</v>
+        <v>5445.914435947875</v>
       </c>
       <c r="C17" s="3">
-        <v>331.0546875</v>
+        <v>1141.259765625</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3489,10 +2637,10 @@
         <v>800</v>
       </c>
       <c r="B18" s="3">
-        <v>5304.899356691171</v>
+        <v>5445.645780685688</v>
       </c>
       <c r="C18" s="3">
-        <v>391.40625</v>
+        <v>1274.853515625</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3500,10 +2648,10 @@
         <v>850</v>
       </c>
       <c r="B19" s="3">
-        <v>5304.899356691171</v>
+        <v>5438.585673730138</v>
       </c>
       <c r="C19" s="3">
-        <v>456.4453125</v>
+        <v>1418.5546875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3511,10 +2659,10 @@
         <v>900</v>
       </c>
       <c r="B20" s="3">
-        <v>5304.899356691171</v>
+        <v>5442.460259569517</v>
       </c>
       <c r="C20" s="3">
-        <v>524.4140625</v>
+        <v>1566.650390625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3522,10 +2670,10 @@
         <v>950</v>
       </c>
       <c r="B21" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.075493944517</v>
       </c>
       <c r="C21" s="3">
-        <v>596.484375</v>
+        <v>1711.23046875</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3533,10 +2681,10 @@
         <v>1000</v>
       </c>
       <c r="B22" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.79381081289</v>
       </c>
       <c r="C22" s="3">
-        <v>672.0703125</v>
+        <v>1858.447265625</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3544,10 +2692,10 @@
         <v>1050</v>
       </c>
       <c r="B23" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.62065575091</v>
       </c>
       <c r="C23" s="3">
-        <v>748.828125</v>
+        <v>2008.30078125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3555,10 +2703,10 @@
         <v>1100</v>
       </c>
       <c r="B24" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.615332757557</v>
       </c>
       <c r="C24" s="3">
-        <v>825</v>
+        <v>2155.95703125</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3566,10 +2714,10 @@
         <v>1150</v>
       </c>
       <c r="B25" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.926845110288</v>
       </c>
       <c r="C25" s="3">
-        <v>903.515625</v>
+        <v>2300.537109375</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3577,10 +2725,10 @@
         <v>1200</v>
       </c>
       <c r="B26" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.669891019654</v>
       </c>
       <c r="C26" s="3">
-        <v>983.7890625</v>
+        <v>2447.314453125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3588,10 +2736,10 @@
         <v>1250</v>
       </c>
       <c r="B27" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.210275046288</v>
       </c>
       <c r="C27" s="3">
-        <v>1065.234375</v>
+        <v>2587.939453125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3599,10 +2747,10 @@
         <v>1300</v>
       </c>
       <c r="B28" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.283682778225</v>
       </c>
       <c r="C28" s="3">
-        <v>1065.234375</v>
+        <v>2725.927734375</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3610,10 +2758,10 @@
         <v>1350</v>
       </c>
       <c r="B29" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.288452253145</v>
       </c>
       <c r="C29" s="3">
-        <v>1228.7109375</v>
+        <v>2860.400390625</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3621,10 +2769,10 @@
         <v>1400</v>
       </c>
       <c r="B30" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.312559396002</v>
       </c>
       <c r="C30" s="3">
-        <v>1314.2578125</v>
+        <v>2994.43359375</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3632,10 +2780,10 @@
         <v>1450</v>
       </c>
       <c r="B31" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.464626846418</v>
       </c>
       <c r="C31" s="3">
-        <v>1314.2578125</v>
+        <v>3124.072265625</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3643,10 +2791,10 @@
         <v>1500</v>
       </c>
       <c r="B32" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.310841140852</v>
       </c>
       <c r="C32" s="3">
-        <v>1484.1796875</v>
+        <v>3247.998046875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3654,10 +2802,10 @@
         <v>1550</v>
       </c>
       <c r="B33" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.813512893767</v>
       </c>
       <c r="C33" s="3">
-        <v>1567.96875</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3665,10 +2813,10 @@
         <v>1600</v>
       </c>
       <c r="B34" s="3">
-        <v>5304.899356691171</v>
+        <v>5443.813512893767</v>
       </c>
       <c r="C34" s="3">
-        <v>1657.6171875</v>
+        <v>3494.53125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3676,10 +2824,10 @@
         <v>1650</v>
       </c>
       <c r="B35" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.676106087732</v>
       </c>
       <c r="C35" s="3">
-        <v>1739.6484375</v>
+        <v>3615.380859375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3687,10 +2835,10 @@
         <v>1700</v>
       </c>
       <c r="B36" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C36" s="3">
-        <v>1739.6484375</v>
+        <v>3733.59375</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3698,10 +2846,10 @@
         <v>1750</v>
       </c>
       <c r="B37" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C37" s="3">
-        <v>1821.6796875</v>
+        <v>3853.564453125</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3709,10 +2857,10 @@
         <v>1800</v>
       </c>
       <c r="B38" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.212583544731</v>
       </c>
       <c r="C38" s="3">
-        <v>1898.4375</v>
+        <v>3968.26171875</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3720,10 +2868,10 @@
         <v>1850</v>
       </c>
       <c r="B39" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.336666538859</v>
       </c>
       <c r="C39" s="3">
-        <v>2043.75</v>
+        <v>4084.27734375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3731,10 +2879,10 @@
         <v>1900</v>
       </c>
       <c r="B40" s="3">
-        <v>5304.899356691171</v>
+        <v>5444.336666538859</v>
       </c>
       <c r="C40" s="3">
-        <v>2115.8203125</v>
+        <v>4194.580078125</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3742,10 +2890,10 @@
         <v>1950</v>
       </c>
       <c r="B41" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C41" s="3">
-        <v>2178.515625</v>
+        <v>4304.8828125</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3753,10 +2901,10 @@
         <v>2000</v>
       </c>
       <c r="B42" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C42" s="3">
-        <v>2178.515625</v>
+        <v>4412.109375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3764,10 +2912,10 @@
         <v>2050</v>
       </c>
       <c r="B43" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C43" s="3">
-        <v>2316.796875</v>
+        <v>4516.69921875</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3775,10 +2923,10 @@
         <v>2100</v>
       </c>
       <c r="B44" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C44" s="3">
-        <v>2388.28125</v>
+        <v>4619.091796875</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3786,10 +2934,10 @@
         <v>2150</v>
       </c>
       <c r="B45" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C45" s="3">
-        <v>2463.8671875</v>
+        <v>4718.408203125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3797,10 +2945,10 @@
         <v>2200</v>
       </c>
       <c r="B46" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.973124890657</v>
       </c>
       <c r="C46" s="3">
-        <v>2463.8671875</v>
+        <v>4814.6484375</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3808,10 +2956,10 @@
         <v>2250</v>
       </c>
       <c r="B47" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C47" s="3">
-        <v>2632.6171875</v>
+        <v>4909.130859375</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3819,10 +2967,10 @@
         <v>2300</v>
       </c>
       <c r="B48" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C48" s="3">
-        <v>2714.6484375</v>
+        <v>5001.85546875</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3830,10 +2978,10 @@
         <v>2350</v>
       </c>
       <c r="B49" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C49" s="3">
-        <v>2804.296875</v>
+        <v>5089.306640625</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3841,10 +2989,10 @@
         <v>2400</v>
       </c>
       <c r="B50" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C50" s="3">
-        <v>2804.296875</v>
+        <v>5178.515625</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3852,10 +3000,10 @@
         <v>2450</v>
       </c>
       <c r="B51" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C51" s="3">
-        <v>2882.8125</v>
+        <v>5264.6484375</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3863,10 +3011,10 @@
         <v>2500</v>
       </c>
       <c r="B52" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C52" s="3">
-        <v>3048.6328125</v>
+        <v>5345.068359375</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3874,10 +3022,10 @@
         <v>2550</v>
       </c>
       <c r="B53" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C53" s="3">
-        <v>3138.28125</v>
+        <v>5414.501953125</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3885,10 +3033,10 @@
         <v>2600</v>
       </c>
       <c r="B54" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C54" s="3">
-        <v>3138.28125</v>
+        <v>5468.115234375</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3896,10 +3044,10 @@
         <v>2650</v>
       </c>
       <c r="B55" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C55" s="3">
-        <v>3217.96875</v>
+        <v>5501.513671875</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3907,10 +3055,10 @@
         <v>2700</v>
       </c>
       <c r="B56" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C56" s="3">
-        <v>3309.375</v>
+        <v>5512.939453125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3918,10 +3066,10 @@
         <v>2750</v>
       </c>
       <c r="B57" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C57" s="3">
-        <v>3389.6484375</v>
+        <v>5506.34765625</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3929,10 +3077,10 @@
         <v>2800</v>
       </c>
       <c r="B58" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C58" s="3">
-        <v>3474.609375</v>
+        <v>5488.76953125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3940,10 +3088,10 @@
         <v>2850</v>
       </c>
       <c r="B59" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C59" s="3">
-        <v>3557.2265625</v>
+        <v>5465.91796875</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3951,10 +3099,10 @@
         <v>2900</v>
       </c>
       <c r="B60" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C60" s="3">
-        <v>3720.1171875</v>
+        <v>5447.4609375</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3962,10 +3110,10 @@
         <v>2950</v>
       </c>
       <c r="B61" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C61" s="3">
-        <v>3720.1171875</v>
+        <v>5432.080078125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3973,10 +3121,10 @@
         <v>3000</v>
       </c>
       <c r="B62" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C62" s="3">
-        <v>3803.3203125</v>
+        <v>5425.048828125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3984,10 +3132,10 @@
         <v>3050</v>
       </c>
       <c r="B63" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C63" s="3">
-        <v>3960.9375</v>
+        <v>5423.291015625</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3995,10 +3143,10 @@
         <v>3100</v>
       </c>
       <c r="B64" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C64" s="3">
-        <v>3960.9375</v>
+        <v>5428.564453125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4006,10 +3154,10 @@
         <v>3150</v>
       </c>
       <c r="B65" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C65" s="3">
-        <v>4038.8671875</v>
+        <v>5433.3984375</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4017,10 +3165,10 @@
         <v>3200</v>
       </c>
       <c r="B66" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C66" s="3">
-        <v>4186.5234375</v>
+        <v>5440.869140625</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4028,10 +3176,10 @@
         <v>3250</v>
       </c>
       <c r="B67" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C67" s="3">
-        <v>4262.6953125</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4039,10 +3187,10 @@
         <v>3300</v>
       </c>
       <c r="B68" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C68" s="3">
-        <v>4331.8359375</v>
+        <v>5448.33984375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4050,10 +3198,10 @@
         <v>3350</v>
       </c>
       <c r="B69" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C69" s="3">
-        <v>4331.8359375</v>
+        <v>5452.294921875</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4061,10 +3209,10 @@
         <v>3400</v>
       </c>
       <c r="B70" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C70" s="3">
-        <v>4475.390625</v>
+        <v>5449.658203125</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4072,10 +3220,10 @@
         <v>3450</v>
       </c>
       <c r="B71" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C71" s="3">
-        <v>4545.1171875</v>
+        <v>5450.09765625</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4083,10 +3231,10 @@
         <v>3500</v>
       </c>
       <c r="B72" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C72" s="3">
-        <v>4616.015625</v>
+        <v>5447.021484375</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4094,10 +3242,10 @@
         <v>3550</v>
       </c>
       <c r="B73" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C73" s="3">
-        <v>4616.015625</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4105,10 +3253,10 @@
         <v>3600</v>
       </c>
       <c r="B74" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C74" s="3">
-        <v>4686.9140625</v>
+        <v>5443.06640625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4116,10 +3264,10 @@
         <v>3650</v>
       </c>
       <c r="B75" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C75" s="3">
-        <v>4755.46875</v>
+        <v>5441.748046875</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4127,10 +3275,10 @@
         <v>3700</v>
       </c>
       <c r="B76" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C76" s="3">
-        <v>4894.921875</v>
+        <v>5440.869140625</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4138,10 +3286,10 @@
         <v>3750</v>
       </c>
       <c r="B77" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C77" s="3">
-        <v>4894.921875</v>
+        <v>5439.111328125</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4149,10 +3297,10 @@
         <v>3800</v>
       </c>
       <c r="B78" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C78" s="3">
-        <v>5033.7890625</v>
+        <v>5440.4296875</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4160,10 +3308,10 @@
         <v>3850</v>
       </c>
       <c r="B79" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C79" s="3">
-        <v>5033.7890625</v>
+        <v>5439.55078125</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4171,10 +3319,10 @@
         <v>3900</v>
       </c>
       <c r="B80" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C80" s="3">
-        <v>5169.140625</v>
+        <v>5441.30859375</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4182,10 +3330,10 @@
         <v>3950</v>
       </c>
       <c r="B81" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C81" s="3">
-        <v>5169.140625</v>
+        <v>5441.748046875</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4193,10 +3341,10 @@
         <v>4000</v>
       </c>
       <c r="B82" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C82" s="3">
-        <v>5300.9765625</v>
+        <v>5443.9453125</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4204,10 +3352,10 @@
         <v>4050</v>
       </c>
       <c r="B83" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C83" s="3">
-        <v>5346.09375</v>
+        <v>5444.82421875</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4215,10 +3363,10 @@
         <v>4100</v>
       </c>
       <c r="B84" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C84" s="3">
-        <v>5346.09375</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4226,10 +3374,10 @@
         <v>4150</v>
       </c>
       <c r="B85" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C85" s="3">
-        <v>5315.625</v>
+        <v>5445.263671875</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4237,10 +3385,10 @@
         <v>4200</v>
       </c>
       <c r="B86" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C86" s="3">
-        <v>5260.546875</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4248,10 +3396,10 @@
         <v>4250</v>
       </c>
       <c r="B87" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C87" s="3">
-        <v>5260.546875</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4259,10 +3407,10 @@
         <v>4300</v>
       </c>
       <c r="B88" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C88" s="3">
-        <v>5194.921875</v>
+        <v>5444.82421875</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4270,10 +3418,10 @@
         <v>4350</v>
       </c>
       <c r="B89" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C89" s="3">
-        <v>5145.1171875</v>
+        <v>5445.263671875</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4281,10 +3429,10 @@
         <v>4400</v>
       </c>
       <c r="B90" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C90" s="3">
-        <v>5180.2734375</v>
+        <v>5444.384765625</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4292,10 +3440,10 @@
         <v>4450</v>
       </c>
       <c r="B91" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C91" s="3">
-        <v>5180.2734375</v>
+        <v>5445.263671875</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4303,10 +3451,10 @@
         <v>4500</v>
       </c>
       <c r="B92" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C92" s="3">
-        <v>5303.90625</v>
+        <v>5444.82421875</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4314,10 +3462,10 @@
         <v>4550</v>
       </c>
       <c r="B93" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C93" s="3">
-        <v>5350.78125</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4325,10 +3473,10 @@
         <v>4600</v>
       </c>
       <c r="B94" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C94" s="3">
-        <v>5350.78125</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4336,10 +3484,10 @@
         <v>4650</v>
       </c>
       <c r="B95" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C95" s="3">
-        <v>5359.5703125</v>
+        <v>5447.021484375</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4347,10 +3495,10 @@
         <v>4700</v>
       </c>
       <c r="B96" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C96" s="3">
-        <v>5321.484375</v>
+        <v>5445.263671875</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4358,10 +3506,10 @@
         <v>4750</v>
       </c>
       <c r="B97" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C97" s="3">
-        <v>5174.4140625</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4369,10 +3517,10 @@
         <v>4800</v>
       </c>
       <c r="B98" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C98" s="3">
-        <v>5115.234375</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4380,10 +3528,10 @@
         <v>4850</v>
       </c>
       <c r="B99" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C99" s="3">
-        <v>5115.234375</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4391,10 +3539,10 @@
         <v>4900</v>
       </c>
       <c r="B100" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C100" s="3">
-        <v>5092.96875</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4402,10 +3550,10 @@
         <v>4950</v>
       </c>
       <c r="B101" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C101" s="3">
-        <v>5119.921875</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4413,10 +3561,10 @@
         <v>5000</v>
       </c>
       <c r="B102" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C102" s="3">
-        <v>5173.2421875</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4424,10 +3572,10 @@
         <v>5050</v>
       </c>
       <c r="B103" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C103" s="3">
-        <v>5306.8359375</v>
+        <v>5444.82421875</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4435,10 +3583,10 @@
         <v>5100</v>
       </c>
       <c r="B104" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C104" s="3">
-        <v>5348.4375</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4446,10 +3594,10 @@
         <v>5150</v>
       </c>
       <c r="B105" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C105" s="3">
-        <v>5351.3671875</v>
+        <v>5445.263671875</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4457,10 +3605,10 @@
         <v>5200</v>
       </c>
       <c r="B106" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C106" s="3">
-        <v>5305.078125</v>
+        <v>5447.021484375</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4468,10 +3616,10 @@
         <v>5250</v>
       </c>
       <c r="B107" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C107" s="3">
-        <v>5305.078125</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4479,10 +3627,10 @@
         <v>5300</v>
       </c>
       <c r="B108" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C108" s="3">
-        <v>5237.6953125</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4490,10 +3638,10 @@
         <v>5350</v>
       </c>
       <c r="B109" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C109" s="3">
-        <v>5159.1796875</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4501,10 +3649,10 @@
         <v>5400</v>
       </c>
       <c r="B110" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C110" s="3">
-        <v>5105.859375</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4512,10 +3660,10 @@
         <v>5450</v>
       </c>
       <c r="B111" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C111" s="3">
-        <v>5089.453125</v>
+        <v>5445.703125</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4523,10 +3671,10 @@
         <v>5500</v>
       </c>
       <c r="B112" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C112" s="3">
-        <v>5176.7578125</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4534,10 +3682,10 @@
         <v>5550</v>
       </c>
       <c r="B113" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C113" s="3">
-        <v>5242.3828125</v>
+        <v>5446.58203125</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4545,10 +3693,10 @@
         <v>5600</v>
       </c>
       <c r="B114" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C114" s="3">
-        <v>5242.3828125</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4556,10 +3704,10 @@
         <v>5650</v>
       </c>
       <c r="B115" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C115" s="3">
-        <v>5348.4375</v>
+        <v>5446.142578125</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4567,10 +3715,10 @@
         <v>5700</v>
       </c>
       <c r="B116" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C116" s="3">
-        <v>5349.0234375</v>
+        <v>5443.9453125</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4578,10 +3726,10 @@
         <v>5750</v>
       </c>
       <c r="B117" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C117" s="3">
-        <v>5305.078125</v>
+        <v>5434.716796875</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4589,10 +3737,10 @@
         <v>5800</v>
       </c>
       <c r="B118" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C118" s="3">
-        <v>5305.078125</v>
+        <v>5427.24609375</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4600,10 +3748,10 @@
         <v>5850</v>
       </c>
       <c r="B119" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C119" s="3">
-        <v>5247.0703125</v>
+        <v>5412.3046875</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4611,10 +3759,10 @@
         <v>5900</v>
       </c>
       <c r="B120" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C120" s="3">
-        <v>5170.8984375</v>
+        <v>5410.107421875</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4622,10 +3770,10 @@
         <v>5950</v>
       </c>
       <c r="B121" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C121" s="3">
-        <v>5121.6796875</v>
+        <v>5424.609375</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4633,10 +3781,10 @@
         <v>6000</v>
       </c>
       <c r="B122" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C122" s="3">
-        <v>5150.390625</v>
+        <v>5456.25</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4644,10 +3792,10 @@
         <v>6050</v>
       </c>
       <c r="B123" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C123" s="3">
-        <v>5150.390625</v>
+        <v>5448.779296875</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4655,10 +3803,10 @@
         <v>6100</v>
       </c>
       <c r="B124" s="3">
-        <v>5304.899356691171</v>
+        <v>5458.041111378696</v>
       </c>
       <c r="C124" s="3">
-        <v>5195.5078125</v>
+        <v>5352.5390625</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4666,10 +3814,10 @@
         <v>6150</v>
       </c>
       <c r="B125" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C125" s="3">
-        <v>5307.421875</v>
+        <v>5223.779296875</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4677,10 +3825,10 @@
         <v>6200</v>
       </c>
       <c r="B126" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C126" s="3">
-        <v>5337.890625</v>
+        <v>5095.01953125</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4688,10 +3836,10 @@
         <v>6250</v>
       </c>
       <c r="B127" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C127" s="3">
-        <v>5341.40625</v>
+        <v>4972.8515625</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4699,10 +3847,10 @@
         <v>6300</v>
       </c>
       <c r="B128" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C128" s="3">
-        <v>5304.4921875</v>
+        <v>4903.41796875</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4710,10 +3858,10 @@
         <v>6350</v>
       </c>
       <c r="B129" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C129" s="3">
-        <v>5172.65625</v>
+        <v>4929.78515625</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4721,10 +3869,10 @@
         <v>6400</v>
       </c>
       <c r="B130" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C130" s="3">
-        <v>4998.046875</v>
+        <v>4902.978515625</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4732,10 +3880,10 @@
         <v>6450</v>
       </c>
       <c r="B131" s="3">
-        <v>5304.899356691171</v>
+        <v>5463.067079946114</v>
       </c>
       <c r="C131" s="3">
-        <v>4841.6015625</v>
+        <v>4862.109375</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4743,10 +3891,10 @@
         <v>6500</v>
       </c>
       <c r="B132" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C132" s="3">
-        <v>4712.109375</v>
+        <v>4820.80078125</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4754,10 +3902,10 @@
         <v>6550</v>
       </c>
       <c r="B133" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C133" s="3">
-        <v>4712.109375</v>
+        <v>4781.25</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4765,10 +3913,10 @@
         <v>6600</v>
       </c>
       <c r="B134" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C134" s="3">
-        <v>4625.390625</v>
+        <v>4759.27734375</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4776,10 +3924,10 @@
         <v>6650</v>
       </c>
       <c r="B135" s="3">
-        <v>5304.899356691171</v>
+        <v>5488.886025807729</v>
       </c>
       <c r="C135" s="3">
-        <v>4700.9765625</v>
+        <v>4827.83203125</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4787,10 +3935,10 @@
         <v>6700</v>
       </c>
       <c r="B136" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.334948283709</v>
       </c>
       <c r="C136" s="3">
-        <v>4752.5390625</v>
+        <v>4936.376953125</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4798,10 +3946,10 @@
         <v>6750</v>
       </c>
       <c r="B137" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C137" s="3">
-        <v>4716.796875</v>
+        <v>4826.07421875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4809,10 +3957,10 @@
         <v>6800</v>
       </c>
       <c r="B138" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C138" s="3">
-        <v>4716.796875</v>
+        <v>4826.07421875</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4820,10 +3968,10 @@
         <v>6850</v>
       </c>
       <c r="B139" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C139" s="3">
-        <v>4579.6875</v>
+        <v>4773.779296875</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4831,10 +3979,10 @@
         <v>6900</v>
       </c>
       <c r="B140" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C140" s="3">
-        <v>4508.7890625</v>
+        <v>4773.779296875</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4842,10 +3990,10 @@
         <v>6950</v>
       </c>
       <c r="B141" s="3">
-        <v>5304.899356691171</v>
+        <v>5612.678433347603</v>
       </c>
       <c r="C141" s="3">
-        <v>4508.7890625</v>
+        <v>4725.87890625</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4853,10 +4001,10 @@
         <v>7000</v>
       </c>
       <c r="B142" s="3">
-        <v>5304.899356691171</v>
+        <v>5492.504198881542</v>
       </c>
       <c r="C142" s="3">
-        <v>4475.390625</v>
+        <v>4738.18359375</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4864,10 +4012,10 @@
         <v>7050</v>
       </c>
       <c r="B143" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.952832757556</v>
       </c>
       <c r="C143" s="3">
-        <v>4475.390625</v>
+        <v>4825.1953125</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4875,10 +4023,10 @@
         <v>7100</v>
       </c>
       <c r="B144" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C144" s="3">
-        <v>4533.984375</v>
+        <v>4916.6015625</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4886,10 +4034,10 @@
         <v>7150</v>
       </c>
       <c r="B145" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C145" s="3">
-        <v>4593.1640625</v>
+        <v>5003.173828125</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4897,10 +4045,10 @@
         <v>7200</v>
       </c>
       <c r="B146" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.334948283709</v>
       </c>
       <c r="C146" s="3">
-        <v>4711.5234375</v>
+        <v>5088.427734375</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4908,10 +4056,10 @@
         <v>7250</v>
       </c>
       <c r="B147" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.676106087732</v>
       </c>
       <c r="C147" s="3">
-        <v>4711.5234375</v>
+        <v>5171.044921875</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4919,10 +4067,10 @@
         <v>7300</v>
       </c>
       <c r="B148" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C148" s="3">
-        <v>4734.375</v>
+        <v>5251.46484375</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4930,10 +4078,10 @@
         <v>7350</v>
       </c>
       <c r="B149" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C149" s="3">
-        <v>4683.984375</v>
+        <v>5328.369140625</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4941,10 +4089,10 @@
         <v>7400</v>
       </c>
       <c r="B150" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C150" s="3">
-        <v>4623.046875</v>
+        <v>5405.2734375</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4952,10 +4100,10 @@
         <v>7450</v>
       </c>
       <c r="B151" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C151" s="3">
-        <v>4508.203125</v>
+        <v>5465.478515625</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4963,10 +4111,10 @@
         <v>7500</v>
       </c>
       <c r="B152" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C152" s="3">
-        <v>4487.6953125</v>
+        <v>5491.40625</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4974,10 +4122,10 @@
         <v>7550</v>
       </c>
       <c r="B153" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C153" s="3">
-        <v>4539.84375</v>
+        <v>5452.734375</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4985,10 +4133,10 @@
         <v>7600</v>
       </c>
       <c r="B154" s="3">
-        <v>5304.899356691171</v>
+        <v>5440.488733989276</v>
       </c>
       <c r="C154" s="3">
-        <v>4539.84375</v>
+        <v>5351.220703125</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4996,10 +4144,10 @@
         <v>7650</v>
       </c>
       <c r="B155" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C155" s="3">
-        <v>4664.6484375</v>
+        <v>5208.3984375</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5007,791 +4155,10 @@
         <v>7700</v>
       </c>
       <c r="B156" s="3">
-        <v>5304.899356691171</v>
+        <v>5447.769126632954</v>
       </c>
       <c r="C156" s="3">
-        <v>4725.5859375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="3">
-        <v>7750</v>
-      </c>
-      <c r="B157" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C157" s="3">
-        <v>4784.765625</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="3">
-        <v>7800</v>
-      </c>
-      <c r="B158" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C158" s="3">
-        <v>4784.765625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="3">
-        <v>7850</v>
-      </c>
-      <c r="B159" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C159" s="3">
-        <v>4843.359375</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="3">
-        <v>7900</v>
-      </c>
-      <c r="B160" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C160" s="3">
-        <v>4765.4296875</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="3">
-        <v>7950</v>
-      </c>
-      <c r="B161" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C161" s="3">
-        <v>4765.4296875</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B162" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C162" s="3">
-        <v>4678.125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="3">
-        <v>8050</v>
-      </c>
-      <c r="B163" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C163" s="3">
-        <v>4591.9921875</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="3">
-        <v>8100</v>
-      </c>
-      <c r="B164" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C164" s="3">
-        <v>4504.6875</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="3">
-        <v>8150</v>
-      </c>
-      <c r="B165" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C165" s="3">
-        <v>4532.8125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="3">
-        <v>8200</v>
-      </c>
-      <c r="B166" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C166" s="3">
-        <v>4532.8125</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="3">
-        <v>8250</v>
-      </c>
-      <c r="B167" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C167" s="3">
-        <v>4654.6875</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="3">
-        <v>8300</v>
-      </c>
-      <c r="B168" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C168" s="3">
-        <v>4654.6875</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="3">
-        <v>8350</v>
-      </c>
-      <c r="B169" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C169" s="3">
-        <v>4701.5625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="3">
-        <v>8400</v>
-      </c>
-      <c r="B170" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C170" s="3">
-        <v>4669.3359375</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="3">
-        <v>8450</v>
-      </c>
-      <c r="B171" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C171" s="3">
-        <v>4625.390625</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="3">
-        <v>8500</v>
-      </c>
-      <c r="B172" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C172" s="3">
-        <v>4535.15625</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="3">
-        <v>8550</v>
-      </c>
-      <c r="B173" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C173" s="3">
-        <v>4535.15625</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="3">
-        <v>8600</v>
-      </c>
-      <c r="B174" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C174" s="3">
-        <v>4510.546875</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="3">
-        <v>8650</v>
-      </c>
-      <c r="B175" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C175" s="3">
-        <v>4563.8671875</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="3">
-        <v>8700</v>
-      </c>
-      <c r="B176" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C176" s="3">
-        <v>4627.1484375</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="3">
-        <v>8750</v>
-      </c>
-      <c r="B177" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C177" s="3">
-        <v>4756.640625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="3">
-        <v>8800</v>
-      </c>
-      <c r="B178" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C178" s="3">
-        <v>4756.640625</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="3">
-        <v>8850</v>
-      </c>
-      <c r="B179" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C179" s="3">
-        <v>4818.75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="3">
-        <v>8900</v>
-      </c>
-      <c r="B180" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C180" s="3">
-        <v>4942.96875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="3">
-        <v>8950</v>
-      </c>
-      <c r="B181" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C181" s="3">
-        <v>5008.0078125</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="3">
-        <v>9000</v>
-      </c>
-      <c r="B182" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C182" s="3">
-        <v>5067.1875</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="3">
-        <v>9050</v>
-      </c>
-      <c r="B183" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C183" s="3">
-        <v>5127.5390625</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="3">
-        <v>9100</v>
-      </c>
-      <c r="B184" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C184" s="3">
-        <v>5182.6171875</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="3">
-        <v>9150</v>
-      </c>
-      <c r="B185" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C185" s="3">
-        <v>5244.140625</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="3">
-        <v>9200</v>
-      </c>
-      <c r="B186" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C186" s="3">
-        <v>5298.046875</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="3">
-        <v>9250</v>
-      </c>
-      <c r="B187" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C187" s="3">
-        <v>5340.8203125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="3">
-        <v>9300</v>
-      </c>
-      <c r="B188" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C188" s="3">
-        <v>5340.8203125</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="3">
-        <v>9350</v>
-      </c>
-      <c r="B189" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C189" s="3">
-        <v>5316.2109375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="3">
-        <v>9400</v>
-      </c>
-      <c r="B190" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C190" s="3">
-        <v>5267.578125</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="3">
-        <v>9450</v>
-      </c>
-      <c r="B191" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C191" s="3">
-        <v>5267.578125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="3">
-        <v>9500</v>
-      </c>
-      <c r="B192" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C192" s="3">
-        <v>5167.96875</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="3">
-        <v>9550</v>
-      </c>
-      <c r="B193" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C193" s="3">
-        <v>5168.5546875</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="3">
-        <v>9600</v>
-      </c>
-      <c r="B194" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C194" s="3">
-        <v>5199.609375</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="3">
-        <v>9650</v>
-      </c>
-      <c r="B195" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C195" s="3">
-        <v>5249.4140625</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="3">
-        <v>9700</v>
-      </c>
-      <c r="B196" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C196" s="3">
-        <v>5310.3515625</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="3">
-        <v>9750</v>
-      </c>
-      <c r="B197" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C197" s="3">
-        <v>5344.3359375</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="3">
-        <v>9800</v>
-      </c>
-      <c r="B198" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C198" s="3">
-        <v>5347.8515625</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="3">
-        <v>9850</v>
-      </c>
-      <c r="B199" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C199" s="3">
-        <v>5306.25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="3">
-        <v>9900</v>
-      </c>
-      <c r="B200" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C200" s="3">
-        <v>5251.7578125</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="3">
-        <v>9950</v>
-      </c>
-      <c r="B201" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C201" s="3">
-        <v>5193.1640625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B202" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C202" s="3">
-        <v>5193.1640625</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="3">
-        <v>10050</v>
-      </c>
-      <c r="B203" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C203" s="3">
-        <v>5160.3515625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="3">
-        <v>10100</v>
-      </c>
-      <c r="B204" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C204" s="3">
-        <v>5156.25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="3">
-        <v>10150</v>
-      </c>
-      <c r="B205" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C205" s="3">
-        <v>5196.09375</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="3">
-        <v>10200</v>
-      </c>
-      <c r="B206" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C206" s="3">
-        <v>5250.5859375</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="3">
-        <v>10250</v>
-      </c>
-      <c r="B207" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C207" s="3">
-        <v>5349.0234375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="3">
-        <v>10300</v>
-      </c>
-      <c r="B208" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C208" s="3">
-        <v>5350.78125</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="3">
-        <v>10350</v>
-      </c>
-      <c r="B209" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C209" s="3">
-        <v>5314.453125</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="3">
-        <v>10400</v>
-      </c>
-      <c r="B210" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C210" s="3">
-        <v>5251.7578125</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="3">
-        <v>10450</v>
-      </c>
-      <c r="B211" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C211" s="3">
-        <v>5251.7578125</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="3">
-        <v>10500</v>
-      </c>
-      <c r="B212" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C212" s="3">
-        <v>5183.203125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="3">
-        <v>10550</v>
-      </c>
-      <c r="B213" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C213" s="3">
-        <v>5126.953125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="3">
-        <v>10600</v>
-      </c>
-      <c r="B214" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C214" s="3">
-        <v>5112.3046875</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="3">
-        <v>10650</v>
-      </c>
-      <c r="B215" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C215" s="3">
-        <v>5135.7421875</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="3">
-        <v>10700</v>
-      </c>
-      <c r="B216" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C216" s="3">
-        <v>5244.7265625</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="3">
-        <v>10750</v>
-      </c>
-      <c r="B217" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C217" s="3">
-        <v>5305.6640625</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="3">
-        <v>10800</v>
-      </c>
-      <c r="B218" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C218" s="3">
-        <v>5305.6640625</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="3">
-        <v>10850</v>
-      </c>
-      <c r="B219" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C219" s="3">
-        <v>5350.78125</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="3">
-        <v>10900</v>
-      </c>
-      <c r="B220" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C220" s="3">
-        <v>5350.78125</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="3">
-        <v>10950</v>
-      </c>
-      <c r="B221" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C221" s="3">
-        <v>5317.96875</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="3">
-        <v>11000</v>
-      </c>
-      <c r="B222" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C222" s="3">
-        <v>5274.609375</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="3">
-        <v>11050</v>
-      </c>
-      <c r="B223" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C223" s="3">
-        <v>5176.171875</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="3">
-        <v>11100</v>
-      </c>
-      <c r="B224" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C224" s="3">
-        <v>5176.171875</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="3">
-        <v>11150</v>
-      </c>
-      <c r="B225" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C225" s="3">
-        <v>5165.625</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="3">
-        <v>11200</v>
-      </c>
-      <c r="B226" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C226" s="3">
-        <v>5199.0234375</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="3">
-        <v>11250</v>
-      </c>
-      <c r="B227" s="3">
-        <v>5304.899356691171</v>
-      </c>
-      <c r="C227" s="3">
-        <v>5306.25</v>
+        <v>5066.015625</v>
       </c>
     </row>
   </sheetData>

--- a/OutputGrapher/Test Data Sheet.xlsx
+++ b/OutputGrapher/Test Data Sheet.xlsx
@@ -150,10 +150,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$155</c:f>
+              <c:f>Sheet1!$A$3:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="428"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -612,474 +612,2124 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8950</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9250</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9550</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10150</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10250</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10550</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10950</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>11350</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>11450</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11650</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11850</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11950</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12150</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12350</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12450</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>12850</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13350</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13450</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13650</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13750</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13850</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13950</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14050</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14150</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>14250</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>14450</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>14550</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>14650</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>14750</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>14850</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>14900</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15050</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>15150</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>15250</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>15450</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>15550</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>15650</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>15750</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>15850</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15900</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15950</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16050</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>16150</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16250</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>16300</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>16350</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>16550</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>16650</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>16850</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>16950</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>17050</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>17150</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>17250</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>17350</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>17650</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>17750</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>17850</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>17950</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>18150</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>18250</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18350</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>18550</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>18650</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>18900</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>18950</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>19150</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>19250</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>19350</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>19550</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>19650</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>19700</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>19750</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19850</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>20050</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>20150</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>20250</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>20350</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>20450</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>20550</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>20650</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>20850</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>20950</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>21050</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>21150</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>21250</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>21350</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>21400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$155</c:f>
+              <c:f>Sheet1!$B$3:$B$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="428"/>
                 <c:pt idx="0">
-                  <c:v>5432.917165771459</c:v>
+                  <c:v>5430.436563726758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5431.873150685507</c:v>
+                  <c:v>5430.436563726758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5431.92136497122</c:v>
+                  <c:v>5430.436563726758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5444.743261468142</c:v>
+                  <c:v>5439.827596772042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5437.45277025014</c:v>
+                  <c:v>5419.809974630507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5443.751385183326</c:v>
+                  <c:v>5420.677831773364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5439.985950606345</c:v>
+                  <c:v>5421.288546059078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5443.923659218922</c:v>
+                  <c:v>5421.931403201936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5443.927265925892</c:v>
+                  <c:v>5422.670688916221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5447.021805204383</c:v>
+                  <c:v>5423.377831773364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5439.816142480138</c:v>
+                  <c:v>5424.11711748765</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5446.5020292688</c:v>
+                  <c:v>5425.753579688997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5446.05560211426</c:v>
+                  <c:v>5414.913335125672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5441.953268319342</c:v>
+                  <c:v>5415.55619226853</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5445.914435947875</c:v>
+                  <c:v>5415.877620839959</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5445.645780685688</c:v>
+                  <c:v>5420.840049006469</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5438.585673730138</c:v>
+                  <c:v>5421.161477577897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5442.460259569517</c:v>
+                  <c:v>5428.469914228157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5443.075493944517</c:v>
+                  <c:v>5408.387477856337</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5443.79381081289</c:v>
+                  <c:v>5408.387477856337</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5443.62065575091</c:v>
+                  <c:v>5408.387477856337</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5447.615332757557</c:v>
+                  <c:v>5408.387477856337</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5443.926845110288</c:v>
+                  <c:v>5397.575210002582</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5440.669891019654</c:v>
+                  <c:v>5408.387477856337</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5444.210275046288</c:v>
+                  <c:v>5441.531556288439</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5444.283682778225</c:v>
+                  <c:v>5441.531556288439</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5444.288452253145</c:v>
+                  <c:v>5441.531556288439</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5444.312559396002</c:v>
+                  <c:v>5441.563699145582</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5440.464626846418</c:v>
+                  <c:v>5430.024406260362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5440.310841140852</c:v>
+                  <c:v>5405.987382104905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5443.813512893767</c:v>
+                  <c:v>5405.987382104905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5443.813512893767</c:v>
+                  <c:v>5405.987382104905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5447.676106087732</c:v>
+                  <c:v>5405.987382104905</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5405.987382104905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5444.212583544731</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5444.336666538859</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5444.336666538859</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5419.68806304669</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5394.094922369592</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5447.973124890657</c:v>
+                  <c:v>5393.692795427988</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5409.528411905549</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5397.607352859725</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5436.155245774245</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5408.41962071348</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5418.796999166904</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5418.796999166904</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5418.796999166904</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5418.796999166904</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5436.155245774245</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5441.563699145582</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5453.503142341243</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5453.535285198385</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5453.535285198385</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5453.535285198385</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5431.978737312146</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5389.119514027946</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5383.017209887831</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5383.017209887831</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5383.017209887831</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5383.017209887831</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5382.792209887832</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5378.526627464831</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5370.371604767036</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5362.282837233028</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5375.511532376898</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5375.125818091183</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5375.09367523404</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5374.900818091183</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5374.643675234041</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5374.547246662612</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5374.290103805469</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5373.724493753343</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.290026290064</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.12931200435</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.097169147207</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.065026290064</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5402.607983314816</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5412.836887624935</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5406.575343309567</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5405.765593140882</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5417.475182540064</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5382.054126130159</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5382.054126130159</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5382.054126130159</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5382.054126130159</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5381.84903274637</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5458.041111378696</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5395.856236788297</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5463.067079946114</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5488.886025807729</c:v>
+                  <c:v>5416.558444276317</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5440.334948283709</c:v>
+                  <c:v>5416.470324769481</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5612.678433347603</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5492.504198881542</c:v>
+                  <c:v>5416.559191956981</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5447.952832757556</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.661837831004</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5440.334948283709</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5447.676106087732</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5416.379458680613</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.288180604442</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5416.288180604442</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5440.488733989276</c:v>
+                  <c:v>5416.75989080952</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5447.769126632954</c:v>
+                  <c:v>5416.75989080952</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5416.75989080952</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5416.75989080952</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5416.75989080952</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5417.095385804637</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5417.066973939402</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5417.082110658152</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5417.082110658152</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5417.082110658152</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5417.082110658152</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5416.477099671824</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5416.477099671824</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5416.477099671824</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5416.477099671824</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5416.477099671824</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5416.571582093699</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5416.571582093699</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5416.771914735301</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5416.771914735301</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5416.771914735301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5416.771914735301</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5417.163073792918</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5417.163073792918</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5417.163073792918</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5417.163073792918</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5454.114723921964</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5454.114723921964</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5454.114723921964</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5454.114723921964</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5454.256371260831</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5457.062096358487</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5454.349999190518</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5454.349999190518</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5454.736077071378</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5454.520989180753</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5454.798729659268</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5454.798729659268</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5454.798729659268</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5454.798729659268</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5455.606468917081</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5454.733818770596</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5456.116219283292</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5456.116219283292</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5456.116219283292</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5456.116219283292</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5456.116219283292</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5454.481758834073</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5454.481758834073</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5454.481758834073</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5454.481758834073</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5454.902321578214</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5456.435997725674</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5456.435997725674</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5456.435997725674</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5456.435997725674</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5456.435997725674</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5457.006951094815</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5416.367404237254</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5416.577945008738</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5454.796318770596</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5416.771914735301</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5416.471072450145</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5416.174365296824</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5416.570819154246</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5416.673327699168</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5416.760607972606</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5416.569339051707</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5416.55920721577</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5416.55920721577</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>5416.570086732371</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5416.571582093699</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>5416.884036317332</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>5416.884036317332</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>5416.884036317332</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>5417.088839784129</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5417.053530946238</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5416.673327699168</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>5416.379458680613</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5416.477282777293</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>5456.766243697354</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>5454.139611006924</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>5417.284106507762</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>5416.768389955027</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>5416.778292909129</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5416.782534852488</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>5416.776873841746</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>5416.776873841746</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>5416.776873841746</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>5416.776873841746</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>5416.776873841746</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5416.758502259715</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>5416.559191956981</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>5416.789599671824</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>5455.114815474698</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>5454.22367167587</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>5454.316353560635</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>5416.470889344676</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>5416.263156190379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +2755,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$155</c:f>
+              <c:f>Sheet1!$A$3:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="428"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1567,474 +3217,2124 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8950</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9250</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9550</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10150</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10250</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10550</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10950</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>11350</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>11450</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>11650</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>11850</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11950</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12150</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12350</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>12450</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>12850</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>12900</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>12950</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>13350</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>13450</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13550</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>13650</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>13750</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>13850</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13950</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14050</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>14150</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>14250</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>14450</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>14550</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>14650</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>14750</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>14850</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>14900</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>14950</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15050</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>15150</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>15250</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>15450</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>15550</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>15650</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>15750</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>15850</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15900</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15950</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16050</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>16150</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16250</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>16300</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>16350</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>16550</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>16650</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>16700</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>16850</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>16950</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>17050</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>17150</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>17250</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>17350</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>17650</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>17750</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>17850</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>17950</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>18150</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>18250</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18350</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>18550</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>18650</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>18900</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>18950</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>19150</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>19250</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>19350</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>19550</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>19650</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>19700</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>19750</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>19850</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>20050</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>20150</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>20250</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>20300</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>20350</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>20450</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>20550</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>20650</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>20850</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>20950</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>21050</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>21150</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>21250</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>21300</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>21350</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>21400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$155</c:f>
+              <c:f>Sheet1!$C$3:$C$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="428"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.228515625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.546875</c:v>
+                  <c:v>26.3671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.111328125</c:v>
+                  <c:v>59.765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.966796875</c:v>
+                  <c:v>107.666015625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163.916015625</c:v>
+                  <c:v>170.068359375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257.958984375</c:v>
+                  <c:v>235.986328125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>357.71484375</c:v>
+                  <c:v>309.814453125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>466.69921875</c:v>
+                  <c:v>381.005859375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>566.89453125</c:v>
+                  <c:v>452.197265625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>670.166015625</c:v>
+                  <c:v>522.509765625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>776.953125</c:v>
+                  <c:v>593.701171875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>890.771484375</c:v>
+                  <c:v>664.013671875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1007.666015625</c:v>
+                  <c:v>734.326171875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1141.259765625</c:v>
+                  <c:v>802.880859375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1274.853515625</c:v>
+                  <c:v>874.51171875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1418.5546875</c:v>
+                  <c:v>945.263671875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1566.650390625</c:v>
+                  <c:v>1015.13671875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1711.23046875</c:v>
+                  <c:v>1086.328125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1858.447265625</c:v>
+                  <c:v>1159.716796875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2008.30078125</c:v>
+                  <c:v>1226.953125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2155.95703125</c:v>
+                  <c:v>1297.705078125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.537109375</c:v>
+                  <c:v>1371.09375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2447.314453125</c:v>
+                  <c:v>1442.28515625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2587.939453125</c:v>
+                  <c:v>1515.234375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2725.927734375</c:v>
+                  <c:v>1591.69921875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2860.400390625</c:v>
+                  <c:v>1670.80078125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2994.43359375</c:v>
+                  <c:v>1754.296875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3124.072265625</c:v>
+                  <c:v>1843.06640625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3247.998046875</c:v>
+                  <c:v>1936.669921875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3375</c:v>
+                  <c:v>2032.470703125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3494.53125</c:v>
+                  <c:v>2133.984375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3615.380859375</c:v>
+                  <c:v>2237.255859375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3733.59375</c:v>
+                  <c:v>2343.603515625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3853.564453125</c:v>
+                  <c:v>2450.390625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3968.26171875</c:v>
+                  <c:v>2565.087890625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4084.27734375</c:v>
+                  <c:v>2678.02734375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4194.580078125</c:v>
+                  <c:v>2787.890625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4304.8828125</c:v>
+                  <c:v>2901.26953125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4412.109375</c:v>
+                  <c:v>3012.890625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4516.69921875</c:v>
+                  <c:v>3120.1171875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4619.091796875</c:v>
+                  <c:v>3224.267578125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4718.408203125</c:v>
+                  <c:v>3329.736328125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4814.6484375</c:v>
+                  <c:v>3430.810546875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4909.130859375</c:v>
+                  <c:v>3531.884765625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5001.85546875</c:v>
+                  <c:v>3631.201171875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5089.306640625</c:v>
+                  <c:v>3730.95703125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5178.515625</c:v>
+                  <c:v>3828.076171875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5264.6484375</c:v>
+                  <c:v>3922.998046875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5345.068359375</c:v>
+                  <c:v>4016.162109375</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>4108.447265625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4197.65625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4286.42578125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4371.240234375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4454.736328125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4536.9140625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4617.7734375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4694.23828125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4772.900390625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4847.16796875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4918.359375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4991.30859375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5061.181640625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5126.66015625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5192.578125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5259.375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5317.822265625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5369.677734375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5406.591796875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5432.51953125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5438.671875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5433.837890625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5422.8515625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5407.03125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5392.529296875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5379.345703125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5369.23828125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5361.767578125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5362.20703125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5361.328125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5367.041015625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5372.75390625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5379.345703125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5384.619140625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5393.408203125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5401.7578125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5409.66796875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5417.578125</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5424.169921875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5426.806640625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5424.609375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5421.09375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5417.138671875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5411.865234375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5410.107421875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5403.515625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5401.318359375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5399.560546875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5397.36328125</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5400.439453125</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5399.560546875</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5401.318359375</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5402.197265625</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5405.712890625</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5405.712890625</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5408.7890625</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5412.744140625</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5417.578125</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5419.775390625</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5421.533203125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5425.048828125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5420.654296875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5419.3359375</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5414.0625</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5410.107421875</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5403.076171875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5398.681640625</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5394.287109375</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5389.892578125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5388.57421875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5389.892578125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5393.84765625</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5397.36328125</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5402.63671875</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5407.03125</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5412.3046875</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5418.017578125</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5421.97265625</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5425.048828125</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5414.94140625</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5411.42578125</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5405.2734375</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5402.63671875</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5407.03125</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5427.24609375</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5417.138671875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5414.0625</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5387.6953125</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5263.76953125</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5135.009765625</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5040.966796875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4954.833984375</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4902.5390625</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4953.955078125</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5012.841796875</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5070.41015625</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5127.099609375</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5181.591796875</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5234.765625</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5288.818359375</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5337.59765625</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5387.255859375</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5431.640625</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5447.021484375</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5320.01953125</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5320.01953125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5295.849609375</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5265.966796875</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5258.935546875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5291.015625</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5329.6875</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5383.30078125</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5430.322265625</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5434.716796875</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5406.15234375</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5366.162109375</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5311.23046875</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5263.330078125</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5259.814453125</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5285.302734375</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5323.095703125</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5374.51171875</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5424.609375</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5446.142578125</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5446.142578125</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5410.986328125</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5334.521484375</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5248.828125</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5176.7578125</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5131.0546875</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5118.310546875</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5147.75390625</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5184.66796875</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5235.64453125</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5282.2265625</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5331.4453125</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5378.02734375</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5420.654296875</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5435.15625</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5422.8515625</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5353.41796875</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5185.546875</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5014.16015625</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4870.458984375</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4761.03515625</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4712.255859375</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4764.111328125</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4827.83203125</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4890.234375</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4948.2421875</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5004.931640625</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5062.939453125</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5115.234375</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5170.166015625</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5221.58203125</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5272.55859375</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5321.337890625</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5373.193359375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5420.21484375</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5464.16015625</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5483.49609375</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5477.783203125</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5436.474609375</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5389.892578125</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5331.005859375</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5296.2890625</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5287.939453125</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5314.74609375</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5349.90234375</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5400.87890625</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5450.537109375</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5471.630859375</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5464.599609375</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5424.169921875</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5374.072265625</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5316.064453125</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5288.818359375</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5290.576171875</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5323.53515625</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5367.041015625</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5415.380859375</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5439.111328125</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5441.748046875</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5404.39453125</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5342.431640625</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5272.55859375</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5218.505859375</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5185.986328125</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5193.45703125</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5225.9765625</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5270.361328125</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5318.26171875</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5363.0859375</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5407.91015625</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5436.03515625</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5381.103515625</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5255.859375</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5115.673828125</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5047.119140625</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4864.74609375</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4831.787109375</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4875.29296875</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4936.376953125</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4993.505859375</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5047.998046875</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5103.80859375</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5154.78515625</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5204.8828125</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5256.298828125</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5305.517578125</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5353.857421875</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5429.00390625</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5436.03515625</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5403.076171875</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5356.93359375</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5297.607421875</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5255.859375</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5238.28125</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5259.814453125</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5291.89453125</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5342.431640625</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5391.2109375</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5420.654296875</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5438.232421875</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5414.94140625</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5360.44921875</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5295.41015625</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5240.478515625</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5200.927734375</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5205.76171875</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>5236.5234375</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5278.271484375</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5324.853515625</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5367.919921875</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>5407.91015625</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5430.76171875</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>5429.8828125</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>5383.30078125</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>5329.6875</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>5267.28515625</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5225.9765625</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>5208.3984375</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>5239.599609375</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>5275.634765625</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>5322.65625</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5367.919921875</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5412.3046875</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5431.640625</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5424.609375</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5394.7265625</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5299.365234375</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5153.02734375</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>5028.22265625</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4928.90625</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4852.44140625</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4840.576171875</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4880.56640625</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4922.314453125</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4967.578125</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5011.962890625</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5060.302734375</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5109.08203125</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5154.78515625</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5202.685546875</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5249.70703125</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5295.41015625</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>5339.35546875</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5386.376953125</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5435.595703125</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5410.546875</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5372.314453125</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5318.701171875</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>5270.80078125</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5255.419921875</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5272.998046875</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>5305.078125</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5351.66015625</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>5398.2421875</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5428.125</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5445.703125</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5430.322265625</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5375.390625</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5311.669921875</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>5246.630859375</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5195.21484375</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5177.197265625</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>5199.609375</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5229.4921875</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>5276.07421875</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>5322.216796875</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>5364.404296875</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>5406.15234375</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5430.322265625</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>5431.640625</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>5393.408203125</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5348.583984375</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>5290.576171875</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5252.34375</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5236.962890625</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5258.056640625</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>5288.37890625</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>5331.4453125</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5366.6015625</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>5336.71875</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5273.876953125</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5209.716796875</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5149.951171875</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>5095.01953125</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>5104.6875</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>5149.51171875</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>5197.412109375</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5240.91796875</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>5285.7421875</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5327.490234375</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5370.99609375</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>5410.107421875</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>5445.263671875</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>5468.115234375</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>5481.298828125</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>5484.814453125</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>5477.34375</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>5464.599609375</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>5453.173828125</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>5438.232421875</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>5418.896484375</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>5413.623046875</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>5410.546875</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5412.3046875</c:v>
+                </c:pt>
+                <c:pt idx="388">
                   <c:v>5414.501953125</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>5468.115234375</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5501.513671875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5512.939453125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5506.34765625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5488.76953125</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5465.91796875</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5447.4609375</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5432.080078125</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="389">
+                  <c:v>5418.45703125</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>5422.412109375</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5428.125</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5428.564453125</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>5429.443359375</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>5429.443359375</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5429.8828125</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>5429.00390625</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>5429.00390625</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>5427.24609375</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="406">
                   <c:v>5425.048828125</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>5423.291015625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5428.564453125</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5433.3984375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5440.869140625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5448.33984375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5452.294921875</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5449.658203125</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5450.09765625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5447.021484375</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5443.06640625</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5441.748046875</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5440.869140625</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5439.111328125</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5440.4296875</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5439.55078125</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5441.30859375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5441.748046875</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5443.9453125</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5444.82421875</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5445.263671875</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5444.82421875</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5445.263671875</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5444.384765625</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5445.263671875</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5444.82421875</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5447.021484375</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5445.263671875</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5444.82421875</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5445.263671875</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5447.021484375</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5445.703125</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>5446.58203125</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>5446.142578125</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>5443.9453125</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>5434.716796875</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>5427.24609375</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5412.3046875</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5410.107421875</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>5424.609375</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5456.25</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>5448.779296875</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>5352.5390625</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5223.779296875</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5095.01953125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4972.8515625</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>4903.41796875</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>4929.78515625</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4902.978515625</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>4862.109375</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>4820.80078125</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>4781.25</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>4759.27734375</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4827.83203125</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>4936.376953125</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4826.07421875</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4826.07421875</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4773.779296875</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4773.779296875</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4725.87890625</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4738.18359375</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4825.1953125</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4916.6015625</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>5003.173828125</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5088.427734375</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>5171.044921875</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>5251.46484375</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>5328.369140625</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>5405.2734375</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>5465.478515625</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>5491.40625</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5452.734375</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>5351.220703125</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5208.3984375</c:v>
+                <c:pt idx="407">
+                  <c:v>5426.3671875</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>5425.48828125</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>5426.806640625</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>5426.806640625</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>5425.048828125</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>5425.927734375</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>5425.048828125</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>5424.169921875</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>5428.125</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>5430.76171875</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>5434.27734375</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>5439.990234375</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>5447.900390625</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>5454.4921875</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>5461.962890625</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>5467.67578125</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>5466.357421875</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>5466.357421875</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>5460.64453125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +5740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2472,7 +5772,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>5432.917165771459</v>
+        <v>5430.436563726758</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2483,10 +5783,10 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>5431.873150685507</v>
+        <v>5430.436563726758</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>9.228515625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2494,10 +5794,10 @@
         <v>150</v>
       </c>
       <c r="B5" s="3">
-        <v>5431.92136497122</v>
+        <v>5430.436563726758</v>
       </c>
       <c r="C5" s="3">
-        <v>10.546875</v>
+        <v>26.3671875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2505,10 +5805,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="3">
-        <v>5444.743261468142</v>
+        <v>5439.827596772042</v>
       </c>
       <c r="C6" s="3">
-        <v>39.111328125</v>
+        <v>59.765625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2516,10 +5816,10 @@
         <v>250</v>
       </c>
       <c r="B7" s="3">
-        <v>5437.45277025014</v>
+        <v>5419.809974630507</v>
       </c>
       <c r="C7" s="3">
-        <v>90.966796875</v>
+        <v>107.666015625</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2527,10 +5827,10 @@
         <v>300</v>
       </c>
       <c r="B8" s="3">
-        <v>5443.751385183326</v>
+        <v>5420.677831773364</v>
       </c>
       <c r="C8" s="3">
-        <v>163.916015625</v>
+        <v>170.068359375</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2538,10 +5838,10 @@
         <v>350</v>
       </c>
       <c r="B9" s="3">
-        <v>5439.985950606345</v>
+        <v>5421.288546059078</v>
       </c>
       <c r="C9" s="3">
-        <v>257.958984375</v>
+        <v>235.986328125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2549,10 +5849,10 @@
         <v>400</v>
       </c>
       <c r="B10" s="3">
-        <v>5443.923659218922</v>
+        <v>5421.931403201936</v>
       </c>
       <c r="C10" s="3">
-        <v>357.71484375</v>
+        <v>309.814453125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2560,10 +5860,10 @@
         <v>450</v>
       </c>
       <c r="B11" s="3">
-        <v>5443.927265925892</v>
+        <v>5422.670688916221</v>
       </c>
       <c r="C11" s="3">
-        <v>466.69921875</v>
+        <v>381.005859375</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2571,10 +5871,10 @@
         <v>500</v>
       </c>
       <c r="B12" s="3">
-        <v>5447.021805204383</v>
+        <v>5423.377831773364</v>
       </c>
       <c r="C12" s="3">
-        <v>566.89453125</v>
+        <v>452.197265625</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2582,10 +5882,10 @@
         <v>550</v>
       </c>
       <c r="B13" s="3">
-        <v>5439.816142480138</v>
+        <v>5424.11711748765</v>
       </c>
       <c r="C13" s="3">
-        <v>670.166015625</v>
+        <v>522.509765625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2593,10 +5893,10 @@
         <v>600</v>
       </c>
       <c r="B14" s="3">
-        <v>5446.5020292688</v>
+        <v>5425.753579688997</v>
       </c>
       <c r="C14" s="3">
-        <v>776.953125</v>
+        <v>593.701171875</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2604,10 +5904,10 @@
         <v>650</v>
       </c>
       <c r="B15" s="3">
-        <v>5446.05560211426</v>
+        <v>5414.913335125672</v>
       </c>
       <c r="C15" s="3">
-        <v>890.771484375</v>
+        <v>664.013671875</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2615,10 +5915,10 @@
         <v>700</v>
       </c>
       <c r="B16" s="3">
-        <v>5441.953268319342</v>
+        <v>5415.55619226853</v>
       </c>
       <c r="C16" s="3">
-        <v>1007.666015625</v>
+        <v>734.326171875</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2626,10 +5926,10 @@
         <v>750</v>
       </c>
       <c r="B17" s="3">
-        <v>5445.914435947875</v>
+        <v>5415.877620839959</v>
       </c>
       <c r="C17" s="3">
-        <v>1141.259765625</v>
+        <v>802.880859375</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2637,10 +5937,10 @@
         <v>800</v>
       </c>
       <c r="B18" s="3">
-        <v>5445.645780685688</v>
+        <v>5420.840049006469</v>
       </c>
       <c r="C18" s="3">
-        <v>1274.853515625</v>
+        <v>874.51171875</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2648,10 +5948,10 @@
         <v>850</v>
       </c>
       <c r="B19" s="3">
-        <v>5438.585673730138</v>
+        <v>5421.161477577897</v>
       </c>
       <c r="C19" s="3">
-        <v>1418.5546875</v>
+        <v>945.263671875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2659,10 +5959,10 @@
         <v>900</v>
       </c>
       <c r="B20" s="3">
-        <v>5442.460259569517</v>
+        <v>5428.469914228157</v>
       </c>
       <c r="C20" s="3">
-        <v>1566.650390625</v>
+        <v>1015.13671875</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2670,10 +5970,10 @@
         <v>950</v>
       </c>
       <c r="B21" s="3">
-        <v>5443.075493944517</v>
+        <v>5408.387477856337</v>
       </c>
       <c r="C21" s="3">
-        <v>1711.23046875</v>
+        <v>1086.328125</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2681,10 +5981,10 @@
         <v>1000</v>
       </c>
       <c r="B22" s="3">
-        <v>5443.79381081289</v>
+        <v>5408.387477856337</v>
       </c>
       <c r="C22" s="3">
-        <v>1858.447265625</v>
+        <v>1159.716796875</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2692,10 +5992,10 @@
         <v>1050</v>
       </c>
       <c r="B23" s="3">
-        <v>5443.62065575091</v>
+        <v>5408.387477856337</v>
       </c>
       <c r="C23" s="3">
-        <v>2008.30078125</v>
+        <v>1226.953125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2703,10 +6003,10 @@
         <v>1100</v>
       </c>
       <c r="B24" s="3">
-        <v>5447.615332757557</v>
+        <v>5408.387477856337</v>
       </c>
       <c r="C24" s="3">
-        <v>2155.95703125</v>
+        <v>1297.705078125</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2714,10 +6014,10 @@
         <v>1150</v>
       </c>
       <c r="B25" s="3">
-        <v>5443.926845110288</v>
+        <v>5397.575210002582</v>
       </c>
       <c r="C25" s="3">
-        <v>2300.537109375</v>
+        <v>1371.09375</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2725,10 +6025,10 @@
         <v>1200</v>
       </c>
       <c r="B26" s="3">
-        <v>5440.669891019654</v>
+        <v>5408.387477856337</v>
       </c>
       <c r="C26" s="3">
-        <v>2447.314453125</v>
+        <v>1442.28515625</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2736,10 +6036,10 @@
         <v>1250</v>
       </c>
       <c r="B27" s="3">
-        <v>5444.210275046288</v>
+        <v>5441.531556288439</v>
       </c>
       <c r="C27" s="3">
-        <v>2587.939453125</v>
+        <v>1515.234375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2747,10 +6047,10 @@
         <v>1300</v>
       </c>
       <c r="B28" s="3">
-        <v>5444.283682778225</v>
+        <v>5441.531556288439</v>
       </c>
       <c r="C28" s="3">
-        <v>2725.927734375</v>
+        <v>1591.69921875</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2758,10 +6058,10 @@
         <v>1350</v>
       </c>
       <c r="B29" s="3">
-        <v>5444.288452253145</v>
+        <v>5441.531556288439</v>
       </c>
       <c r="C29" s="3">
-        <v>2860.400390625</v>
+        <v>1670.80078125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2769,10 +6069,10 @@
         <v>1400</v>
       </c>
       <c r="B30" s="3">
-        <v>5444.312559396002</v>
+        <v>5441.563699145582</v>
       </c>
       <c r="C30" s="3">
-        <v>2994.43359375</v>
+        <v>1754.296875</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2780,10 +6080,10 @@
         <v>1450</v>
       </c>
       <c r="B31" s="3">
-        <v>5440.464626846418</v>
+        <v>5430.024406260362</v>
       </c>
       <c r="C31" s="3">
-        <v>3124.072265625</v>
+        <v>1843.06640625</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2791,10 +6091,10 @@
         <v>1500</v>
       </c>
       <c r="B32" s="3">
-        <v>5440.310841140852</v>
+        <v>5405.987382104905</v>
       </c>
       <c r="C32" s="3">
-        <v>3247.998046875</v>
+        <v>1936.669921875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2802,10 +6102,10 @@
         <v>1550</v>
       </c>
       <c r="B33" s="3">
-        <v>5443.813512893767</v>
+        <v>5405.987382104905</v>
       </c>
       <c r="C33" s="3">
-        <v>3375</v>
+        <v>2032.470703125</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2813,10 +6113,10 @@
         <v>1600</v>
       </c>
       <c r="B34" s="3">
-        <v>5443.813512893767</v>
+        <v>5405.987382104905</v>
       </c>
       <c r="C34" s="3">
-        <v>3494.53125</v>
+        <v>2133.984375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2824,10 +6124,10 @@
         <v>1650</v>
       </c>
       <c r="B35" s="3">
-        <v>5447.676106087732</v>
+        <v>5405.987382104905</v>
       </c>
       <c r="C35" s="3">
-        <v>3615.380859375</v>
+        <v>2237.255859375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2835,10 +6135,10 @@
         <v>1700</v>
       </c>
       <c r="B36" s="3">
-        <v>5440.488733989276</v>
+        <v>5405.987382104905</v>
       </c>
       <c r="C36" s="3">
-        <v>3733.59375</v>
+        <v>2343.603515625</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2846,10 +6146,10 @@
         <v>1750</v>
       </c>
       <c r="B37" s="3">
-        <v>5447.952832757556</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C37" s="3">
-        <v>3853.564453125</v>
+        <v>2450.390625</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2857,10 +6157,10 @@
         <v>1800</v>
       </c>
       <c r="B38" s="3">
-        <v>5444.212583544731</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C38" s="3">
-        <v>3968.26171875</v>
+        <v>2565.087890625</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2868,10 +6168,10 @@
         <v>1850</v>
       </c>
       <c r="B39" s="3">
-        <v>5444.336666538859</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C39" s="3">
-        <v>4084.27734375</v>
+        <v>2678.02734375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2879,10 +6179,10 @@
         <v>1900</v>
       </c>
       <c r="B40" s="3">
-        <v>5444.336666538859</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C40" s="3">
-        <v>4194.580078125</v>
+        <v>2787.890625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2890,10 +6190,10 @@
         <v>1950</v>
       </c>
       <c r="B41" s="3">
-        <v>5447.952832757556</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C41" s="3">
-        <v>4304.8828125</v>
+        <v>2901.26953125</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2901,10 +6201,10 @@
         <v>2000</v>
       </c>
       <c r="B42" s="3">
-        <v>5440.488733989276</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C42" s="3">
-        <v>4412.109375</v>
+        <v>3012.890625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2912,10 +6212,10 @@
         <v>2050</v>
       </c>
       <c r="B43" s="3">
-        <v>5447.952832757556</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C43" s="3">
-        <v>4516.69921875</v>
+        <v>3120.1171875</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2923,10 +6223,10 @@
         <v>2100</v>
       </c>
       <c r="B44" s="3">
-        <v>5447.769126632954</v>
+        <v>5419.68806304669</v>
       </c>
       <c r="C44" s="3">
-        <v>4619.091796875</v>
+        <v>3224.267578125</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2934,10 +6234,10 @@
         <v>2150</v>
       </c>
       <c r="B45" s="3">
-        <v>5447.952832757556</v>
+        <v>5394.094922369592</v>
       </c>
       <c r="C45" s="3">
-        <v>4718.408203125</v>
+        <v>3329.736328125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2945,10 +6245,10 @@
         <v>2200</v>
       </c>
       <c r="B46" s="3">
-        <v>5447.973124890657</v>
+        <v>5393.692795427988</v>
       </c>
       <c r="C46" s="3">
-        <v>4814.6484375</v>
+        <v>3430.810546875</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2956,10 +6256,10 @@
         <v>2250</v>
       </c>
       <c r="B47" s="3">
-        <v>5447.952832757556</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C47" s="3">
-        <v>4909.130859375</v>
+        <v>3531.884765625</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2967,10 +6267,10 @@
         <v>2300</v>
       </c>
       <c r="B48" s="3">
-        <v>5447.952832757556</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C48" s="3">
-        <v>5001.85546875</v>
+        <v>3631.201171875</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2978,10 +6278,10 @@
         <v>2350</v>
       </c>
       <c r="B49" s="3">
-        <v>5447.769126632954</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C49" s="3">
-        <v>5089.306640625</v>
+        <v>3730.95703125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2989,10 +6289,10 @@
         <v>2400</v>
       </c>
       <c r="B50" s="3">
-        <v>5447.769126632954</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C50" s="3">
-        <v>5178.515625</v>
+        <v>3828.076171875</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3000,10 +6300,10 @@
         <v>2450</v>
       </c>
       <c r="B51" s="3">
-        <v>5447.952832757556</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C51" s="3">
-        <v>5264.6484375</v>
+        <v>3922.998046875</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3011,10 +6311,10 @@
         <v>2500</v>
       </c>
       <c r="B52" s="3">
-        <v>5447.952832757556</v>
+        <v>5409.528411905549</v>
       </c>
       <c r="C52" s="3">
-        <v>5345.068359375</v>
+        <v>4016.162109375</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3022,10 +6322,10 @@
         <v>2550</v>
       </c>
       <c r="B53" s="3">
-        <v>5447.952832757556</v>
+        <v>5397.607352859725</v>
       </c>
       <c r="C53" s="3">
-        <v>5414.501953125</v>
+        <v>4108.447265625</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3033,10 +6333,10 @@
         <v>2600</v>
       </c>
       <c r="B54" s="3">
-        <v>5447.952832757556</v>
+        <v>5436.155245774245</v>
       </c>
       <c r="C54" s="3">
-        <v>5468.115234375</v>
+        <v>4197.65625</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3044,10 +6344,10 @@
         <v>2650</v>
       </c>
       <c r="B55" s="3">
-        <v>5447.952832757556</v>
+        <v>5408.41962071348</v>
       </c>
       <c r="C55" s="3">
-        <v>5501.513671875</v>
+        <v>4286.42578125</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3055,10 +6355,10 @@
         <v>2700</v>
       </c>
       <c r="B56" s="3">
-        <v>5447.952832757556</v>
+        <v>5418.796999166904</v>
       </c>
       <c r="C56" s="3">
-        <v>5512.939453125</v>
+        <v>4371.240234375</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3066,10 +6366,10 @@
         <v>2750</v>
       </c>
       <c r="B57" s="3">
-        <v>5447.952832757556</v>
+        <v>5418.796999166904</v>
       </c>
       <c r="C57" s="3">
-        <v>5506.34765625</v>
+        <v>4454.736328125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3077,10 +6377,10 @@
         <v>2800</v>
       </c>
       <c r="B58" s="3">
-        <v>5447.952832757556</v>
+        <v>5418.796999166904</v>
       </c>
       <c r="C58" s="3">
-        <v>5488.76953125</v>
+        <v>4536.9140625</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3088,10 +6388,10 @@
         <v>2850</v>
       </c>
       <c r="B59" s="3">
-        <v>5447.952832757556</v>
+        <v>5418.796999166904</v>
       </c>
       <c r="C59" s="3">
-        <v>5465.91796875</v>
+        <v>4617.7734375</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3099,10 +6399,10 @@
         <v>2900</v>
       </c>
       <c r="B60" s="3">
-        <v>5447.952832757556</v>
+        <v>5436.155245774245</v>
       </c>
       <c r="C60" s="3">
-        <v>5447.4609375</v>
+        <v>4694.23828125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3110,10 +6410,10 @@
         <v>2950</v>
       </c>
       <c r="B61" s="3">
-        <v>5447.952832757556</v>
+        <v>5441.563699145582</v>
       </c>
       <c r="C61" s="3">
-        <v>5432.080078125</v>
+        <v>4772.900390625</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3121,10 +6421,10 @@
         <v>3000</v>
       </c>
       <c r="B62" s="3">
-        <v>5447.952832757556</v>
+        <v>5453.503142341243</v>
       </c>
       <c r="C62" s="3">
-        <v>5425.048828125</v>
+        <v>4847.16796875</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3132,10 +6432,10 @@
         <v>3050</v>
       </c>
       <c r="B63" s="3">
-        <v>5447.952832757556</v>
+        <v>5453.535285198385</v>
       </c>
       <c r="C63" s="3">
-        <v>5423.291015625</v>
+        <v>4918.359375</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3143,10 +6443,10 @@
         <v>3100</v>
       </c>
       <c r="B64" s="3">
-        <v>5447.952832757556</v>
+        <v>5453.535285198385</v>
       </c>
       <c r="C64" s="3">
-        <v>5428.564453125</v>
+        <v>4991.30859375</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3154,10 +6454,10 @@
         <v>3150</v>
       </c>
       <c r="B65" s="3">
-        <v>5447.952832757556</v>
+        <v>5453.535285198385</v>
       </c>
       <c r="C65" s="3">
-        <v>5433.3984375</v>
+        <v>5061.181640625</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3165,10 +6465,10 @@
         <v>3200</v>
       </c>
       <c r="B66" s="3">
-        <v>5447.952832757556</v>
+        <v>5431.978737312146</v>
       </c>
       <c r="C66" s="3">
-        <v>5440.869140625</v>
+        <v>5126.66015625</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3176,10 +6476,10 @@
         <v>3250</v>
       </c>
       <c r="B67" s="3">
-        <v>5447.952832757556</v>
+        <v>5389.119514027946</v>
       </c>
       <c r="C67" s="3">
-        <v>5446.142578125</v>
+        <v>5192.578125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3187,10 +6487,10 @@
         <v>3300</v>
       </c>
       <c r="B68" s="3">
-        <v>5447.952832757556</v>
+        <v>5383.017209887831</v>
       </c>
       <c r="C68" s="3">
-        <v>5448.33984375</v>
+        <v>5259.375</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3198,10 +6498,10 @@
         <v>3350</v>
       </c>
       <c r="B69" s="3">
-        <v>5440.488733989276</v>
+        <v>5383.017209887831</v>
       </c>
       <c r="C69" s="3">
-        <v>5452.294921875</v>
+        <v>5317.822265625</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3209,10 +6509,10 @@
         <v>3400</v>
       </c>
       <c r="B70" s="3">
-        <v>5447.769126632954</v>
+        <v>5383.017209887831</v>
       </c>
       <c r="C70" s="3">
-        <v>5449.658203125</v>
+        <v>5369.677734375</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3220,10 +6520,10 @@
         <v>3450</v>
       </c>
       <c r="B71" s="3">
-        <v>5447.769126632954</v>
+        <v>5383.017209887831</v>
       </c>
       <c r="C71" s="3">
-        <v>5450.09765625</v>
+        <v>5406.591796875</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3231,10 +6531,10 @@
         <v>3500</v>
       </c>
       <c r="B72" s="3">
-        <v>5447.952832757556</v>
+        <v>5382.792209887832</v>
       </c>
       <c r="C72" s="3">
-        <v>5447.021484375</v>
+        <v>5432.51953125</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3242,10 +6542,10 @@
         <v>3550</v>
       </c>
       <c r="B73" s="3">
-        <v>5440.488733989276</v>
+        <v>5378.526627464831</v>
       </c>
       <c r="C73" s="3">
-        <v>5445.703125</v>
+        <v>5438.671875</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3253,10 +6553,10 @@
         <v>3600</v>
       </c>
       <c r="B74" s="3">
-        <v>5440.488733989276</v>
+        <v>5370.371604767036</v>
       </c>
       <c r="C74" s="3">
-        <v>5443.06640625</v>
+        <v>5433.837890625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3264,10 +6564,10 @@
         <v>3650</v>
       </c>
       <c r="B75" s="3">
-        <v>5447.952832757556</v>
+        <v>5362.282837233028</v>
       </c>
       <c r="C75" s="3">
-        <v>5441.748046875</v>
+        <v>5422.8515625</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3275,10 +6575,10 @@
         <v>3700</v>
       </c>
       <c r="B76" s="3">
-        <v>5447.952832757556</v>
+        <v>5375.511532376898</v>
       </c>
       <c r="C76" s="3">
-        <v>5440.869140625</v>
+        <v>5407.03125</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3286,10 +6586,10 @@
         <v>3750</v>
       </c>
       <c r="B77" s="3">
-        <v>5447.952832757556</v>
+        <v>5375.125818091183</v>
       </c>
       <c r="C77" s="3">
-        <v>5439.111328125</v>
+        <v>5392.529296875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3297,10 +6597,10 @@
         <v>3800</v>
       </c>
       <c r="B78" s="3">
-        <v>5447.952832757556</v>
+        <v>5375.09367523404</v>
       </c>
       <c r="C78" s="3">
-        <v>5440.4296875</v>
+        <v>5379.345703125</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3308,10 +6608,10 @@
         <v>3850</v>
       </c>
       <c r="B79" s="3">
-        <v>5447.952832757556</v>
+        <v>5374.900818091183</v>
       </c>
       <c r="C79" s="3">
-        <v>5439.55078125</v>
+        <v>5369.23828125</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3319,10 +6619,10 @@
         <v>3900</v>
       </c>
       <c r="B80" s="3">
-        <v>5447.952832757556</v>
+        <v>5374.643675234041</v>
       </c>
       <c r="C80" s="3">
-        <v>5441.30859375</v>
+        <v>5361.767578125</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3330,10 +6630,10 @@
         <v>3950</v>
       </c>
       <c r="B81" s="3">
-        <v>5447.952832757556</v>
+        <v>5374.547246662612</v>
       </c>
       <c r="C81" s="3">
-        <v>5441.748046875</v>
+        <v>5362.20703125</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3341,10 +6641,10 @@
         <v>4000</v>
       </c>
       <c r="B82" s="3">
-        <v>5447.952832757556</v>
+        <v>5374.290103805469</v>
       </c>
       <c r="C82" s="3">
-        <v>5443.9453125</v>
+        <v>5361.328125</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3352,10 +6652,10 @@
         <v>4050</v>
       </c>
       <c r="B83" s="3">
-        <v>5440.488733989276</v>
+        <v>5373.724493753343</v>
       </c>
       <c r="C83" s="3">
-        <v>5444.82421875</v>
+        <v>5367.041015625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3363,10 +6663,10 @@
         <v>4100</v>
       </c>
       <c r="B84" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.290026290064</v>
       </c>
       <c r="C84" s="3">
-        <v>5445.703125</v>
+        <v>5372.75390625</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3374,10 +6674,10 @@
         <v>4150</v>
       </c>
       <c r="B85" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.12931200435</v>
       </c>
       <c r="C85" s="3">
-        <v>5445.263671875</v>
+        <v>5379.345703125</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3385,10 +6685,10 @@
         <v>4200</v>
       </c>
       <c r="B86" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.097169147207</v>
       </c>
       <c r="C86" s="3">
-        <v>5445.703125</v>
+        <v>5384.619140625</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3396,10 +6696,10 @@
         <v>4250</v>
       </c>
       <c r="B87" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.065026290064</v>
       </c>
       <c r="C87" s="3">
-        <v>5445.703125</v>
+        <v>5393.408203125</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3407,10 +6707,10 @@
         <v>4300</v>
       </c>
       <c r="B88" s="3">
-        <v>5447.769126632954</v>
+        <v>5402.607983314816</v>
       </c>
       <c r="C88" s="3">
-        <v>5444.82421875</v>
+        <v>5401.7578125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3418,10 +6718,10 @@
         <v>4350</v>
       </c>
       <c r="B89" s="3">
-        <v>5447.769126632954</v>
+        <v>5412.836887624935</v>
       </c>
       <c r="C89" s="3">
-        <v>5445.263671875</v>
+        <v>5409.66796875</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3429,10 +6729,10 @@
         <v>4400</v>
       </c>
       <c r="B90" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C90" s="3">
-        <v>5444.384765625</v>
+        <v>5417.578125</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3440,10 +6740,10 @@
         <v>4450</v>
       </c>
       <c r="B91" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C91" s="3">
-        <v>5445.263671875</v>
+        <v>5424.169921875</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3451,10 +6751,10 @@
         <v>4500</v>
       </c>
       <c r="B92" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C92" s="3">
-        <v>5444.82421875</v>
+        <v>5425.48828125</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3462,10 +6762,10 @@
         <v>4550</v>
       </c>
       <c r="B93" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C93" s="3">
-        <v>5446.58203125</v>
+        <v>5426.806640625</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3473,10 +6773,10 @@
         <v>4600</v>
       </c>
       <c r="B94" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C94" s="3">
-        <v>5445.703125</v>
+        <v>5425.927734375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3484,10 +6784,10 @@
         <v>4650</v>
       </c>
       <c r="B95" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C95" s="3">
-        <v>5447.021484375</v>
+        <v>5424.609375</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3495,10 +6795,10 @@
         <v>4700</v>
       </c>
       <c r="B96" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C96" s="3">
-        <v>5445.263671875</v>
+        <v>5421.09375</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3506,10 +6806,10 @@
         <v>4750</v>
       </c>
       <c r="B97" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C97" s="3">
-        <v>5445.703125</v>
+        <v>5417.138671875</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3517,10 +6817,10 @@
         <v>4800</v>
       </c>
       <c r="B98" s="3">
-        <v>5447.769126632954</v>
+        <v>5406.575343309567</v>
       </c>
       <c r="C98" s="3">
-        <v>5446.58203125</v>
+        <v>5411.865234375</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3528,10 +6828,10 @@
         <v>4850</v>
       </c>
       <c r="B99" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C99" s="3">
-        <v>5446.142578125</v>
+        <v>5410.107421875</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3539,10 +6839,10 @@
         <v>4900</v>
       </c>
       <c r="B100" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C100" s="3">
-        <v>5446.58203125</v>
+        <v>5403.515625</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3550,10 +6850,10 @@
         <v>4950</v>
       </c>
       <c r="B101" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C101" s="3">
-        <v>5445.703125</v>
+        <v>5401.318359375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3561,10 +6861,10 @@
         <v>5000</v>
       </c>
       <c r="B102" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C102" s="3">
-        <v>5446.58203125</v>
+        <v>5399.560546875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3572,10 +6872,10 @@
         <v>5050</v>
       </c>
       <c r="B103" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C103" s="3">
-        <v>5444.82421875</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3583,10 +6883,10 @@
         <v>5100</v>
       </c>
       <c r="B104" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C104" s="3">
-        <v>5445.703125</v>
+        <v>5397.36328125</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3594,10 +6894,10 @@
         <v>5150</v>
       </c>
       <c r="B105" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C105" s="3">
-        <v>5445.263671875</v>
+        <v>5400.439453125</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3605,10 +6905,10 @@
         <v>5200</v>
       </c>
       <c r="B106" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C106" s="3">
-        <v>5447.021484375</v>
+        <v>5399.560546875</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3616,10 +6916,10 @@
         <v>5250</v>
       </c>
       <c r="B107" s="3">
-        <v>5447.769126632954</v>
+        <v>5405.765593140882</v>
       </c>
       <c r="C107" s="3">
-        <v>5446.58203125</v>
+        <v>5401.318359375</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3627,10 +6927,10 @@
         <v>5300</v>
       </c>
       <c r="B108" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C108" s="3">
-        <v>5446.142578125</v>
+        <v>5402.197265625</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3638,10 +6938,10 @@
         <v>5350</v>
       </c>
       <c r="B109" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C109" s="3">
-        <v>5446.142578125</v>
+        <v>5405.712890625</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3649,10 +6949,10 @@
         <v>5400</v>
       </c>
       <c r="B110" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C110" s="3">
-        <v>5445.703125</v>
+        <v>5405.712890625</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3660,10 +6960,10 @@
         <v>5450</v>
       </c>
       <c r="B111" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C111" s="3">
-        <v>5445.703125</v>
+        <v>5408.7890625</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3671,10 +6971,10 @@
         <v>5500</v>
       </c>
       <c r="B112" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C112" s="3">
-        <v>5446.142578125</v>
+        <v>5412.744140625</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3682,10 +6982,10 @@
         <v>5550</v>
       </c>
       <c r="B113" s="3">
-        <v>5447.952832757556</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C113" s="3">
-        <v>5446.58203125</v>
+        <v>5417.578125</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3693,10 +6993,10 @@
         <v>5600</v>
       </c>
       <c r="B114" s="3">
-        <v>5447.952832757556</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C114" s="3">
-        <v>5446.142578125</v>
+        <v>5419.775390625</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3704,10 +7004,10 @@
         <v>5650</v>
       </c>
       <c r="B115" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C115" s="3">
-        <v>5446.142578125</v>
+        <v>5421.533203125</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3715,10 +7015,10 @@
         <v>5700</v>
       </c>
       <c r="B116" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C116" s="3">
-        <v>5443.9453125</v>
+        <v>5426.3671875</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3726,10 +7026,10 @@
         <v>5750</v>
       </c>
       <c r="B117" s="3">
-        <v>5447.769126632954</v>
+        <v>5417.475182540064</v>
       </c>
       <c r="C117" s="3">
-        <v>5434.716796875</v>
+        <v>5425.927734375</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3737,10 +7037,10 @@
         <v>5800</v>
       </c>
       <c r="B118" s="3">
-        <v>5447.769126632954</v>
+        <v>5382.054126130159</v>
       </c>
       <c r="C118" s="3">
-        <v>5427.24609375</v>
+        <v>5425.048828125</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3748,10 +7048,10 @@
         <v>5850</v>
       </c>
       <c r="B119" s="3">
-        <v>5447.952832757556</v>
+        <v>5382.054126130159</v>
       </c>
       <c r="C119" s="3">
-        <v>5412.3046875</v>
+        <v>5420.654296875</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3759,10 +7059,10 @@
         <v>5900</v>
       </c>
       <c r="B120" s="3">
-        <v>5447.769126632954</v>
+        <v>5382.054126130159</v>
       </c>
       <c r="C120" s="3">
-        <v>5410.107421875</v>
+        <v>5419.3359375</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3770,10 +7070,10 @@
         <v>5950</v>
       </c>
       <c r="B121" s="3">
-        <v>5447.769126632954</v>
+        <v>5382.054126130159</v>
       </c>
       <c r="C121" s="3">
-        <v>5424.609375</v>
+        <v>5414.0625</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3781,10 +7081,10 @@
         <v>6000</v>
       </c>
       <c r="B122" s="3">
-        <v>5447.769126632954</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C122" s="3">
-        <v>5456.25</v>
+        <v>5410.107421875</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3792,10 +7092,10 @@
         <v>6050</v>
       </c>
       <c r="B123" s="3">
-        <v>5447.769126632954</v>
+        <v>5381.84903274637</v>
       </c>
       <c r="C123" s="3">
-        <v>5448.779296875</v>
+        <v>5403.076171875</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3803,10 +7103,10 @@
         <v>6100</v>
       </c>
       <c r="B124" s="3">
-        <v>5458.041111378696</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C124" s="3">
-        <v>5352.5390625</v>
+        <v>5398.681640625</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3814,10 +7114,10 @@
         <v>6150</v>
       </c>
       <c r="B125" s="3">
-        <v>5612.678433347603</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C125" s="3">
-        <v>5223.779296875</v>
+        <v>5394.287109375</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3825,10 +7125,10 @@
         <v>6200</v>
       </c>
       <c r="B126" s="3">
-        <v>5612.678433347603</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C126" s="3">
-        <v>5095.01953125</v>
+        <v>5389.892578125</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3836,10 +7136,10 @@
         <v>6250</v>
       </c>
       <c r="B127" s="3">
-        <v>5612.678433347603</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C127" s="3">
-        <v>4972.8515625</v>
+        <v>5388.57421875</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3847,10 +7147,10 @@
         <v>6300</v>
       </c>
       <c r="B128" s="3">
-        <v>5612.678433347603</v>
+        <v>5395.856236788297</v>
       </c>
       <c r="C128" s="3">
-        <v>4903.41796875</v>
+        <v>5389.892578125</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3858,10 +7158,10 @@
         <v>6350</v>
       </c>
       <c r="B129" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C129" s="3">
-        <v>4929.78515625</v>
+        <v>5393.84765625</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3869,10 +7169,10 @@
         <v>6400</v>
       </c>
       <c r="B130" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C130" s="3">
-        <v>4902.978515625</v>
+        <v>5397.36328125</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3880,10 +7180,10 @@
         <v>6450</v>
       </c>
       <c r="B131" s="3">
-        <v>5463.067079946114</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C131" s="3">
-        <v>4862.109375</v>
+        <v>5402.63671875</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3891,10 +7191,10 @@
         <v>6500</v>
       </c>
       <c r="B132" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C132" s="3">
-        <v>4820.80078125</v>
+        <v>5407.03125</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3902,10 +7202,10 @@
         <v>6550</v>
       </c>
       <c r="B133" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C133" s="3">
-        <v>4781.25</v>
+        <v>5412.3046875</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3913,10 +7213,10 @@
         <v>6600</v>
       </c>
       <c r="B134" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C134" s="3">
-        <v>4759.27734375</v>
+        <v>5418.017578125</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3924,10 +7224,10 @@
         <v>6650</v>
       </c>
       <c r="B135" s="3">
-        <v>5488.886025807729</v>
+        <v>5416.558444276317</v>
       </c>
       <c r="C135" s="3">
-        <v>4827.83203125</v>
+        <v>5421.97265625</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3935,10 +7235,10 @@
         <v>6700</v>
       </c>
       <c r="B136" s="3">
-        <v>5440.334948283709</v>
+        <v>5416.470324769481</v>
       </c>
       <c r="C136" s="3">
-        <v>4936.376953125</v>
+        <v>5425.048828125</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3946,10 +7246,10 @@
         <v>6750</v>
       </c>
       <c r="B137" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C137" s="3">
-        <v>4826.07421875</v>
+        <v>5426.3671875</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3957,10 +7257,10 @@
         <v>6800</v>
       </c>
       <c r="B138" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C138" s="3">
-        <v>4826.07421875</v>
+        <v>5414.94140625</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3968,10 +7268,10 @@
         <v>6850</v>
       </c>
       <c r="B139" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C139" s="3">
-        <v>4773.779296875</v>
+        <v>5411.42578125</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3979,10 +7279,10 @@
         <v>6900</v>
       </c>
       <c r="B140" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C140" s="3">
-        <v>4773.779296875</v>
+        <v>5405.2734375</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3990,10 +7290,10 @@
         <v>6950</v>
       </c>
       <c r="B141" s="3">
-        <v>5612.678433347603</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C141" s="3">
-        <v>4725.87890625</v>
+        <v>5402.63671875</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4001,10 +7301,10 @@
         <v>7000</v>
       </c>
       <c r="B142" s="3">
-        <v>5492.504198881542</v>
+        <v>5416.559191956981</v>
       </c>
       <c r="C142" s="3">
-        <v>4738.18359375</v>
+        <v>5407.03125</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4012,10 +7312,10 @@
         <v>7050</v>
       </c>
       <c r="B143" s="3">
-        <v>5447.952832757556</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C143" s="3">
-        <v>4825.1953125</v>
+        <v>5427.24609375</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4023,10 +7323,10 @@
         <v>7100</v>
       </c>
       <c r="B144" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.661837831004</v>
       </c>
       <c r="C144" s="3">
-        <v>4916.6015625</v>
+        <v>5417.138671875</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4034,10 +7334,10 @@
         <v>7150</v>
       </c>
       <c r="B145" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C145" s="3">
-        <v>5003.173828125</v>
+        <v>5414.0625</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4045,10 +7345,10 @@
         <v>7200</v>
       </c>
       <c r="B146" s="3">
-        <v>5440.334948283709</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C146" s="3">
-        <v>5088.427734375</v>
+        <v>5387.6953125</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4056,10 +7356,10 @@
         <v>7250</v>
       </c>
       <c r="B147" s="3">
-        <v>5447.676106087732</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C147" s="3">
-        <v>5171.044921875</v>
+        <v>5263.76953125</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4067,10 +7367,10 @@
         <v>7300</v>
       </c>
       <c r="B148" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C148" s="3">
-        <v>5251.46484375</v>
+        <v>5135.009765625</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4078,10 +7378,10 @@
         <v>7350</v>
       </c>
       <c r="B149" s="3">
-        <v>5447.769126632954</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C149" s="3">
-        <v>5328.369140625</v>
+        <v>5040.966796875</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4089,10 +7389,10 @@
         <v>7400</v>
       </c>
       <c r="B150" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C150" s="3">
-        <v>5405.2734375</v>
+        <v>4954.833984375</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4100,10 +7400,10 @@
         <v>7450</v>
       </c>
       <c r="B151" s="3">
-        <v>5447.769126632954</v>
+        <v>5416.379458680613</v>
       </c>
       <c r="C151" s="3">
-        <v>5465.478515625</v>
+        <v>4902.5390625</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4111,10 +7411,10 @@
         <v>7500</v>
       </c>
       <c r="B152" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.288180604442</v>
       </c>
       <c r="C152" s="3">
-        <v>5491.40625</v>
+        <v>4953.955078125</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4122,10 +7422,10 @@
         <v>7550</v>
       </c>
       <c r="B153" s="3">
-        <v>5447.769126632954</v>
+        <v>5416.288180604442</v>
       </c>
       <c r="C153" s="3">
-        <v>5452.734375</v>
+        <v>5012.841796875</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4133,10 +7433,10 @@
         <v>7600</v>
       </c>
       <c r="B154" s="3">
-        <v>5440.488733989276</v>
+        <v>5416.75989080952</v>
       </c>
       <c r="C154" s="3">
-        <v>5351.220703125</v>
+        <v>5070.41015625</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4144,10 +7444,10 @@
         <v>7650</v>
       </c>
       <c r="B155" s="3">
-        <v>5447.769126632954</v>
+        <v>5416.75989080952</v>
       </c>
       <c r="C155" s="3">
-        <v>5208.3984375</v>
+        <v>5127.099609375</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4155,10 +7455,3035 @@
         <v>7700</v>
       </c>
       <c r="B156" s="3">
-        <v>5447.769126632954</v>
+        <v>5416.75989080952</v>
       </c>
       <c r="C156" s="3">
-        <v>5066.015625</v>
+        <v>5181.591796875</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="3">
+        <v>7750</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5416.75989080952</v>
+      </c>
+      <c r="C157" s="3">
+        <v>5234.765625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3">
+        <v>7800</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5416.75989080952</v>
+      </c>
+      <c r="C158" s="3">
+        <v>5288.818359375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3">
+        <v>7850</v>
+      </c>
+      <c r="B159" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C159" s="3">
+        <v>5337.59765625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3">
+        <v>7900</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5417.095385804637</v>
+      </c>
+      <c r="C160" s="3">
+        <v>5387.255859375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3">
+        <v>7950</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C161" s="3">
+        <v>5431.640625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C162" s="3">
+        <v>5447.021484375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3">
+        <v>8050</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C163" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3">
+        <v>8100</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C164" s="3">
+        <v>5320.01953125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3">
+        <v>8150</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C165" s="3">
+        <v>5320.01953125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3">
+        <v>8200</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5417.066973939402</v>
+      </c>
+      <c r="C166" s="3">
+        <v>5295.849609375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="3">
+        <v>8250</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5417.082110658152</v>
+      </c>
+      <c r="C167" s="3">
+        <v>5265.966796875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="3">
+        <v>8300</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5417.082110658152</v>
+      </c>
+      <c r="C168" s="3">
+        <v>5258.935546875</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="3">
+        <v>8350</v>
+      </c>
+      <c r="B169" s="3">
+        <v>5417.082110658152</v>
+      </c>
+      <c r="C169" s="3">
+        <v>5291.015625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="3">
+        <v>8400</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5417.082110658152</v>
+      </c>
+      <c r="C170" s="3">
+        <v>5329.6875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3">
+        <v>8450</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C171" s="3">
+        <v>5383.30078125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="3">
+        <v>8500</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C172" s="3">
+        <v>5430.322265625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="3">
+        <v>8550</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C173" s="3">
+        <v>5434.716796875</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="3">
+        <v>8600</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C174" s="3">
+        <v>5406.15234375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="3">
+        <v>8650</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C175" s="3">
+        <v>5366.162109375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="3">
+        <v>8700</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C176" s="3">
+        <v>5311.23046875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="3">
+        <v>8750</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5416.477099671824</v>
+      </c>
+      <c r="C177" s="3">
+        <v>5263.330078125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="3">
+        <v>8800</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5416.477099671824</v>
+      </c>
+      <c r="C178" s="3">
+        <v>5259.814453125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="3">
+        <v>8850</v>
+      </c>
+      <c r="B179" s="3">
+        <v>5416.477099671824</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5285.302734375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="3">
+        <v>8900</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5416.477099671824</v>
+      </c>
+      <c r="C180" s="3">
+        <v>5323.095703125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="3">
+        <v>8950</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5416.477099671824</v>
+      </c>
+      <c r="C181" s="3">
+        <v>5374.51171875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="3">
+        <v>9000</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C182" s="3">
+        <v>5424.609375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="3">
+        <v>9050</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5416.571582093699</v>
+      </c>
+      <c r="C183" s="3">
+        <v>5446.142578125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3">
+        <v>9100</v>
+      </c>
+      <c r="B184" s="3">
+        <v>5416.571582093699</v>
+      </c>
+      <c r="C184" s="3">
+        <v>5446.142578125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3">
+        <v>9150</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C185" s="3">
+        <v>5410.986328125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="3">
+        <v>9200</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C186" s="3">
+        <v>5334.521484375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="3">
+        <v>9250</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C187" s="3">
+        <v>5248.828125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="3">
+        <v>9300</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C188" s="3">
+        <v>5176.7578125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="3">
+        <v>9350</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C189" s="3">
+        <v>5131.0546875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="3">
+        <v>9400</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C190" s="3">
+        <v>5118.310546875</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3">
+        <v>9450</v>
+      </c>
+      <c r="B191" s="3">
+        <v>5416.771914735301</v>
+      </c>
+      <c r="C191" s="3">
+        <v>5147.75390625</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="3">
+        <v>9500</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5416.771914735301</v>
+      </c>
+      <c r="C192" s="3">
+        <v>5184.66796875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="3">
+        <v>9550</v>
+      </c>
+      <c r="B193" s="3">
+        <v>5416.771914735301</v>
+      </c>
+      <c r="C193" s="3">
+        <v>5235.64453125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="3">
+        <v>9600</v>
+      </c>
+      <c r="B194" s="3">
+        <v>5416.771914735301</v>
+      </c>
+      <c r="C194" s="3">
+        <v>5282.2265625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="3">
+        <v>9650</v>
+      </c>
+      <c r="B195" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C195" s="3">
+        <v>5331.4453125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="3">
+        <v>9700</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C196" s="3">
+        <v>5378.02734375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="3">
+        <v>9750</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C197" s="3">
+        <v>5420.654296875</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="3">
+        <v>9800</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C198" s="3">
+        <v>5435.15625</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="3">
+        <v>9850</v>
+      </c>
+      <c r="B199" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C199" s="3">
+        <v>5422.8515625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="3">
+        <v>9900</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C200" s="3">
+        <v>5353.41796875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="3">
+        <v>9950</v>
+      </c>
+      <c r="B201" s="3">
+        <v>5417.163073792918</v>
+      </c>
+      <c r="C201" s="3">
+        <v>5185.546875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5417.163073792918</v>
+      </c>
+      <c r="C202" s="3">
+        <v>5014.16015625</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="3">
+        <v>10050</v>
+      </c>
+      <c r="B203" s="3">
+        <v>5417.163073792918</v>
+      </c>
+      <c r="C203" s="3">
+        <v>4870.458984375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="3">
+        <v>10100</v>
+      </c>
+      <c r="B204" s="3">
+        <v>5417.163073792918</v>
+      </c>
+      <c r="C204" s="3">
+        <v>4761.03515625</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="3">
+        <v>10150</v>
+      </c>
+      <c r="B205" s="3">
+        <v>5454.114723921964</v>
+      </c>
+      <c r="C205" s="3">
+        <v>4712.255859375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="3">
+        <v>10200</v>
+      </c>
+      <c r="B206" s="3">
+        <v>5454.114723921964</v>
+      </c>
+      <c r="C206" s="3">
+        <v>4764.111328125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="3">
+        <v>10250</v>
+      </c>
+      <c r="B207" s="3">
+        <v>5454.114723921964</v>
+      </c>
+      <c r="C207" s="3">
+        <v>4827.83203125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="3">
+        <v>10300</v>
+      </c>
+      <c r="B208" s="3">
+        <v>5454.114723921964</v>
+      </c>
+      <c r="C208" s="3">
+        <v>4890.234375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="3">
+        <v>10350</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5454.256371260831</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4948.2421875</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="3">
+        <v>10400</v>
+      </c>
+      <c r="B210" s="3">
+        <v>5457.062096358487</v>
+      </c>
+      <c r="C210" s="3">
+        <v>5004.931640625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="3">
+        <v>10450</v>
+      </c>
+      <c r="B211" s="3">
+        <v>5454.349999190518</v>
+      </c>
+      <c r="C211" s="3">
+        <v>5062.939453125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="3">
+        <v>10500</v>
+      </c>
+      <c r="B212" s="3">
+        <v>5454.349999190518</v>
+      </c>
+      <c r="C212" s="3">
+        <v>5115.234375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="3">
+        <v>10550</v>
+      </c>
+      <c r="B213" s="3">
+        <v>5454.736077071378</v>
+      </c>
+      <c r="C213" s="3">
+        <v>5170.166015625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="3">
+        <v>10600</v>
+      </c>
+      <c r="B214" s="3">
+        <v>5454.520989180753</v>
+      </c>
+      <c r="C214" s="3">
+        <v>5221.58203125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="3">
+        <v>10650</v>
+      </c>
+      <c r="B215" s="3">
+        <v>5454.798729659268</v>
+      </c>
+      <c r="C215" s="3">
+        <v>5272.55859375</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="3">
+        <v>10700</v>
+      </c>
+      <c r="B216" s="3">
+        <v>5454.798729659268</v>
+      </c>
+      <c r="C216" s="3">
+        <v>5321.337890625</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="3">
+        <v>10750</v>
+      </c>
+      <c r="B217" s="3">
+        <v>5454.798729659268</v>
+      </c>
+      <c r="C217" s="3">
+        <v>5373.193359375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="3">
+        <v>10800</v>
+      </c>
+      <c r="B218" s="3">
+        <v>5454.798729659268</v>
+      </c>
+      <c r="C218" s="3">
+        <v>5420.21484375</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="3">
+        <v>10850</v>
+      </c>
+      <c r="B219" s="3">
+        <v>5455.606468917081</v>
+      </c>
+      <c r="C219" s="3">
+        <v>5464.16015625</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="3">
+        <v>10900</v>
+      </c>
+      <c r="B220" s="3">
+        <v>5454.733818770596</v>
+      </c>
+      <c r="C220" s="3">
+        <v>5483.49609375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="3">
+        <v>10950</v>
+      </c>
+      <c r="B221" s="3">
+        <v>5456.116219283292</v>
+      </c>
+      <c r="C221" s="3">
+        <v>5477.783203125</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="3">
+        <v>11000</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5456.116219283292</v>
+      </c>
+      <c r="C222" s="3">
+        <v>5436.474609375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="3">
+        <v>11050</v>
+      </c>
+      <c r="B223" s="3">
+        <v>5456.116219283292</v>
+      </c>
+      <c r="C223" s="3">
+        <v>5389.892578125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="3">
+        <v>11100</v>
+      </c>
+      <c r="B224" s="3">
+        <v>5456.116219283292</v>
+      </c>
+      <c r="C224" s="3">
+        <v>5331.005859375</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="3">
+        <v>11150</v>
+      </c>
+      <c r="B225" s="3">
+        <v>5456.116219283292</v>
+      </c>
+      <c r="C225" s="3">
+        <v>5296.2890625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="3">
+        <v>11200</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5454.481758834073</v>
+      </c>
+      <c r="C226" s="3">
+        <v>5287.939453125</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="3">
+        <v>11250</v>
+      </c>
+      <c r="B227" s="3">
+        <v>5454.481758834073</v>
+      </c>
+      <c r="C227" s="3">
+        <v>5314.74609375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="3">
+        <v>11300</v>
+      </c>
+      <c r="B228" s="3">
+        <v>5454.481758834073</v>
+      </c>
+      <c r="C228" s="3">
+        <v>5349.90234375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="3">
+        <v>11350</v>
+      </c>
+      <c r="B229" s="3">
+        <v>5454.481758834073</v>
+      </c>
+      <c r="C229" s="3">
+        <v>5400.87890625</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="3">
+        <v>11400</v>
+      </c>
+      <c r="B230" s="3">
+        <v>5454.902321578214</v>
+      </c>
+      <c r="C230" s="3">
+        <v>5450.537109375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="3">
+        <v>11450</v>
+      </c>
+      <c r="B231" s="3">
+        <v>5456.435997725674</v>
+      </c>
+      <c r="C231" s="3">
+        <v>5471.630859375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="3">
+        <v>11500</v>
+      </c>
+      <c r="B232" s="3">
+        <v>5456.435997725674</v>
+      </c>
+      <c r="C232" s="3">
+        <v>5464.599609375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="3">
+        <v>11550</v>
+      </c>
+      <c r="B233" s="3">
+        <v>5456.435997725674</v>
+      </c>
+      <c r="C233" s="3">
+        <v>5424.169921875</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="3">
+        <v>11600</v>
+      </c>
+      <c r="B234" s="3">
+        <v>5456.435997725674</v>
+      </c>
+      <c r="C234" s="3">
+        <v>5374.072265625</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="3">
+        <v>11650</v>
+      </c>
+      <c r="B235" s="3">
+        <v>5456.435997725674</v>
+      </c>
+      <c r="C235" s="3">
+        <v>5316.064453125</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="3">
+        <v>11700</v>
+      </c>
+      <c r="B236" s="3">
+        <v>5457.006951094815</v>
+      </c>
+      <c r="C236" s="3">
+        <v>5288.818359375</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="3">
+        <v>11750</v>
+      </c>
+      <c r="B237" s="3">
+        <v>5416.367404237254</v>
+      </c>
+      <c r="C237" s="3">
+        <v>5290.576171875</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="3">
+        <v>11800</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C238" s="3">
+        <v>5323.53515625</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="3">
+        <v>11850</v>
+      </c>
+      <c r="B239" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C239" s="3">
+        <v>5367.041015625</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="3">
+        <v>11900</v>
+      </c>
+      <c r="B240" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C240" s="3">
+        <v>5415.380859375</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="3">
+        <v>11950</v>
+      </c>
+      <c r="B241" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C241" s="3">
+        <v>5439.111328125</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B242" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C242" s="3">
+        <v>5441.748046875</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="3">
+        <v>12050</v>
+      </c>
+      <c r="B243" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C243" s="3">
+        <v>5404.39453125</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="3">
+        <v>12100</v>
+      </c>
+      <c r="B244" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C244" s="3">
+        <v>5342.431640625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="3">
+        <v>12150</v>
+      </c>
+      <c r="B245" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C245" s="3">
+        <v>5272.55859375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="3">
+        <v>12200</v>
+      </c>
+      <c r="B246" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C246" s="3">
+        <v>5218.505859375</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="3">
+        <v>12250</v>
+      </c>
+      <c r="B247" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C247" s="3">
+        <v>5185.986328125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="3">
+        <v>12300</v>
+      </c>
+      <c r="B248" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C248" s="3">
+        <v>5193.45703125</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3">
+        <v>12350</v>
+      </c>
+      <c r="B249" s="3">
+        <v>5416.577945008738</v>
+      </c>
+      <c r="C249" s="3">
+        <v>5225.9765625</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="3">
+        <v>12400</v>
+      </c>
+      <c r="B250" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C250" s="3">
+        <v>5270.361328125</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="3">
+        <v>12450</v>
+      </c>
+      <c r="B251" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C251" s="3">
+        <v>5318.26171875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="3">
+        <v>12500</v>
+      </c>
+      <c r="B252" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C252" s="3">
+        <v>5363.0859375</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="3">
+        <v>12550</v>
+      </c>
+      <c r="B253" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C253" s="3">
+        <v>5407.91015625</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="3">
+        <v>12600</v>
+      </c>
+      <c r="B254" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C254" s="3">
+        <v>5436.03515625</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="3">
+        <v>12650</v>
+      </c>
+      <c r="B255" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C255" s="3">
+        <v>5381.103515625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="3">
+        <v>12700</v>
+      </c>
+      <c r="B256" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C256" s="3">
+        <v>5255.859375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="3">
+        <v>12750</v>
+      </c>
+      <c r="B257" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C257" s="3">
+        <v>5115.673828125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="3">
+        <v>12800</v>
+      </c>
+      <c r="B258" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C258" s="3">
+        <v>5047.119140625</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="3">
+        <v>12850</v>
+      </c>
+      <c r="B259" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C259" s="3">
+        <v>4864.74609375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="3">
+        <v>12900</v>
+      </c>
+      <c r="B260" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C260" s="3">
+        <v>4831.787109375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="3">
+        <v>12950</v>
+      </c>
+      <c r="B261" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C261" s="3">
+        <v>4875.29296875</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="3">
+        <v>13000</v>
+      </c>
+      <c r="B262" s="3">
+        <v>5454.796318770596</v>
+      </c>
+      <c r="C262" s="3">
+        <v>4936.376953125</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="3">
+        <v>13050</v>
+      </c>
+      <c r="B263" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C263" s="3">
+        <v>4993.505859375</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="3">
+        <v>13100</v>
+      </c>
+      <c r="B264" s="3">
+        <v>5416.771914735301</v>
+      </c>
+      <c r="C264" s="3">
+        <v>5047.998046875</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="3">
+        <v>13150</v>
+      </c>
+      <c r="B265" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C265" s="3">
+        <v>5103.80859375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="3">
+        <v>13200</v>
+      </c>
+      <c r="B266" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C266" s="3">
+        <v>5154.78515625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="3">
+        <v>13250</v>
+      </c>
+      <c r="B267" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C267" s="3">
+        <v>5204.8828125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="3">
+        <v>13300</v>
+      </c>
+      <c r="B268" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C268" s="3">
+        <v>5256.298828125</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="3">
+        <v>13350</v>
+      </c>
+      <c r="B269" s="3">
+        <v>5416.471072450145</v>
+      </c>
+      <c r="C269" s="3">
+        <v>5305.517578125</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="3">
+        <v>13400</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C270" s="3">
+        <v>5353.857421875</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="3">
+        <v>13450</v>
+      </c>
+      <c r="B271" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C271" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="3">
+        <v>13500</v>
+      </c>
+      <c r="B272" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C272" s="3">
+        <v>5429.00390625</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="3">
+        <v>13550</v>
+      </c>
+      <c r="B273" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C273" s="3">
+        <v>5436.03515625</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="3">
+        <v>13600</v>
+      </c>
+      <c r="B274" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C274" s="3">
+        <v>5403.076171875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="3">
+        <v>13650</v>
+      </c>
+      <c r="B275" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C275" s="3">
+        <v>5356.93359375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="3">
+        <v>13700</v>
+      </c>
+      <c r="B276" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C276" s="3">
+        <v>5297.607421875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="3">
+        <v>13750</v>
+      </c>
+      <c r="B277" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C277" s="3">
+        <v>5255.859375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="3">
+        <v>13800</v>
+      </c>
+      <c r="B278" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C278" s="3">
+        <v>5238.28125</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="3">
+        <v>13850</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C279" s="3">
+        <v>5259.814453125</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="3">
+        <v>13900</v>
+      </c>
+      <c r="B280" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C280" s="3">
+        <v>5291.89453125</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="3">
+        <v>13950</v>
+      </c>
+      <c r="B281" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C281" s="3">
+        <v>5342.431640625</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="3">
+        <v>14000</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C282" s="3">
+        <v>5391.2109375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="3">
+        <v>14050</v>
+      </c>
+      <c r="B283" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C283" s="3">
+        <v>5420.654296875</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="3">
+        <v>14100</v>
+      </c>
+      <c r="B284" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C284" s="3">
+        <v>5438.232421875</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="3">
+        <v>14150</v>
+      </c>
+      <c r="B285" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C285" s="3">
+        <v>5414.94140625</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="3">
+        <v>14200</v>
+      </c>
+      <c r="B286" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C286" s="3">
+        <v>5360.44921875</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="3">
+        <v>14250</v>
+      </c>
+      <c r="B287" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C287" s="3">
+        <v>5295.41015625</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="3">
+        <v>14300</v>
+      </c>
+      <c r="B288" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C288" s="3">
+        <v>5240.478515625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="3">
+        <v>14350</v>
+      </c>
+      <c r="B289" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C289" s="3">
+        <v>5200.927734375</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="3">
+        <v>14400</v>
+      </c>
+      <c r="B290" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C290" s="3">
+        <v>5205.76171875</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="3">
+        <v>14450</v>
+      </c>
+      <c r="B291" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C291" s="3">
+        <v>5236.5234375</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="3">
+        <v>14500</v>
+      </c>
+      <c r="B292" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C292" s="3">
+        <v>5278.271484375</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="3">
+        <v>14550</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C293" s="3">
+        <v>5324.853515625</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="3">
+        <v>14600</v>
+      </c>
+      <c r="B294" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C294" s="3">
+        <v>5367.919921875</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="3">
+        <v>14650</v>
+      </c>
+      <c r="B295" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5407.91015625</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="3">
+        <v>14700</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C296" s="3">
+        <v>5430.76171875</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="3">
+        <v>14750</v>
+      </c>
+      <c r="B297" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C297" s="3">
+        <v>5429.8828125</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="3">
+        <v>14800</v>
+      </c>
+      <c r="B298" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C298" s="3">
+        <v>5383.30078125</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="3">
+        <v>14850</v>
+      </c>
+      <c r="B299" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C299" s="3">
+        <v>5329.6875</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="3">
+        <v>14900</v>
+      </c>
+      <c r="B300" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C300" s="3">
+        <v>5267.28515625</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="3">
+        <v>14950</v>
+      </c>
+      <c r="B301" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C301" s="3">
+        <v>5225.9765625</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B302" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C302" s="3">
+        <v>5208.3984375</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="3">
+        <v>15050</v>
+      </c>
+      <c r="B303" s="3">
+        <v>5416.174365296824</v>
+      </c>
+      <c r="C303" s="3">
+        <v>5239.599609375</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="3">
+        <v>15100</v>
+      </c>
+      <c r="B304" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C304" s="3">
+        <v>5275.634765625</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="3">
+        <v>15150</v>
+      </c>
+      <c r="B305" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C305" s="3">
+        <v>5322.65625</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="3">
+        <v>15200</v>
+      </c>
+      <c r="B306" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C306" s="3">
+        <v>5367.919921875</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="3">
+        <v>15250</v>
+      </c>
+      <c r="B307" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C307" s="3">
+        <v>5412.3046875</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="3">
+        <v>15300</v>
+      </c>
+      <c r="B308" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C308" s="3">
+        <v>5431.640625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="3">
+        <v>15350</v>
+      </c>
+      <c r="B309" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C309" s="3">
+        <v>5424.609375</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="3">
+        <v>15400</v>
+      </c>
+      <c r="B310" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C310" s="3">
+        <v>5394.7265625</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="3">
+        <v>15450</v>
+      </c>
+      <c r="B311" s="3">
+        <v>5416.570819154246</v>
+      </c>
+      <c r="C311" s="3">
+        <v>5299.365234375</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="3">
+        <v>15500</v>
+      </c>
+      <c r="B312" s="3">
+        <v>5416.673327699168</v>
+      </c>
+      <c r="C312" s="3">
+        <v>5153.02734375</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="3">
+        <v>15550</v>
+      </c>
+      <c r="B313" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C313" s="3">
+        <v>5028.22265625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="3">
+        <v>15600</v>
+      </c>
+      <c r="B314" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C314" s="3">
+        <v>4928.90625</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="3">
+        <v>15650</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C315" s="3">
+        <v>4852.44140625</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="3">
+        <v>15700</v>
+      </c>
+      <c r="B316" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C316" s="3">
+        <v>4840.576171875</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="3">
+        <v>15750</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C317" s="3">
+        <v>4880.56640625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="3">
+        <v>15800</v>
+      </c>
+      <c r="B318" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C318" s="3">
+        <v>4922.314453125</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="3">
+        <v>15850</v>
+      </c>
+      <c r="B319" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C319" s="3">
+        <v>4967.578125</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="3">
+        <v>15900</v>
+      </c>
+      <c r="B320" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C320" s="3">
+        <v>5011.962890625</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="3">
+        <v>15950</v>
+      </c>
+      <c r="B321" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C321" s="3">
+        <v>5060.302734375</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B322" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C322" s="3">
+        <v>5109.08203125</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="3">
+        <v>16050</v>
+      </c>
+      <c r="B323" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C323" s="3">
+        <v>5154.78515625</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="3">
+        <v>16100</v>
+      </c>
+      <c r="B324" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C324" s="3">
+        <v>5202.685546875</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="3">
+        <v>16150</v>
+      </c>
+      <c r="B325" s="3">
+        <v>5416.760607972606</v>
+      </c>
+      <c r="C325" s="3">
+        <v>5249.70703125</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="3">
+        <v>16200</v>
+      </c>
+      <c r="B326" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C326" s="3">
+        <v>5295.41015625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="3">
+        <v>16250</v>
+      </c>
+      <c r="B327" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C327" s="3">
+        <v>5339.35546875</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="3">
+        <v>16300</v>
+      </c>
+      <c r="B328" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C328" s="3">
+        <v>5386.376953125</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="3">
+        <v>16350</v>
+      </c>
+      <c r="B329" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C329" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="3">
+        <v>16400</v>
+      </c>
+      <c r="B330" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C330" s="3">
+        <v>5435.595703125</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="3">
+        <v>16450</v>
+      </c>
+      <c r="B331" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C331" s="3">
+        <v>5410.546875</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="3">
+        <v>16500</v>
+      </c>
+      <c r="B332" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C332" s="3">
+        <v>5372.314453125</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="3">
+        <v>16550</v>
+      </c>
+      <c r="B333" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C333" s="3">
+        <v>5318.701171875</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="3">
+        <v>16600</v>
+      </c>
+      <c r="B334" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C334" s="3">
+        <v>5270.80078125</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="3">
+        <v>16650</v>
+      </c>
+      <c r="B335" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C335" s="3">
+        <v>5255.419921875</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="3">
+        <v>16700</v>
+      </c>
+      <c r="B336" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C336" s="3">
+        <v>5272.998046875</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="3">
+        <v>16750</v>
+      </c>
+      <c r="B337" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C337" s="3">
+        <v>5305.078125</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="3">
+        <v>16800</v>
+      </c>
+      <c r="B338" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C338" s="3">
+        <v>5351.66015625</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="3">
+        <v>16850</v>
+      </c>
+      <c r="B339" s="3">
+        <v>5416.569339051707</v>
+      </c>
+      <c r="C339" s="3">
+        <v>5398.2421875</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="3">
+        <v>16900</v>
+      </c>
+      <c r="B340" s="3">
+        <v>5416.55920721577</v>
+      </c>
+      <c r="C340" s="3">
+        <v>5428.125</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="3">
+        <v>16950</v>
+      </c>
+      <c r="B341" s="3">
+        <v>5416.55920721577</v>
+      </c>
+      <c r="C341" s="3">
+        <v>5445.703125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="3">
+        <v>17000</v>
+      </c>
+      <c r="B342" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C342" s="3">
+        <v>5430.322265625</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="3">
+        <v>17050</v>
+      </c>
+      <c r="B343" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C343" s="3">
+        <v>5375.390625</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="3">
+        <v>17100</v>
+      </c>
+      <c r="B344" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C344" s="3">
+        <v>5311.669921875</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="3">
+        <v>17150</v>
+      </c>
+      <c r="B345" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C345" s="3">
+        <v>5246.630859375</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="3">
+        <v>17200</v>
+      </c>
+      <c r="B346" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C346" s="3">
+        <v>5195.21484375</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="3">
+        <v>17250</v>
+      </c>
+      <c r="B347" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C347" s="3">
+        <v>5177.197265625</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="3">
+        <v>17300</v>
+      </c>
+      <c r="B348" s="3">
+        <v>5416.570086732371</v>
+      </c>
+      <c r="C348" s="3">
+        <v>5199.609375</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="3">
+        <v>17350</v>
+      </c>
+      <c r="B349" s="3">
+        <v>5416.571582093699</v>
+      </c>
+      <c r="C349" s="3">
+        <v>5229.4921875</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="3">
+        <v>17400</v>
+      </c>
+      <c r="B350" s="3">
+        <v>5416.884036317332</v>
+      </c>
+      <c r="C350" s="3">
+        <v>5276.07421875</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3">
+        <v>17450</v>
+      </c>
+      <c r="B351" s="3">
+        <v>5416.884036317332</v>
+      </c>
+      <c r="C351" s="3">
+        <v>5322.216796875</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="3">
+        <v>17500</v>
+      </c>
+      <c r="B352" s="3">
+        <v>5416.884036317332</v>
+      </c>
+      <c r="C352" s="3">
+        <v>5364.404296875</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="3">
+        <v>17550</v>
+      </c>
+      <c r="B353" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C353" s="3">
+        <v>5406.15234375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="3">
+        <v>17600</v>
+      </c>
+      <c r="B354" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C354" s="3">
+        <v>5430.322265625</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="3">
+        <v>17650</v>
+      </c>
+      <c r="B355" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C355" s="3">
+        <v>5431.640625</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="3">
+        <v>17700</v>
+      </c>
+      <c r="B356" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C356" s="3">
+        <v>5393.408203125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="3">
+        <v>17750</v>
+      </c>
+      <c r="B357" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C357" s="3">
+        <v>5348.583984375</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="3">
+        <v>17800</v>
+      </c>
+      <c r="B358" s="3">
+        <v>5417.088839784129</v>
+      </c>
+      <c r="C358" s="3">
+        <v>5290.576171875</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="3">
+        <v>17850</v>
+      </c>
+      <c r="B359" s="3">
+        <v>5417.053530946238</v>
+      </c>
+      <c r="C359" s="3">
+        <v>5252.34375</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="3">
+        <v>17900</v>
+      </c>
+      <c r="B360" s="3">
+        <v>5416.673327699168</v>
+      </c>
+      <c r="C360" s="3">
+        <v>5236.962890625</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="3">
+        <v>17950</v>
+      </c>
+      <c r="B361" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C361" s="3">
+        <v>5258.056640625</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B362" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C362" s="3">
+        <v>5288.37890625</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="3">
+        <v>18050</v>
+      </c>
+      <c r="B363" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C363" s="3">
+        <v>5331.4453125</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="3">
+        <v>18100</v>
+      </c>
+      <c r="B364" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C364" s="3">
+        <v>5366.6015625</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="3">
+        <v>18150</v>
+      </c>
+      <c r="B365" s="3">
+        <v>5416.379458680613</v>
+      </c>
+      <c r="C365" s="3">
+        <v>5336.71875</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="3">
+        <v>18200</v>
+      </c>
+      <c r="B366" s="3">
+        <v>5416.477282777293</v>
+      </c>
+      <c r="C366" s="3">
+        <v>5273.876953125</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="3">
+        <v>18250</v>
+      </c>
+      <c r="B367" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C367" s="3">
+        <v>5209.716796875</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="3">
+        <v>18300</v>
+      </c>
+      <c r="B368" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C368" s="3">
+        <v>5149.951171875</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="3">
+        <v>18350</v>
+      </c>
+      <c r="B369" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C369" s="3">
+        <v>5095.01953125</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="3">
+        <v>18400</v>
+      </c>
+      <c r="B370" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C370" s="3">
+        <v>5104.6875</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="3">
+        <v>18450</v>
+      </c>
+      <c r="B371" s="3">
+        <v>5456.766243697354</v>
+      </c>
+      <c r="C371" s="3">
+        <v>5149.51171875</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="3">
+        <v>18500</v>
+      </c>
+      <c r="B372" s="3">
+        <v>5454.139611006924</v>
+      </c>
+      <c r="C372" s="3">
+        <v>5197.412109375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="3">
+        <v>18550</v>
+      </c>
+      <c r="B373" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C373" s="3">
+        <v>5240.91796875</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="3">
+        <v>18600</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C374" s="3">
+        <v>5285.7421875</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="3">
+        <v>18650</v>
+      </c>
+      <c r="B375" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C375" s="3">
+        <v>5327.490234375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="3">
+        <v>18700</v>
+      </c>
+      <c r="B376" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C376" s="3">
+        <v>5370.99609375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="3">
+        <v>18750</v>
+      </c>
+      <c r="B377" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C377" s="3">
+        <v>5410.107421875</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="3">
+        <v>18800</v>
+      </c>
+      <c r="B378" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C378" s="3">
+        <v>5445.263671875</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="3">
+        <v>18850</v>
+      </c>
+      <c r="B379" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C379" s="3">
+        <v>5468.115234375</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="3">
+        <v>18900</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C380" s="3">
+        <v>5481.298828125</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="3">
+        <v>18950</v>
+      </c>
+      <c r="B381" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C381" s="3">
+        <v>5484.814453125</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="3">
+        <v>19000</v>
+      </c>
+      <c r="B382" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C382" s="3">
+        <v>5477.34375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="3">
+        <v>19050</v>
+      </c>
+      <c r="B383" s="3">
+        <v>5417.284106507762</v>
+      </c>
+      <c r="C383" s="3">
+        <v>5464.599609375</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="3">
+        <v>19100</v>
+      </c>
+      <c r="B384" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C384" s="3">
+        <v>5453.173828125</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="3">
+        <v>19150</v>
+      </c>
+      <c r="B385" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C385" s="3">
+        <v>5438.232421875</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="3">
+        <v>19200</v>
+      </c>
+      <c r="B386" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C386" s="3">
+        <v>5425.927734375</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="3">
+        <v>19250</v>
+      </c>
+      <c r="B387" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C387" s="3">
+        <v>5418.896484375</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="3">
+        <v>19300</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C388" s="3">
+        <v>5413.623046875</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="3">
+        <v>19350</v>
+      </c>
+      <c r="B389" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C389" s="3">
+        <v>5410.546875</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="3">
+        <v>19400</v>
+      </c>
+      <c r="B390" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C390" s="3">
+        <v>5412.3046875</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="3">
+        <v>19450</v>
+      </c>
+      <c r="B391" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C391" s="3">
+        <v>5414.501953125</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="3">
+        <v>19500</v>
+      </c>
+      <c r="B392" s="3">
+        <v>5416.768389955027</v>
+      </c>
+      <c r="C392" s="3">
+        <v>5418.45703125</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="3">
+        <v>19550</v>
+      </c>
+      <c r="B393" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C393" s="3">
+        <v>5422.412109375</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="3">
+        <v>19600</v>
+      </c>
+      <c r="B394" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C394" s="3">
+        <v>5425.48828125</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="3">
+        <v>19650</v>
+      </c>
+      <c r="B395" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C395" s="3">
+        <v>5428.125</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="3">
+        <v>19700</v>
+      </c>
+      <c r="B396" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C396" s="3">
+        <v>5428.564453125</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="3">
+        <v>19750</v>
+      </c>
+      <c r="B397" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C397" s="3">
+        <v>5429.443359375</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="3">
+        <v>19800</v>
+      </c>
+      <c r="B398" s="3">
+        <v>5416.778292909129</v>
+      </c>
+      <c r="C398" s="3">
+        <v>5429.443359375</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="3">
+        <v>19850</v>
+      </c>
+      <c r="B399" s="3">
+        <v>5416.782534852488</v>
+      </c>
+      <c r="C399" s="3">
+        <v>5429.8828125</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="3">
+        <v>19900</v>
+      </c>
+      <c r="B400" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C400" s="3">
+        <v>5429.00390625</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="3">
+        <v>19950</v>
+      </c>
+      <c r="B401" s="3">
+        <v>5416.776873841746</v>
+      </c>
+      <c r="C401" s="3">
+        <v>5429.00390625</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B402" s="3">
+        <v>5416.776873841746</v>
+      </c>
+      <c r="C402" s="3">
+        <v>5427.24609375</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="3">
+        <v>20050</v>
+      </c>
+      <c r="B403" s="3">
+        <v>5416.776873841746</v>
+      </c>
+      <c r="C403" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="3">
+        <v>20100</v>
+      </c>
+      <c r="B404" s="3">
+        <v>5416.776873841746</v>
+      </c>
+      <c r="C404" s="3">
+        <v>5425.48828125</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="3">
+        <v>20150</v>
+      </c>
+      <c r="B405" s="3">
+        <v>5416.776873841746</v>
+      </c>
+      <c r="C405" s="3">
+        <v>5425.48828125</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="3">
+        <v>20200</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C406" s="3">
+        <v>5425.927734375</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="3">
+        <v>20250</v>
+      </c>
+      <c r="B407" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C407" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="3">
+        <v>20300</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C408" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="3">
+        <v>20350</v>
+      </c>
+      <c r="B409" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C409" s="3">
+        <v>5425.048828125</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="3">
+        <v>20400</v>
+      </c>
+      <c r="B410" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C410" s="3">
+        <v>5426.3671875</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="3">
+        <v>20450</v>
+      </c>
+      <c r="B411" s="3">
+        <v>5416.758502259715</v>
+      </c>
+      <c r="C411" s="3">
+        <v>5425.48828125</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="3">
+        <v>20500</v>
+      </c>
+      <c r="B412" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C412" s="3">
+        <v>5425.48828125</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="3">
+        <v>20550</v>
+      </c>
+      <c r="B413" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C413" s="3">
+        <v>5426.806640625</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="3">
+        <v>20600</v>
+      </c>
+      <c r="B414" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C414" s="3">
+        <v>5426.806640625</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="3">
+        <v>20650</v>
+      </c>
+      <c r="B415" s="3">
+        <v>5416.559191956981</v>
+      </c>
+      <c r="C415" s="3">
+        <v>5425.048828125</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="3">
+        <v>20700</v>
+      </c>
+      <c r="B416" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C416" s="3">
+        <v>5425.927734375</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="3">
+        <v>20750</v>
+      </c>
+      <c r="B417" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C417" s="3">
+        <v>5425.927734375</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="3">
+        <v>20800</v>
+      </c>
+      <c r="B418" s="3">
+        <v>5416.789599671824</v>
+      </c>
+      <c r="C418" s="3">
+        <v>5425.048828125</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="3">
+        <v>20850</v>
+      </c>
+      <c r="B419" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C419" s="3">
+        <v>5424.169921875</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="3">
+        <v>20900</v>
+      </c>
+      <c r="B420" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C420" s="3">
+        <v>5428.125</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="3">
+        <v>20950</v>
+      </c>
+      <c r="B421" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C421" s="3">
+        <v>5430.76171875</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="3">
+        <v>21000</v>
+      </c>
+      <c r="B422" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C422" s="3">
+        <v>5434.27734375</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="3">
+        <v>21050</v>
+      </c>
+      <c r="B423" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C423" s="3">
+        <v>5439.990234375</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="3">
+        <v>21100</v>
+      </c>
+      <c r="B424" s="3">
+        <v>5455.114815474698</v>
+      </c>
+      <c r="C424" s="3">
+        <v>5447.900390625</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="3">
+        <v>21150</v>
+      </c>
+      <c r="B425" s="3">
+        <v>5454.22367167587</v>
+      </c>
+      <c r="C425" s="3">
+        <v>5454.4921875</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="3">
+        <v>21200</v>
+      </c>
+      <c r="B426" s="3">
+        <v>5454.316353560635</v>
+      </c>
+      <c r="C426" s="3">
+        <v>5461.962890625</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="3">
+        <v>21250</v>
+      </c>
+      <c r="B427" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C427" s="3">
+        <v>5467.67578125</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="3">
+        <v>21300</v>
+      </c>
+      <c r="B428" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C428" s="3">
+        <v>5466.357421875</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="3">
+        <v>21350</v>
+      </c>
+      <c r="B429" s="3">
+        <v>5416.470889344676</v>
+      </c>
+      <c r="C429" s="3">
+        <v>5466.357421875</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="3">
+        <v>21400</v>
+      </c>
+      <c r="B430" s="3">
+        <v>5416.263156190379</v>
+      </c>
+      <c r="C430" s="3">
+        <v>5460.64453125</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="3">
+        <v>21450</v>
+      </c>
+      <c r="B431" s="3">
+        <v>5416.55920721577</v>
+      </c>
+      <c r="C431" s="3">
+        <v>5451.85546875</v>
       </c>
     </row>
   </sheetData>
